--- a/BackTest/2020-01-23 BackTest OMG.xlsx
+++ b/BackTest/2020-01-23 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>943</v>
+        <v>942.9</v>
       </c>
       <c r="C2" t="n">
         <v>942.9</v>
       </c>
       <c r="D2" t="n">
-        <v>943</v>
+        <v>942.9</v>
       </c>
       <c r="E2" t="n">
         <v>942.9</v>
       </c>
       <c r="F2" t="n">
-        <v>37.16322714740191</v>
+        <v>618.45</v>
       </c>
       <c r="G2" t="n">
-        <v>948.9983333333337</v>
+        <v>948.9900000000004</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C3" t="n">
-        <v>942</v>
+        <v>942.9</v>
       </c>
       <c r="D3" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E3" t="n">
-        <v>942</v>
+        <v>942.9</v>
       </c>
       <c r="F3" t="n">
-        <v>31.39596602972399</v>
+        <v>37.16322714740191</v>
       </c>
       <c r="G3" t="n">
-        <v>948.8650000000004</v>
+        <v>948.9983333333337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C4" t="n">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D4" t="n">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E4" t="n">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F4" t="n">
-        <v>4.1655</v>
+        <v>31.39596602972399</v>
       </c>
       <c r="G4" t="n">
-        <v>948.6983333333337</v>
+        <v>948.8650000000004</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>938.4</v>
+        <v>940</v>
       </c>
       <c r="C5" t="n">
-        <v>938.4</v>
+        <v>940</v>
       </c>
       <c r="D5" t="n">
-        <v>938.4</v>
+        <v>940</v>
       </c>
       <c r="E5" t="n">
-        <v>937.4</v>
+        <v>940</v>
       </c>
       <c r="F5" t="n">
-        <v>1092.1</v>
+        <v>4.1655</v>
       </c>
       <c r="G5" t="n">
-        <v>948.5050000000005</v>
+        <v>948.6983333333337</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,35 +573,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941.9</v>
+        <v>938.4</v>
       </c>
       <c r="C6" t="n">
-        <v>941.9</v>
+        <v>938.4</v>
       </c>
       <c r="D6" t="n">
-        <v>941.9</v>
+        <v>938.4</v>
       </c>
       <c r="E6" t="n">
-        <v>941.9</v>
+        <v>937.4</v>
       </c>
       <c r="F6" t="n">
-        <v>9.0167</v>
+        <v>1092.1</v>
       </c>
       <c r="G6" t="n">
-        <v>948.3700000000005</v>
+        <v>948.5050000000005</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>938.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>938.4</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -612,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940</v>
+        <v>941.9</v>
       </c>
       <c r="C7" t="n">
-        <v>940</v>
+        <v>941.9</v>
       </c>
       <c r="D7" t="n">
-        <v>940</v>
+        <v>941.9</v>
       </c>
       <c r="E7" t="n">
-        <v>940</v>
+        <v>941.9</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8345</v>
+        <v>9.0167</v>
       </c>
       <c r="G7" t="n">
-        <v>948.1000000000005</v>
+        <v>948.3700000000005</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -636,16 +632,12 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>941.9</v>
+        <v>938.4</v>
       </c>
       <c r="K7" t="n">
         <v>938.4</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -655,22 +647,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>941.9</v>
+        <v>940</v>
       </c>
       <c r="C8" t="n">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D8" t="n">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E8" t="n">
-        <v>941.9</v>
+        <v>940</v>
       </c>
       <c r="F8" t="n">
-        <v>959.9453</v>
+        <v>0.8345</v>
       </c>
       <c r="G8" t="n">
-        <v>947.8783333333338</v>
+        <v>948.1000000000005</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -696,22 +688,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="C9" t="n">
         <v>943</v>
       </c>
-      <c r="C9" t="n">
-        <v>950.8</v>
-      </c>
       <c r="D9" t="n">
-        <v>950.8</v>
+        <v>943</v>
       </c>
       <c r="E9" t="n">
-        <v>943</v>
+        <v>941.9</v>
       </c>
       <c r="F9" t="n">
-        <v>2401.4334</v>
+        <v>959.9453</v>
       </c>
       <c r="G9" t="n">
-        <v>947.7866666666671</v>
+        <v>947.8783333333338</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -720,8 +712,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>938.4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -731,22 +729,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>950.7</v>
+        <v>943</v>
       </c>
       <c r="C10" t="n">
-        <v>950.7</v>
+        <v>950.8</v>
       </c>
       <c r="D10" t="n">
-        <v>950.7</v>
+        <v>950.8</v>
       </c>
       <c r="E10" t="n">
-        <v>950.7</v>
+        <v>943</v>
       </c>
       <c r="F10" t="n">
-        <v>1500</v>
+        <v>2401.4334</v>
       </c>
       <c r="G10" t="n">
-        <v>947.8283333333337</v>
+        <v>947.7866666666671</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -781,7 +779,7 @@
         <v>1500</v>
       </c>
       <c r="G11" t="n">
-        <v>947.8900000000004</v>
+        <v>947.8283333333337</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -801,22 +799,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>953.2</v>
+        <v>950.7</v>
       </c>
       <c r="C12" t="n">
-        <v>953.2</v>
+        <v>950.7</v>
       </c>
       <c r="D12" t="n">
-        <v>953.2</v>
+        <v>950.7</v>
       </c>
       <c r="E12" t="n">
-        <v>953.2</v>
+        <v>950.7</v>
       </c>
       <c r="F12" t="n">
-        <v>579.9065000000001</v>
+        <v>1500</v>
       </c>
       <c r="G12" t="n">
-        <v>948.026666666667</v>
+        <v>947.8900000000004</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -836,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953.3</v>
+        <v>953.2</v>
       </c>
       <c r="C13" t="n">
-        <v>953.3</v>
+        <v>953.2</v>
       </c>
       <c r="D13" t="n">
-        <v>953.3</v>
+        <v>953.2</v>
       </c>
       <c r="E13" t="n">
-        <v>953.3</v>
+        <v>953.2</v>
       </c>
       <c r="F13" t="n">
-        <v>43.3807</v>
+        <v>579.9065000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>948.1683333333336</v>
+        <v>948.026666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -871,22 +869,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>952</v>
+        <v>953.3</v>
       </c>
       <c r="C14" t="n">
-        <v>952</v>
+        <v>953.3</v>
       </c>
       <c r="D14" t="n">
         <v>953.3</v>
       </c>
       <c r="E14" t="n">
-        <v>952</v>
+        <v>953.3</v>
       </c>
       <c r="F14" t="n">
-        <v>681.1763999999999</v>
+        <v>43.3807</v>
       </c>
       <c r="G14" t="n">
-        <v>948.2883333333336</v>
+        <v>948.1683333333336</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +904,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>951.1</v>
+        <v>952</v>
       </c>
       <c r="C15" t="n">
-        <v>951.1</v>
+        <v>952</v>
       </c>
       <c r="D15" t="n">
-        <v>951.1</v>
+        <v>953.3</v>
       </c>
       <c r="E15" t="n">
-        <v>951.1</v>
+        <v>952</v>
       </c>
       <c r="F15" t="n">
-        <v>61.7</v>
+        <v>681.1763999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>948.3983333333337</v>
+        <v>948.2883333333336</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -941,22 +939,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>951.2</v>
+        <v>951.1</v>
       </c>
       <c r="C16" t="n">
-        <v>951.2</v>
+        <v>951.1</v>
       </c>
       <c r="D16" t="n">
-        <v>951.2</v>
+        <v>951.1</v>
       </c>
       <c r="E16" t="n">
-        <v>951.2</v>
+        <v>951.1</v>
       </c>
       <c r="F16" t="n">
         <v>61.7</v>
       </c>
       <c r="G16" t="n">
-        <v>948.5066666666669</v>
+        <v>948.3983333333337</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -988,10 +986,10 @@
         <v>951.2</v>
       </c>
       <c r="F17" t="n">
-        <v>30.9</v>
+        <v>61.7</v>
       </c>
       <c r="G17" t="n">
-        <v>948.4883333333335</v>
+        <v>948.5066666666669</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1011,22 +1009,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>954.2</v>
+        <v>951.2</v>
       </c>
       <c r="C18" t="n">
-        <v>956</v>
+        <v>951.2</v>
       </c>
       <c r="D18" t="n">
-        <v>956</v>
+        <v>951.2</v>
       </c>
       <c r="E18" t="n">
-        <v>954.2</v>
+        <v>951.2</v>
       </c>
       <c r="F18" t="n">
-        <v>300</v>
+        <v>30.9</v>
       </c>
       <c r="G18" t="n">
-        <v>948.5500000000001</v>
+        <v>948.4883333333335</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1046,22 +1044,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>955</v>
+        <v>954.2</v>
       </c>
       <c r="C19" t="n">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D19" t="n">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E19" t="n">
-        <v>955</v>
+        <v>954.2</v>
       </c>
       <c r="F19" t="n">
-        <v>46.3</v>
+        <v>300</v>
       </c>
       <c r="G19" t="n">
-        <v>948.595</v>
+        <v>948.5500000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1081,22 +1079,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C20" t="n">
-        <v>956.3</v>
+        <v>955</v>
       </c>
       <c r="D20" t="n">
-        <v>956.3</v>
+        <v>955</v>
       </c>
       <c r="E20" t="n">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F20" t="n">
-        <v>611.1109</v>
+        <v>46.3</v>
       </c>
       <c r="G20" t="n">
-        <v>948.6616666666667</v>
+        <v>948.595</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1116,7 +1114,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>956.3</v>
+        <v>956</v>
       </c>
       <c r="C21" t="n">
         <v>956.3</v>
@@ -1125,13 +1123,13 @@
         <v>956.3</v>
       </c>
       <c r="E21" t="n">
-        <v>956.3</v>
+        <v>956</v>
       </c>
       <c r="F21" t="n">
-        <v>1545.364</v>
+        <v>611.1109</v>
       </c>
       <c r="G21" t="n">
-        <v>948.7283333333334</v>
+        <v>948.6616666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1151,22 +1149,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>956.2</v>
+        <v>956.3</v>
       </c>
       <c r="C22" t="n">
-        <v>956.2</v>
+        <v>956.3</v>
       </c>
       <c r="D22" t="n">
-        <v>956.2</v>
+        <v>956.3</v>
       </c>
       <c r="E22" t="n">
-        <v>956.2</v>
+        <v>956.3</v>
       </c>
       <c r="F22" t="n">
-        <v>224.7</v>
+        <v>1545.364</v>
       </c>
       <c r="G22" t="n">
-        <v>948.7933333333333</v>
+        <v>948.7283333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1186,22 +1184,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>952</v>
+        <v>956.2</v>
       </c>
       <c r="C23" t="n">
-        <v>952</v>
+        <v>956.2</v>
       </c>
       <c r="D23" t="n">
-        <v>952</v>
+        <v>956.2</v>
       </c>
       <c r="E23" t="n">
-        <v>952</v>
+        <v>956.2</v>
       </c>
       <c r="F23" t="n">
-        <v>1133.539</v>
+        <v>224.7</v>
       </c>
       <c r="G23" t="n">
-        <v>948.7883333333333</v>
+        <v>948.7933333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1221,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>951.5</v>
+        <v>952</v>
       </c>
       <c r="C24" t="n">
-        <v>951.5</v>
+        <v>952</v>
       </c>
       <c r="D24" t="n">
-        <v>951.5</v>
+        <v>952</v>
       </c>
       <c r="E24" t="n">
-        <v>951.5</v>
+        <v>952</v>
       </c>
       <c r="F24" t="n">
-        <v>567.0802</v>
+        <v>1133.539</v>
       </c>
       <c r="G24" t="n">
-        <v>948.7183333333334</v>
+        <v>948.7883333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1256,22 +1254,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>952</v>
+        <v>951.5</v>
       </c>
       <c r="C25" t="n">
-        <v>952.7</v>
+        <v>951.5</v>
       </c>
       <c r="D25" t="n">
-        <v>952.7</v>
+        <v>951.5</v>
       </c>
       <c r="E25" t="n">
-        <v>952</v>
+        <v>951.5</v>
       </c>
       <c r="F25" t="n">
-        <v>418.3274</v>
+        <v>567.0802</v>
       </c>
       <c r="G25" t="n">
-        <v>948.6633333333333</v>
+        <v>948.7183333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,22 +1289,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>951.5</v>
+        <v>952</v>
       </c>
       <c r="C26" t="n">
-        <v>951.5</v>
+        <v>952.7</v>
       </c>
       <c r="D26" t="n">
-        <v>951.5</v>
+        <v>952.7</v>
       </c>
       <c r="E26" t="n">
-        <v>951.5</v>
+        <v>952</v>
       </c>
       <c r="F26" t="n">
-        <v>149.374</v>
+        <v>418.3274</v>
       </c>
       <c r="G26" t="n">
-        <v>948.5883333333333</v>
+        <v>948.6633333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,22 +1324,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>956.3</v>
+        <v>951.5</v>
       </c>
       <c r="C27" t="n">
-        <v>956.3</v>
+        <v>951.5</v>
       </c>
       <c r="D27" t="n">
-        <v>956.3</v>
+        <v>951.5</v>
       </c>
       <c r="E27" t="n">
-        <v>956.3</v>
+        <v>951.5</v>
       </c>
       <c r="F27" t="n">
-        <v>410.5293</v>
+        <v>149.374</v>
       </c>
       <c r="G27" t="n">
-        <v>948.655</v>
+        <v>948.5883333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1373,10 +1371,10 @@
         <v>956.3</v>
       </c>
       <c r="F28" t="n">
-        <v>132.7689695702186</v>
+        <v>410.5293</v>
       </c>
       <c r="G28" t="n">
-        <v>948.6583333333333</v>
+        <v>948.655</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1408,10 +1406,10 @@
         <v>956.3</v>
       </c>
       <c r="F29" t="n">
-        <v>11.7376</v>
+        <v>132.7689695702186</v>
       </c>
       <c r="G29" t="n">
-        <v>948.725</v>
+        <v>948.6583333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,19 +1432,19 @@
         <v>956.3</v>
       </c>
       <c r="C30" t="n">
-        <v>961.7</v>
+        <v>956.3</v>
       </c>
       <c r="D30" t="n">
-        <v>961.7</v>
+        <v>956.3</v>
       </c>
       <c r="E30" t="n">
         <v>956.3</v>
       </c>
       <c r="F30" t="n">
-        <v>426.9238</v>
+        <v>11.7376</v>
       </c>
       <c r="G30" t="n">
-        <v>948.8783333333333</v>
+        <v>948.725</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1466,22 +1464,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>958.1</v>
+        <v>956.3</v>
       </c>
       <c r="C31" t="n">
-        <v>958.1</v>
+        <v>961.7</v>
       </c>
       <c r="D31" t="n">
-        <v>958.1</v>
+        <v>961.7</v>
       </c>
       <c r="E31" t="n">
-        <v>958.1</v>
+        <v>956.3</v>
       </c>
       <c r="F31" t="n">
-        <v>38.6</v>
+        <v>426.9238</v>
       </c>
       <c r="G31" t="n">
-        <v>948.9716666666666</v>
+        <v>948.8783333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1501,22 +1499,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>966.2</v>
+        <v>958.1</v>
       </c>
       <c r="C32" t="n">
-        <v>960.4</v>
+        <v>958.1</v>
       </c>
       <c r="D32" t="n">
-        <v>967.7</v>
+        <v>958.1</v>
       </c>
       <c r="E32" t="n">
-        <v>960.4</v>
+        <v>958.1</v>
       </c>
       <c r="F32" t="n">
-        <v>1507.0958</v>
+        <v>38.6</v>
       </c>
       <c r="G32" t="n">
-        <v>949.1033333333332</v>
+        <v>948.9716666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1536,22 +1534,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>960.5</v>
+        <v>966.2</v>
       </c>
       <c r="C33" t="n">
-        <v>960.5</v>
+        <v>960.4</v>
       </c>
       <c r="D33" t="n">
-        <v>960.5</v>
+        <v>967.7</v>
       </c>
       <c r="E33" t="n">
-        <v>960.5</v>
+        <v>960.4</v>
       </c>
       <c r="F33" t="n">
-        <v>83.5117</v>
+        <v>1507.0958</v>
       </c>
       <c r="G33" t="n">
-        <v>949.2283333333332</v>
+        <v>949.1033333333332</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1571,22 +1569,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>965.4</v>
+        <v>960.5</v>
       </c>
       <c r="C34" t="n">
-        <v>967.7</v>
+        <v>960.5</v>
       </c>
       <c r="D34" t="n">
-        <v>967.7</v>
+        <v>960.5</v>
       </c>
       <c r="E34" t="n">
-        <v>965.4</v>
+        <v>960.5</v>
       </c>
       <c r="F34" t="n">
-        <v>565.7662150356515</v>
+        <v>83.5117</v>
       </c>
       <c r="G34" t="n">
-        <v>949.4733333333332</v>
+        <v>949.2283333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1606,22 +1604,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>969.1</v>
+        <v>965.4</v>
       </c>
       <c r="C35" t="n">
-        <v>969.1</v>
+        <v>967.7</v>
       </c>
       <c r="D35" t="n">
-        <v>969.1</v>
+        <v>967.7</v>
       </c>
       <c r="E35" t="n">
-        <v>969.1</v>
+        <v>965.4</v>
       </c>
       <c r="F35" t="n">
-        <v>67.0467444020225</v>
+        <v>565.7662150356515</v>
       </c>
       <c r="G35" t="n">
-        <v>949.7416666666666</v>
+        <v>949.4733333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1641,22 +1639,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>966.6</v>
+        <v>969.1</v>
       </c>
       <c r="C36" t="n">
-        <v>966.6</v>
+        <v>969.1</v>
       </c>
       <c r="D36" t="n">
-        <v>966.6</v>
+        <v>969.1</v>
       </c>
       <c r="E36" t="n">
-        <v>966.6</v>
+        <v>969.1</v>
       </c>
       <c r="F36" t="n">
-        <v>1500</v>
+        <v>67.0467444020225</v>
       </c>
       <c r="G36" t="n">
-        <v>949.9683333333331</v>
+        <v>949.7416666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1676,22 +1674,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>962.8</v>
+        <v>966.6</v>
       </c>
       <c r="C37" t="n">
-        <v>962.8</v>
+        <v>966.6</v>
       </c>
       <c r="D37" t="n">
-        <v>962.8</v>
+        <v>966.6</v>
       </c>
       <c r="E37" t="n">
-        <v>962.8</v>
+        <v>966.6</v>
       </c>
       <c r="F37" t="n">
-        <v>4.1667</v>
+        <v>1500</v>
       </c>
       <c r="G37" t="n">
-        <v>950.1399999999999</v>
+        <v>949.9683333333331</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1711,22 +1709,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>962</v>
+        <v>962.8</v>
       </c>
       <c r="C38" t="n">
-        <v>960.5</v>
+        <v>962.8</v>
       </c>
       <c r="D38" t="n">
-        <v>962</v>
+        <v>962.8</v>
       </c>
       <c r="E38" t="n">
-        <v>960.5</v>
+        <v>962.8</v>
       </c>
       <c r="F38" t="n">
-        <v>1560.862</v>
+        <v>4.1667</v>
       </c>
       <c r="G38" t="n">
-        <v>950.2733333333332</v>
+        <v>950.1399999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1746,22 +1744,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>960.6</v>
+        <v>962</v>
       </c>
       <c r="C39" t="n">
-        <v>958.8</v>
+        <v>960.5</v>
       </c>
       <c r="D39" t="n">
-        <v>960.6</v>
+        <v>962</v>
       </c>
       <c r="E39" t="n">
-        <v>958.8</v>
+        <v>960.5</v>
       </c>
       <c r="F39" t="n">
-        <v>2435.2386</v>
+        <v>1560.862</v>
       </c>
       <c r="G39" t="n">
-        <v>950.3783333333333</v>
+        <v>950.2733333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1781,22 +1779,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>962</v>
+        <v>960.6</v>
       </c>
       <c r="C40" t="n">
-        <v>966</v>
+        <v>958.8</v>
       </c>
       <c r="D40" t="n">
-        <v>966</v>
+        <v>960.6</v>
       </c>
       <c r="E40" t="n">
-        <v>962</v>
+        <v>958.8</v>
       </c>
       <c r="F40" t="n">
-        <v>61.7</v>
+        <v>2435.2386</v>
       </c>
       <c r="G40" t="n">
-        <v>950.6583333333333</v>
+        <v>950.3783333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1816,22 +1814,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>961.1</v>
+        <v>962</v>
       </c>
       <c r="C41" t="n">
-        <v>957.9</v>
+        <v>966</v>
       </c>
       <c r="D41" t="n">
-        <v>961.1</v>
+        <v>966</v>
       </c>
       <c r="E41" t="n">
-        <v>950.9</v>
+        <v>962</v>
       </c>
       <c r="F41" t="n">
-        <v>4459.2331</v>
+        <v>61.7</v>
       </c>
       <c r="G41" t="n">
-        <v>950.8066666666667</v>
+        <v>950.6583333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1851,22 +1849,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>964.5</v>
+        <v>961.1</v>
       </c>
       <c r="C42" t="n">
-        <v>965.9</v>
+        <v>957.9</v>
       </c>
       <c r="D42" t="n">
-        <v>965.9</v>
+        <v>961.1</v>
       </c>
       <c r="E42" t="n">
-        <v>964.5</v>
+        <v>950.9</v>
       </c>
       <c r="F42" t="n">
-        <v>45.2999</v>
+        <v>4459.2331</v>
       </c>
       <c r="G42" t="n">
-        <v>950.97</v>
+        <v>950.8066666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1886,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>967</v>
+        <v>964.5</v>
       </c>
       <c r="C43" t="n">
-        <v>969.7</v>
+        <v>965.9</v>
       </c>
       <c r="D43" t="n">
-        <v>969.7</v>
+        <v>965.9</v>
       </c>
       <c r="E43" t="n">
-        <v>967</v>
+        <v>964.5</v>
       </c>
       <c r="F43" t="n">
-        <v>13.7</v>
+        <v>45.2999</v>
       </c>
       <c r="G43" t="n">
-        <v>951.3283333333334</v>
+        <v>950.97</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1921,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>967</v>
+      </c>
+      <c r="C44" t="n">
         <v>969.7</v>
       </c>
-      <c r="C44" t="n">
-        <v>970</v>
-      </c>
       <c r="D44" t="n">
-        <v>970</v>
+        <v>969.7</v>
       </c>
       <c r="E44" t="n">
-        <v>969.7</v>
+        <v>967</v>
       </c>
       <c r="F44" t="n">
-        <v>405.5048</v>
+        <v>13.7</v>
       </c>
       <c r="G44" t="n">
-        <v>951.7250000000001</v>
+        <v>951.3283333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1956,22 +1954,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>970</v>
+        <v>969.7</v>
       </c>
       <c r="C45" t="n">
         <v>970</v>
       </c>
       <c r="D45" t="n">
-        <v>970.1</v>
+        <v>970</v>
       </c>
       <c r="E45" t="n">
-        <v>970</v>
+        <v>969.7</v>
       </c>
       <c r="F45" t="n">
-        <v>544.6506000000001</v>
+        <v>405.5048</v>
       </c>
       <c r="G45" t="n">
-        <v>952.0066666666668</v>
+        <v>951.7250000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1991,22 +1989,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C46" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D46" t="n">
-        <v>971</v>
+        <v>970.1</v>
       </c>
       <c r="E46" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F46" t="n">
-        <v>282.4218</v>
+        <v>544.6506000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>952.3183333333334</v>
+        <v>952.0066666666668</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2038,10 +2036,10 @@
         <v>971</v>
       </c>
       <c r="F47" t="n">
-        <v>2.1469</v>
+        <v>282.4218</v>
       </c>
       <c r="G47" t="n">
-        <v>952.7483333333334</v>
+        <v>952.3183333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2073,10 +2071,10 @@
         <v>971</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4313</v>
+        <v>2.1469</v>
       </c>
       <c r="G48" t="n">
-        <v>953.1783333333335</v>
+        <v>952.7483333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2096,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>969.9</v>
+        <v>971</v>
       </c>
       <c r="C49" t="n">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="D49" t="n">
-        <v>969.9</v>
+        <v>971</v>
       </c>
       <c r="E49" t="n">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="F49" t="n">
-        <v>11</v>
+        <v>0.4313</v>
       </c>
       <c r="G49" t="n">
-        <v>953.6200000000002</v>
+        <v>953.1783333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2131,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>963.9</v>
+        <v>969.9</v>
       </c>
       <c r="C50" t="n">
-        <v>963.9</v>
+        <v>964</v>
       </c>
       <c r="D50" t="n">
-        <v>963.9</v>
+        <v>969.9</v>
       </c>
       <c r="E50" t="n">
-        <v>963.9</v>
+        <v>964</v>
       </c>
       <c r="F50" t="n">
-        <v>568</v>
+        <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>953.9933333333336</v>
+        <v>953.6200000000002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2178,10 +2176,10 @@
         <v>963.9</v>
       </c>
       <c r="F51" t="n">
-        <v>421.9576</v>
+        <v>568</v>
       </c>
       <c r="G51" t="n">
-        <v>954.3416666666669</v>
+        <v>953.9933333333336</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2201,22 +2199,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>961.5</v>
+        <v>963.9</v>
       </c>
       <c r="C52" t="n">
-        <v>961.5</v>
+        <v>963.9</v>
       </c>
       <c r="D52" t="n">
-        <v>961.5</v>
+        <v>963.9</v>
       </c>
       <c r="E52" t="n">
-        <v>961.5</v>
+        <v>963.9</v>
       </c>
       <c r="F52" t="n">
-        <v>325.2133</v>
+        <v>421.9576</v>
       </c>
       <c r="G52" t="n">
-        <v>954.6500000000002</v>
+        <v>954.3416666666669</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2236,22 +2234,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>961.1</v>
+        <v>961.5</v>
       </c>
       <c r="C53" t="n">
-        <v>957.7</v>
+        <v>961.5</v>
       </c>
       <c r="D53" t="n">
-        <v>961.1</v>
+        <v>961.5</v>
       </c>
       <c r="E53" t="n">
-        <v>957.7</v>
+        <v>961.5</v>
       </c>
       <c r="F53" t="n">
-        <v>1826.8274</v>
+        <v>325.2133</v>
       </c>
       <c r="G53" t="n">
-        <v>954.8950000000002</v>
+        <v>954.6500000000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2271,22 +2269,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>961.5</v>
+        <v>961.1</v>
       </c>
       <c r="C54" t="n">
-        <v>961.5</v>
+        <v>957.7</v>
       </c>
       <c r="D54" t="n">
-        <v>961.5</v>
+        <v>961.1</v>
       </c>
       <c r="E54" t="n">
-        <v>961.5</v>
+        <v>957.7</v>
       </c>
       <c r="F54" t="n">
-        <v>27.5849</v>
+        <v>1826.8274</v>
       </c>
       <c r="G54" t="n">
-        <v>955.2850000000002</v>
+        <v>954.8950000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2306,22 +2304,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>957.5</v>
+        <v>961.5</v>
       </c>
       <c r="C55" t="n">
-        <v>957.5</v>
+        <v>961.5</v>
       </c>
       <c r="D55" t="n">
-        <v>957.5</v>
+        <v>961.5</v>
       </c>
       <c r="E55" t="n">
-        <v>957.5</v>
+        <v>961.5</v>
       </c>
       <c r="F55" t="n">
-        <v>10.94</v>
+        <v>27.5849</v>
       </c>
       <c r="G55" t="n">
-        <v>955.5266666666669</v>
+        <v>955.2850000000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2353,10 +2351,10 @@
         <v>957.5</v>
       </c>
       <c r="F56" t="n">
-        <v>54.41</v>
+        <v>10.94</v>
       </c>
       <c r="G56" t="n">
-        <v>955.7683333333335</v>
+        <v>955.5266666666669</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2388,10 +2386,10 @@
         <v>957.5</v>
       </c>
       <c r="F57" t="n">
-        <v>39.6599</v>
+        <v>54.41</v>
       </c>
       <c r="G57" t="n">
-        <v>956.0100000000002</v>
+        <v>955.7683333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2423,10 +2421,10 @@
         <v>957.5</v>
       </c>
       <c r="F58" t="n">
-        <v>32.4828</v>
+        <v>39.6599</v>
       </c>
       <c r="G58" t="n">
-        <v>956.2516666666669</v>
+        <v>956.0100000000002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2458,10 +2456,10 @@
         <v>957.5</v>
       </c>
       <c r="F59" t="n">
-        <v>19.8155</v>
+        <v>32.4828</v>
       </c>
       <c r="G59" t="n">
-        <v>956.556666666667</v>
+        <v>956.2516666666669</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2481,22 +2479,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>952</v>
+        <v>957.5</v>
       </c>
       <c r="C60" t="n">
-        <v>952</v>
+        <v>957.5</v>
       </c>
       <c r="D60" t="n">
-        <v>952</v>
+        <v>957.5</v>
       </c>
       <c r="E60" t="n">
-        <v>952</v>
+        <v>957.5</v>
       </c>
       <c r="F60" t="n">
-        <v>1224.0066</v>
+        <v>19.8155</v>
       </c>
       <c r="G60" t="n">
-        <v>956.7066666666669</v>
+        <v>956.556666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2528,10 +2526,10 @@
         <v>952</v>
       </c>
       <c r="F61" t="n">
-        <v>405.5048</v>
+        <v>1224.0066</v>
       </c>
       <c r="G61" t="n">
-        <v>956.8583333333336</v>
+        <v>956.7066666666669</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2551,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>954.1</v>
+        <v>952</v>
       </c>
       <c r="C62" t="n">
-        <v>960.3</v>
+        <v>952</v>
       </c>
       <c r="D62" t="n">
-        <v>960.3</v>
+        <v>952</v>
       </c>
       <c r="E62" t="n">
-        <v>954.1</v>
+        <v>952</v>
       </c>
       <c r="F62" t="n">
-        <v>342.8642</v>
+        <v>405.5048</v>
       </c>
       <c r="G62" t="n">
-        <v>957.1483333333337</v>
+        <v>956.8583333333336</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2586,31 +2584,35 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>961.3</v>
+        <v>954.1</v>
       </c>
       <c r="C63" t="n">
-        <v>961.5</v>
+        <v>960.3</v>
       </c>
       <c r="D63" t="n">
-        <v>961.5</v>
+        <v>960.3</v>
       </c>
       <c r="E63" t="n">
-        <v>961.3</v>
+        <v>954.1</v>
       </c>
       <c r="F63" t="n">
-        <v>547.9501</v>
+        <v>342.8642</v>
       </c>
       <c r="G63" t="n">
-        <v>957.4733333333336</v>
+        <v>957.1483333333337</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>952</v>
+      </c>
+      <c r="K63" t="n">
+        <v>952</v>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
@@ -2621,22 +2623,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>962.2</v>
+        <v>961.3</v>
       </c>
       <c r="C64" t="n">
-        <v>963.2</v>
+        <v>961.5</v>
       </c>
       <c r="D64" t="n">
-        <v>963.2</v>
+        <v>961.5</v>
       </c>
       <c r="E64" t="n">
-        <v>962.2</v>
+        <v>961.3</v>
       </c>
       <c r="F64" t="n">
-        <v>241.9026</v>
+        <v>547.9501</v>
       </c>
       <c r="G64" t="n">
-        <v>957.8600000000002</v>
+        <v>957.4733333333336</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2645,8 +2647,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>952</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2659,19 +2667,19 @@
         <v>962.2</v>
       </c>
       <c r="C65" t="n">
-        <v>956.5</v>
+        <v>963.2</v>
       </c>
       <c r="D65" t="n">
+        <v>963.2</v>
+      </c>
+      <c r="E65" t="n">
         <v>962.2</v>
       </c>
-      <c r="E65" t="n">
-        <v>956.5</v>
-      </c>
       <c r="F65" t="n">
-        <v>554.3043</v>
+        <v>241.9026</v>
       </c>
       <c r="G65" t="n">
-        <v>958.1616666666669</v>
+        <v>957.8600000000002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2680,8 +2688,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>952</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2691,22 +2705,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>957.8</v>
+        <v>962.2</v>
       </c>
       <c r="C66" t="n">
-        <v>957.8</v>
+        <v>956.5</v>
       </c>
       <c r="D66" t="n">
-        <v>957.8</v>
+        <v>962.2</v>
       </c>
       <c r="E66" t="n">
-        <v>957.8</v>
+        <v>956.5</v>
       </c>
       <c r="F66" t="n">
-        <v>162.5</v>
+        <v>554.3043</v>
       </c>
       <c r="G66" t="n">
-        <v>958.4266666666668</v>
+        <v>958.1616666666669</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2726,22 +2740,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>957.9</v>
+        <v>957.8</v>
       </c>
       <c r="C67" t="n">
-        <v>962.2</v>
+        <v>957.8</v>
       </c>
       <c r="D67" t="n">
-        <v>962.2</v>
+        <v>957.8</v>
       </c>
       <c r="E67" t="n">
-        <v>957.5</v>
+        <v>957.8</v>
       </c>
       <c r="F67" t="n">
-        <v>309.3562</v>
+        <v>162.5</v>
       </c>
       <c r="G67" t="n">
-        <v>958.7966666666669</v>
+        <v>958.4266666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2761,22 +2775,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>957.9</v>
+      </c>
+      <c r="C68" t="n">
         <v>962.2</v>
       </c>
-      <c r="C68" t="n">
-        <v>966.3</v>
-      </c>
       <c r="D68" t="n">
-        <v>966.3</v>
+        <v>962.2</v>
       </c>
       <c r="E68" t="n">
-        <v>962.2</v>
+        <v>957.5</v>
       </c>
       <c r="F68" t="n">
-        <v>1317.9</v>
+        <v>309.3562</v>
       </c>
       <c r="G68" t="n">
-        <v>959.1850000000002</v>
+        <v>958.7966666666669</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2796,22 +2810,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>961.8</v>
+        <v>962.2</v>
       </c>
       <c r="C69" t="n">
-        <v>961.8</v>
+        <v>966.3</v>
       </c>
       <c r="D69" t="n">
-        <v>961.8</v>
+        <v>966.3</v>
       </c>
       <c r="E69" t="n">
-        <v>961.8</v>
+        <v>962.2</v>
       </c>
       <c r="F69" t="n">
-        <v>89.33320000000001</v>
+        <v>1317.9</v>
       </c>
       <c r="G69" t="n">
-        <v>959.3683333333336</v>
+        <v>959.1850000000002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2831,22 +2845,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>968.3</v>
+        <v>961.8</v>
       </c>
       <c r="C70" t="n">
-        <v>968.6</v>
+        <v>961.8</v>
       </c>
       <c r="D70" t="n">
-        <v>968.6</v>
+        <v>961.8</v>
       </c>
       <c r="E70" t="n">
-        <v>968.3</v>
+        <v>961.8</v>
       </c>
       <c r="F70" t="n">
-        <v>401.1707135453232</v>
+        <v>89.33320000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>959.6666666666669</v>
+        <v>959.3683333333336</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2866,22 +2880,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>962</v>
+        <v>968.3</v>
       </c>
       <c r="C71" t="n">
-        <v>957.3</v>
+        <v>968.6</v>
       </c>
       <c r="D71" t="n">
-        <v>962</v>
+        <v>968.6</v>
       </c>
       <c r="E71" t="n">
-        <v>957.3</v>
+        <v>968.3</v>
       </c>
       <c r="F71" t="n">
-        <v>1063.6954</v>
+        <v>401.1707135453232</v>
       </c>
       <c r="G71" t="n">
-        <v>959.776666666667</v>
+        <v>959.6666666666669</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2901,22 +2915,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>955.5</v>
+        <v>962</v>
       </c>
       <c r="C72" t="n">
-        <v>955.5</v>
+        <v>957.3</v>
       </c>
       <c r="D72" t="n">
-        <v>955.5</v>
+        <v>962</v>
       </c>
       <c r="E72" t="n">
-        <v>955.5</v>
+        <v>957.3</v>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>1063.6954</v>
       </c>
       <c r="G72" t="n">
-        <v>959.8150000000004</v>
+        <v>959.776666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2936,22 +2950,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>952.8</v>
+        <v>955.5</v>
       </c>
       <c r="C73" t="n">
-        <v>951.8</v>
+        <v>955.5</v>
       </c>
       <c r="D73" t="n">
-        <v>952.8</v>
+        <v>955.5</v>
       </c>
       <c r="E73" t="n">
-        <v>951.8</v>
+        <v>955.5</v>
       </c>
       <c r="F73" t="n">
-        <v>1319</v>
+        <v>300</v>
       </c>
       <c r="G73" t="n">
-        <v>959.7900000000004</v>
+        <v>959.8150000000004</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2971,22 +2985,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>967.3</v>
+        <v>952.8</v>
       </c>
       <c r="C74" t="n">
-        <v>967.3</v>
+        <v>951.8</v>
       </c>
       <c r="D74" t="n">
-        <v>967.3</v>
+        <v>952.8</v>
       </c>
       <c r="E74" t="n">
-        <v>967.3</v>
+        <v>951.8</v>
       </c>
       <c r="F74" t="n">
-        <v>1.3702</v>
+        <v>1319</v>
       </c>
       <c r="G74" t="n">
-        <v>960.0450000000004</v>
+        <v>959.7900000000004</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3006,22 +3020,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>952.1</v>
+        <v>967.3</v>
       </c>
       <c r="C75" t="n">
-        <v>952.1</v>
+        <v>967.3</v>
       </c>
       <c r="D75" t="n">
-        <v>952.1</v>
+        <v>967.3</v>
       </c>
       <c r="E75" t="n">
-        <v>952.1</v>
+        <v>967.3</v>
       </c>
       <c r="F75" t="n">
-        <v>453</v>
+        <v>1.3702</v>
       </c>
       <c r="G75" t="n">
-        <v>960.0616666666671</v>
+        <v>960.0450000000004</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3041,22 +3055,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>952</v>
+        <v>952.1</v>
       </c>
       <c r="C76" t="n">
-        <v>952</v>
+        <v>952.1</v>
       </c>
       <c r="D76" t="n">
-        <v>952</v>
+        <v>952.1</v>
       </c>
       <c r="E76" t="n">
-        <v>952</v>
+        <v>952.1</v>
       </c>
       <c r="F76" t="n">
-        <v>25.9609</v>
+        <v>453</v>
       </c>
       <c r="G76" t="n">
-        <v>960.0750000000005</v>
+        <v>960.0616666666671</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3076,22 +3090,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>951.8</v>
+        <v>952</v>
       </c>
       <c r="C77" t="n">
-        <v>951.8</v>
+        <v>952</v>
       </c>
       <c r="D77" t="n">
-        <v>951.8</v>
+        <v>952</v>
       </c>
       <c r="E77" t="n">
-        <v>951.8</v>
+        <v>952</v>
       </c>
       <c r="F77" t="n">
-        <v>17.9464</v>
+        <v>25.9609</v>
       </c>
       <c r="G77" t="n">
-        <v>960.0850000000006</v>
+        <v>960.0750000000005</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3111,22 +3125,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>952</v>
+        <v>951.8</v>
       </c>
       <c r="C78" t="n">
-        <v>952</v>
+        <v>951.8</v>
       </c>
       <c r="D78" t="n">
-        <v>952</v>
+        <v>951.8</v>
       </c>
       <c r="E78" t="n">
-        <v>952</v>
+        <v>951.8</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0001</v>
+        <v>17.9464</v>
       </c>
       <c r="G78" t="n">
-        <v>960.0183333333339</v>
+        <v>960.0850000000006</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3146,22 +3160,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>958.6</v>
+        <v>952</v>
       </c>
       <c r="C79" t="n">
-        <v>958.6</v>
+        <v>952</v>
       </c>
       <c r="D79" t="n">
-        <v>958.6</v>
+        <v>952</v>
       </c>
       <c r="E79" t="n">
-        <v>958.6</v>
+        <v>952</v>
       </c>
       <c r="F79" t="n">
-        <v>786.104</v>
+        <v>0.0001</v>
       </c>
       <c r="G79" t="n">
-        <v>960.0783333333339</v>
+        <v>960.0183333333339</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3181,22 +3195,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>951.8</v>
+        <v>958.6</v>
       </c>
       <c r="C80" t="n">
-        <v>951.8</v>
+        <v>958.6</v>
       </c>
       <c r="D80" t="n">
-        <v>951.8</v>
+        <v>958.6</v>
       </c>
       <c r="E80" t="n">
-        <v>951.8</v>
+        <v>958.6</v>
       </c>
       <c r="F80" t="n">
-        <v>463</v>
+        <v>786.104</v>
       </c>
       <c r="G80" t="n">
-        <v>960.0033333333339</v>
+        <v>960.0783333333339</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3219,19 +3233,19 @@
         <v>951.8</v>
       </c>
       <c r="C81" t="n">
-        <v>951.3</v>
+        <v>951.8</v>
       </c>
       <c r="D81" t="n">
         <v>951.8</v>
       </c>
       <c r="E81" t="n">
-        <v>951.3</v>
+        <v>951.8</v>
       </c>
       <c r="F81" t="n">
-        <v>735.7676</v>
+        <v>463</v>
       </c>
       <c r="G81" t="n">
-        <v>959.9200000000005</v>
+        <v>960.0033333333339</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3251,22 +3265,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>949.5</v>
+        <v>951.8</v>
       </c>
       <c r="C82" t="n">
-        <v>949.5</v>
+        <v>951.3</v>
       </c>
       <c r="D82" t="n">
-        <v>949.5</v>
+        <v>951.8</v>
       </c>
       <c r="E82" t="n">
-        <v>949.5</v>
+        <v>951.3</v>
       </c>
       <c r="F82" t="n">
-        <v>475.2026</v>
+        <v>735.7676</v>
       </c>
       <c r="G82" t="n">
-        <v>959.808333333334</v>
+        <v>959.9200000000005</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3298,10 +3312,10 @@
         <v>949.5</v>
       </c>
       <c r="F83" t="n">
-        <v>888.7705</v>
+        <v>475.2026</v>
       </c>
       <c r="G83" t="n">
-        <v>959.7666666666672</v>
+        <v>959.808333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3321,22 +3335,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>954.6</v>
+        <v>949.5</v>
       </c>
       <c r="C84" t="n">
-        <v>954.6</v>
+        <v>949.5</v>
       </c>
       <c r="D84" t="n">
-        <v>954.6</v>
+        <v>949.5</v>
       </c>
       <c r="E84" t="n">
-        <v>954.6</v>
+        <v>949.5</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6</v>
+        <v>888.7705</v>
       </c>
       <c r="G84" t="n">
-        <v>959.818333333334</v>
+        <v>959.7666666666672</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3356,22 +3370,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>953.9</v>
+        <v>954.6</v>
       </c>
       <c r="C85" t="n">
-        <v>953.9</v>
+        <v>954.6</v>
       </c>
       <c r="D85" t="n">
-        <v>953.9</v>
+        <v>954.6</v>
       </c>
       <c r="E85" t="n">
-        <v>953.9</v>
+        <v>954.6</v>
       </c>
       <c r="F85" t="n">
-        <v>500</v>
+        <v>0.6</v>
       </c>
       <c r="G85" t="n">
-        <v>959.8383333333339</v>
+        <v>959.818333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3391,22 +3405,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>944.9</v>
+        <v>953.9</v>
       </c>
       <c r="C86" t="n">
-        <v>944.9</v>
+        <v>953.9</v>
       </c>
       <c r="D86" t="n">
-        <v>944.9</v>
+        <v>953.9</v>
       </c>
       <c r="E86" t="n">
-        <v>944.9</v>
+        <v>953.9</v>
       </c>
       <c r="F86" t="n">
-        <v>18.3586</v>
+        <v>500</v>
       </c>
       <c r="G86" t="n">
-        <v>959.728333333334</v>
+        <v>959.8383333333339</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3426,22 +3440,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>942.3</v>
+        <v>944.9</v>
       </c>
       <c r="C87" t="n">
-        <v>942.3</v>
+        <v>944.9</v>
       </c>
       <c r="D87" t="n">
-        <v>942.3</v>
+        <v>944.9</v>
       </c>
       <c r="E87" t="n">
-        <v>942.3</v>
+        <v>944.9</v>
       </c>
       <c r="F87" t="n">
-        <v>429.5772</v>
+        <v>18.3586</v>
       </c>
       <c r="G87" t="n">
-        <v>959.4950000000007</v>
+        <v>959.728333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3461,22 +3475,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>948.8</v>
+        <v>942.3</v>
       </c>
       <c r="C88" t="n">
-        <v>948.8</v>
+        <v>942.3</v>
       </c>
       <c r="D88" t="n">
-        <v>948.8</v>
+        <v>942.3</v>
       </c>
       <c r="E88" t="n">
-        <v>948.7</v>
+        <v>942.3</v>
       </c>
       <c r="F88" t="n">
-        <v>1917.0682</v>
+        <v>429.5772</v>
       </c>
       <c r="G88" t="n">
-        <v>959.3700000000007</v>
+        <v>959.4950000000007</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3496,22 +3510,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>948.9</v>
+        <v>948.8</v>
       </c>
       <c r="C89" t="n">
-        <v>938</v>
+        <v>948.8</v>
       </c>
       <c r="D89" t="n">
-        <v>948.9</v>
+        <v>948.8</v>
       </c>
       <c r="E89" t="n">
-        <v>938</v>
+        <v>948.7</v>
       </c>
       <c r="F89" t="n">
-        <v>3702.9626</v>
+        <v>1917.0682</v>
       </c>
       <c r="G89" t="n">
-        <v>959.0650000000006</v>
+        <v>959.3700000000007</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3531,22 +3545,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>939.3</v>
+        <v>948.9</v>
       </c>
       <c r="C90" t="n">
-        <v>938.3</v>
+        <v>938</v>
       </c>
       <c r="D90" t="n">
-        <v>939.3</v>
+        <v>948.9</v>
       </c>
       <c r="E90" t="n">
-        <v>938.3</v>
+        <v>938</v>
       </c>
       <c r="F90" t="n">
-        <v>144.4243</v>
+        <v>3702.9626</v>
       </c>
       <c r="G90" t="n">
-        <v>958.6750000000008</v>
+        <v>959.0650000000006</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3566,22 +3580,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>939.5</v>
+        <v>939.3</v>
       </c>
       <c r="C91" t="n">
-        <v>944.4</v>
+        <v>938.3</v>
       </c>
       <c r="D91" t="n">
-        <v>944.4</v>
+        <v>939.3</v>
       </c>
       <c r="E91" t="n">
-        <v>939.5</v>
+        <v>938.3</v>
       </c>
       <c r="F91" t="n">
-        <v>1793.5849</v>
+        <v>144.4243</v>
       </c>
       <c r="G91" t="n">
-        <v>958.4466666666674</v>
+        <v>958.6750000000008</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3601,7 +3615,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>944.4</v>
+        <v>939.5</v>
       </c>
       <c r="C92" t="n">
         <v>944.4</v>
@@ -3610,22 +3624,26 @@
         <v>944.4</v>
       </c>
       <c r="E92" t="n">
-        <v>944.4</v>
+        <v>939.5</v>
       </c>
       <c r="F92" t="n">
-        <v>1666.5701</v>
+        <v>1793.5849</v>
       </c>
       <c r="G92" t="n">
-        <v>958.1800000000007</v>
+        <v>958.4466666666674</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>938.3</v>
+      </c>
+      <c r="K92" t="n">
+        <v>938.3</v>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
@@ -3648,10 +3666,10 @@
         <v>944.4</v>
       </c>
       <c r="F93" t="n">
-        <v>4.008</v>
+        <v>1666.5701</v>
       </c>
       <c r="G93" t="n">
-        <v>957.9116666666674</v>
+        <v>958.1800000000007</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3660,8 +3678,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>938.3</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3683,20 +3707,28 @@
         <v>944.4</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8022</v>
+        <v>4.008</v>
       </c>
       <c r="G94" t="n">
-        <v>957.5233333333342</v>
+        <v>957.9116666666674</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K94" t="n">
+        <v>938.3</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3718,19 +3750,23 @@
         <v>944.4</v>
       </c>
       <c r="F95" t="n">
-        <v>30.0978</v>
+        <v>0.8022</v>
       </c>
       <c r="G95" t="n">
-        <v>957.1116666666676</v>
+        <v>957.5233333333342</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K95" t="n">
+        <v>944.4</v>
+      </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
@@ -3741,36 +3777,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>945.9</v>
+        <v>944.4</v>
       </c>
       <c r="C96" t="n">
-        <v>948.8</v>
+        <v>944.4</v>
       </c>
       <c r="D96" t="n">
-        <v>948.8</v>
+        <v>944.4</v>
       </c>
       <c r="E96" t="n">
-        <v>945.9</v>
+        <v>944.4</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9</v>
+        <v>30.0978</v>
       </c>
       <c r="G96" t="n">
-        <v>956.815000000001</v>
+        <v>957.1116666666676</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>944.4</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>944.4</v>
       </c>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3780,22 +3818,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>946.8</v>
+        <v>945.9</v>
       </c>
       <c r="C97" t="n">
-        <v>946.8</v>
+        <v>948.8</v>
       </c>
       <c r="D97" t="n">
-        <v>946.8</v>
+        <v>948.8</v>
       </c>
       <c r="E97" t="n">
-        <v>946.8</v>
+        <v>945.9</v>
       </c>
       <c r="F97" t="n">
-        <v>194.9854</v>
+        <v>0.9</v>
       </c>
       <c r="G97" t="n">
-        <v>956.5483333333343</v>
+        <v>956.815000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3821,22 +3859,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>952.7</v>
+        <v>946.8</v>
       </c>
       <c r="C98" t="n">
-        <v>952.7</v>
+        <v>946.8</v>
       </c>
       <c r="D98" t="n">
-        <v>952.7</v>
+        <v>946.8</v>
       </c>
       <c r="E98" t="n">
-        <v>952.7</v>
+        <v>946.8</v>
       </c>
       <c r="F98" t="n">
-        <v>260</v>
+        <v>194.9854</v>
       </c>
       <c r="G98" t="n">
-        <v>956.4183333333343</v>
+        <v>956.5483333333343</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3845,14 +3883,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3862,22 +3894,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>951.5</v>
+        <v>952.7</v>
       </c>
       <c r="C99" t="n">
-        <v>946.8</v>
+        <v>952.7</v>
       </c>
       <c r="D99" t="n">
-        <v>951.9</v>
+        <v>952.7</v>
       </c>
       <c r="E99" t="n">
-        <v>946.8</v>
+        <v>952.7</v>
       </c>
       <c r="F99" t="n">
-        <v>1874.7549</v>
+        <v>260</v>
       </c>
       <c r="G99" t="n">
-        <v>956.2183333333343</v>
+        <v>956.4183333333343</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3897,22 +3929,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>946.8</v>
+        <v>951.5</v>
       </c>
       <c r="C100" t="n">
         <v>946.8</v>
       </c>
       <c r="D100" t="n">
-        <v>946.8</v>
+        <v>951.9</v>
       </c>
       <c r="E100" t="n">
         <v>946.8</v>
       </c>
       <c r="F100" t="n">
-        <v>365.109</v>
+        <v>1874.7549</v>
       </c>
       <c r="G100" t="n">
-        <v>955.8983333333343</v>
+        <v>956.2183333333343</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3944,10 +3976,10 @@
         <v>946.8</v>
       </c>
       <c r="F101" t="n">
-        <v>151.6056</v>
+        <v>365.109</v>
       </c>
       <c r="G101" t="n">
-        <v>955.7133333333344</v>
+        <v>955.8983333333343</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3967,22 +3999,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>948.8</v>
+        <v>946.8</v>
       </c>
       <c r="C102" t="n">
-        <v>944.1</v>
+        <v>946.8</v>
       </c>
       <c r="D102" t="n">
-        <v>948.8</v>
+        <v>946.8</v>
       </c>
       <c r="E102" t="n">
-        <v>944.1</v>
+        <v>946.8</v>
       </c>
       <c r="F102" t="n">
-        <v>727.3658</v>
+        <v>151.6056</v>
       </c>
       <c r="G102" t="n">
-        <v>955.3500000000009</v>
+        <v>955.7133333333344</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4002,22 +4034,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>942.2</v>
+        <v>948.8</v>
       </c>
       <c r="C103" t="n">
-        <v>942.2</v>
+        <v>944.1</v>
       </c>
       <c r="D103" t="n">
-        <v>942.2</v>
+        <v>948.8</v>
       </c>
       <c r="E103" t="n">
-        <v>942.2</v>
+        <v>944.1</v>
       </c>
       <c r="F103" t="n">
-        <v>369.6276</v>
+        <v>727.3658</v>
       </c>
       <c r="G103" t="n">
-        <v>954.8916666666677</v>
+        <v>955.3500000000009</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4037,22 +4069,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>948</v>
+        <v>942.2</v>
       </c>
       <c r="C104" t="n">
-        <v>947</v>
+        <v>942.2</v>
       </c>
       <c r="D104" t="n">
-        <v>948</v>
+        <v>942.2</v>
       </c>
       <c r="E104" t="n">
-        <v>947</v>
+        <v>942.2</v>
       </c>
       <c r="F104" t="n">
-        <v>28.7513</v>
+        <v>369.6276</v>
       </c>
       <c r="G104" t="n">
-        <v>954.5083333333343</v>
+        <v>954.8916666666677</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4072,22 +4104,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C105" t="n">
         <v>947</v>
       </c>
       <c r="D105" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E105" t="n">
         <v>947</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6651</v>
+        <v>28.7513</v>
       </c>
       <c r="G105" t="n">
-        <v>954.125000000001</v>
+        <v>954.5083333333343</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4102,6 +4134,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>947</v>
+      </c>
+      <c r="C106" t="n">
+        <v>947</v>
+      </c>
+      <c r="D106" t="n">
+        <v>947</v>
+      </c>
+      <c r="E106" t="n">
+        <v>947</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.6651</v>
+      </c>
+      <c r="G106" t="n">
+        <v>954.125000000001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-23 BackTest OMG.xlsx
+++ b/BackTest/2020-01-23 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>618.45</v>
       </c>
       <c r="G2" t="n">
+        <v>942.24</v>
+      </c>
+      <c r="H2" t="n">
         <v>948.9900000000004</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>37.16322714740191</v>
       </c>
       <c r="G3" t="n">
+        <v>942.0866666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>948.9983333333337</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>942.9</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>31.39596602972399</v>
       </c>
       <c r="G4" t="n">
+        <v>941.8733333333332</v>
+      </c>
+      <c r="H4" t="n">
         <v>948.8650000000004</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>942.9</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>4.1655</v>
       </c>
       <c r="G5" t="n">
+        <v>942.0399999999998</v>
+      </c>
+      <c r="H5" t="n">
         <v>948.6983333333337</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>942</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>1092.1</v>
       </c>
       <c r="G6" t="n">
+        <v>941.8333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>948.5050000000005</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>940</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,22 +667,27 @@
         <v>9.0167</v>
       </c>
       <c r="G7" t="n">
+        <v>941.7599999999999</v>
+      </c>
+      <c r="H7" t="n">
         <v>948.3700000000005</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>938.4</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>938.4</v>
       </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -662,24 +711,27 @@
         <v>0.8345</v>
       </c>
       <c r="G8" t="n">
+        <v>941.5599999999998</v>
+      </c>
+      <c r="H8" t="n">
         <v>948.1000000000005</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="n">
-        <v>938.4</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -703,24 +755,27 @@
         <v>959.9453</v>
       </c>
       <c r="G9" t="n">
+        <v>941.5599999999998</v>
+      </c>
+      <c r="H9" t="n">
         <v>947.8783333333338</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="n">
-        <v>938.4</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+        <v>940</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,18 +799,27 @@
         <v>2401.4334</v>
       </c>
       <c r="G10" t="n">
+        <v>942.4066666666664</v>
+      </c>
+      <c r="H10" t="n">
         <v>947.7866666666671</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>943</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -779,18 +843,25 @@
         <v>1500</v>
       </c>
       <c r="G11" t="n">
+        <v>942.9199999999998</v>
+      </c>
+      <c r="H11" t="n">
         <v>947.8283333333337</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -814,18 +885,25 @@
         <v>1500</v>
       </c>
       <c r="G12" t="n">
+        <v>943.4333333333332</v>
+      </c>
+      <c r="H12" t="n">
         <v>947.8900000000004</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -849,18 +927,25 @@
         <v>579.9065000000001</v>
       </c>
       <c r="G13" t="n">
+        <v>944.1133333333332</v>
+      </c>
+      <c r="H13" t="n">
         <v>948.026666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -884,18 +969,25 @@
         <v>43.3807</v>
       </c>
       <c r="G14" t="n">
+        <v>944.7999999999998</v>
+      </c>
+      <c r="H14" t="n">
         <v>948.1683333333336</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -919,18 +1011,25 @@
         <v>681.1763999999999</v>
       </c>
       <c r="G15" t="n">
+        <v>945.6533333333332</v>
+      </c>
+      <c r="H15" t="n">
         <v>948.2883333333336</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,18 +1053,25 @@
         <v>61.7</v>
       </c>
       <c r="G16" t="n">
+        <v>946.1933333333332</v>
+      </c>
+      <c r="H16" t="n">
         <v>948.3983333333337</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -989,18 +1095,25 @@
         <v>61.7</v>
       </c>
       <c r="G17" t="n">
+        <v>946.7466666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>948.5066666666669</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,18 +1137,25 @@
         <v>30.9</v>
       </c>
       <c r="G18" t="n">
+        <v>947.3</v>
+      </c>
+      <c r="H18" t="n">
         <v>948.4883333333335</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,18 +1179,25 @@
         <v>300</v>
       </c>
       <c r="G19" t="n">
+        <v>948.2333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>948.5500000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,18 +1221,25 @@
         <v>46.3</v>
       </c>
       <c r="G20" t="n">
+        <v>949.2333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>948.595</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,18 +1263,25 @@
         <v>611.1109</v>
       </c>
       <c r="G21" t="n">
+        <v>950.4266666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>948.6616666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,18 +1305,25 @@
         <v>1545.364</v>
       </c>
       <c r="G22" t="n">
+        <v>951.3866666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>948.7283333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1199,18 +1347,25 @@
         <v>224.7</v>
       </c>
       <c r="G23" t="n">
+        <v>952.4666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>948.7933333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,18 +1389,25 @@
         <v>1133.539</v>
       </c>
       <c r="G24" t="n">
+        <v>953.0666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>948.7883333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1431,25 @@
         <v>567.0802</v>
       </c>
       <c r="G25" t="n">
+        <v>953.1133333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>948.7183333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,18 +1473,25 @@
         <v>418.3274</v>
       </c>
       <c r="G26" t="n">
+        <v>953.2466666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>948.6633333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1515,25 @@
         <v>149.374</v>
       </c>
       <c r="G27" t="n">
+        <v>953.3</v>
+      </c>
+      <c r="H27" t="n">
         <v>948.5883333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1557,25 @@
         <v>410.5293</v>
       </c>
       <c r="G28" t="n">
+        <v>953.5066666666665</v>
+      </c>
+      <c r="H28" t="n">
         <v>948.655</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1599,25 @@
         <v>132.7689695702186</v>
       </c>
       <c r="G29" t="n">
+        <v>953.7066666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>948.6583333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1641,25 @@
         <v>11.7376</v>
       </c>
       <c r="G30" t="n">
+        <v>953.9933333333332</v>
+      </c>
+      <c r="H30" t="n">
         <v>948.725</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1683,25 @@
         <v>426.9238</v>
       </c>
       <c r="G31" t="n">
+        <v>954.6999999999999</v>
+      </c>
+      <c r="H31" t="n">
         <v>948.8783333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1725,25 @@
         <v>38.6</v>
       </c>
       <c r="G32" t="n">
+        <v>955.1599999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>948.9716666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1767,25 @@
         <v>1507.0958</v>
       </c>
       <c r="G33" t="n">
+        <v>955.7733333333331</v>
+      </c>
+      <c r="H33" t="n">
         <v>949.1033333333332</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1809,25 @@
         <v>83.5117</v>
       </c>
       <c r="G34" t="n">
+        <v>956.0733333333332</v>
+      </c>
+      <c r="H34" t="n">
         <v>949.2283333333332</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1851,25 @@
         <v>565.7662150356515</v>
       </c>
       <c r="G35" t="n">
+        <v>956.9199999999998</v>
+      </c>
+      <c r="H35" t="n">
         <v>949.4733333333332</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1893,25 @@
         <v>67.0467444020225</v>
       </c>
       <c r="G36" t="n">
+        <v>957.7733333333332</v>
+      </c>
+      <c r="H36" t="n">
         <v>949.7416666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1935,25 @@
         <v>1500</v>
       </c>
       <c r="G37" t="n">
+        <v>958.4599999999999</v>
+      </c>
+      <c r="H37" t="n">
         <v>949.9683333333331</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1977,25 @@
         <v>4.1667</v>
       </c>
       <c r="G38" t="n">
+        <v>958.8999999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>950.1399999999999</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +2019,25 @@
         <v>1560.862</v>
       </c>
       <c r="G39" t="n">
+        <v>959.4666666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>950.2733333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +2061,25 @@
         <v>2435.2386</v>
       </c>
       <c r="G40" t="n">
+        <v>959.9533333333331</v>
+      </c>
+      <c r="H40" t="n">
         <v>950.3783333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +2103,25 @@
         <v>61.7</v>
       </c>
       <c r="G41" t="n">
+        <v>960.8399999999998</v>
+      </c>
+      <c r="H41" t="n">
         <v>950.6583333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2145,25 @@
         <v>4459.2331</v>
       </c>
       <c r="G42" t="n">
+        <v>961.2666666666664</v>
+      </c>
+      <c r="H42" t="n">
         <v>950.8066666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2187,25 @@
         <v>45.2999</v>
       </c>
       <c r="G43" t="n">
+        <v>961.9066666666664</v>
+      </c>
+      <c r="H43" t="n">
         <v>950.97</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2229,25 @@
         <v>13.7</v>
       </c>
       <c r="G44" t="n">
+        <v>962.7999999999998</v>
+      </c>
+      <c r="H44" t="n">
         <v>951.3283333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2271,25 @@
         <v>405.5048</v>
       </c>
       <c r="G45" t="n">
+        <v>963.7133333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>951.7250000000001</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2313,25 @@
         <v>544.6506000000001</v>
       </c>
       <c r="G46" t="n">
+        <v>964.2666666666665</v>
+      </c>
+      <c r="H46" t="n">
         <v>952.0066666666668</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,20 +2355,25 @@
         <v>282.4218</v>
       </c>
       <c r="G47" t="n">
+        <v>965.1266666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>952.3183333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2074,18 +2395,21 @@
         <v>2.1469</v>
       </c>
       <c r="G48" t="n">
+        <v>965.8333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>952.7483333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2433,21 @@
         <v>0.4313</v>
       </c>
       <c r="G49" t="n">
+        <v>966.5333333333332</v>
+      </c>
+      <c r="H49" t="n">
         <v>953.1783333333335</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2471,21 @@
         <v>11</v>
       </c>
       <c r="G50" t="n">
+        <v>966.2866666666665</v>
+      </c>
+      <c r="H50" t="n">
         <v>953.6200000000002</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2509,21 @@
         <v>568</v>
       </c>
       <c r="G51" t="n">
+        <v>965.9399999999998</v>
+      </c>
+      <c r="H51" t="n">
         <v>953.9933333333336</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2547,21 @@
         <v>421.9576</v>
       </c>
       <c r="G52" t="n">
+        <v>965.7599999999998</v>
+      </c>
+      <c r="H52" t="n">
         <v>954.3416666666669</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2585,21 @@
         <v>325.2133</v>
       </c>
       <c r="G53" t="n">
+        <v>965.6733333333331</v>
+      </c>
+      <c r="H53" t="n">
         <v>954.6500000000002</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2623,21 @@
         <v>1826.8274</v>
       </c>
       <c r="G54" t="n">
+        <v>965.4866666666665</v>
+      </c>
+      <c r="H54" t="n">
         <v>954.8950000000002</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2661,21 @@
         <v>27.5849</v>
       </c>
       <c r="G55" t="n">
+        <v>965.6666666666665</v>
+      </c>
+      <c r="H55" t="n">
         <v>955.2850000000002</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2699,21 @@
         <v>10.94</v>
       </c>
       <c r="G56" t="n">
+        <v>965.0999999999999</v>
+      </c>
+      <c r="H56" t="n">
         <v>955.5266666666669</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2737,21 @@
         <v>54.41</v>
       </c>
       <c r="G57" t="n">
+        <v>965.0733333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>955.7683333333335</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2775,21 @@
         <v>39.6599</v>
       </c>
       <c r="G58" t="n">
+        <v>964.5133333333332</v>
+      </c>
+      <c r="H58" t="n">
         <v>956.0100000000002</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2813,21 @@
         <v>32.4828</v>
       </c>
       <c r="G59" t="n">
+        <v>963.6999999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>956.2516666666669</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2851,21 @@
         <v>19.8155</v>
       </c>
       <c r="G60" t="n">
+        <v>962.8666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>956.556666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2889,21 @@
         <v>1224.0066</v>
       </c>
       <c r="G61" t="n">
+        <v>961.6666666666665</v>
+      </c>
+      <c r="H61" t="n">
         <v>956.7066666666669</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2927,21 @@
         <v>405.5048</v>
       </c>
       <c r="G62" t="n">
+        <v>960.3999999999999</v>
+      </c>
+      <c r="H62" t="n">
         <v>956.8583333333336</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,22 +2965,21 @@
         <v>342.8642</v>
       </c>
       <c r="G63" t="n">
+        <v>959.6866666666665</v>
+      </c>
+      <c r="H63" t="n">
         <v>957.1483333333337</v>
       </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>952</v>
-      </c>
-      <c r="K63" t="n">
-        <v>952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,24 +3003,21 @@
         <v>547.9501</v>
       </c>
       <c r="G64" t="n">
+        <v>959.0533333333332</v>
+      </c>
+      <c r="H64" t="n">
         <v>957.4733333333336</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>952</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2679,24 +3041,21 @@
         <v>241.9026</v>
       </c>
       <c r="G65" t="n">
+        <v>958.9999999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>957.8600000000002</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>952</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2720,18 +3079,21 @@
         <v>554.3043</v>
       </c>
       <c r="G66" t="n">
+        <v>958.5066666666665</v>
+      </c>
+      <c r="H66" t="n">
         <v>958.1616666666669</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2755,18 +3117,21 @@
         <v>162.5</v>
       </c>
       <c r="G67" t="n">
+        <v>958.0999999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>958.4266666666668</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2790,18 +3155,21 @@
         <v>309.3562</v>
       </c>
       <c r="G68" t="n">
+        <v>958.1466666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>958.7966666666669</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2825,18 +3193,21 @@
         <v>1317.9</v>
       </c>
       <c r="G69" t="n">
+        <v>958.7199999999998</v>
+      </c>
+      <c r="H69" t="n">
         <v>959.1850000000002</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2860,18 +3231,21 @@
         <v>89.33320000000001</v>
       </c>
       <c r="G70" t="n">
+        <v>958.7399999999998</v>
+      </c>
+      <c r="H70" t="n">
         <v>959.3683333333336</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2895,18 +3269,21 @@
         <v>401.1707135453232</v>
       </c>
       <c r="G71" t="n">
+        <v>959.4799999999998</v>
+      </c>
+      <c r="H71" t="n">
         <v>959.6666666666669</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2930,18 +3307,21 @@
         <v>1063.6954</v>
       </c>
       <c r="G72" t="n">
+        <v>959.4666666666665</v>
+      </c>
+      <c r="H72" t="n">
         <v>959.776666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2965,18 +3345,21 @@
         <v>300</v>
       </c>
       <c r="G73" t="n">
+        <v>959.3333333333331</v>
+      </c>
+      <c r="H73" t="n">
         <v>959.8150000000004</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,18 +3383,21 @@
         <v>1319</v>
       </c>
       <c r="G74" t="n">
+        <v>958.953333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>959.7900000000004</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3035,18 +3421,21 @@
         <v>1.3702</v>
       </c>
       <c r="G75" t="n">
+        <v>959.6066666666663</v>
+      </c>
+      <c r="H75" t="n">
         <v>960.0450000000004</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3070,18 +3459,21 @@
         <v>453</v>
       </c>
       <c r="G76" t="n">
+        <v>959.613333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>960.0616666666671</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3105,18 +3497,21 @@
         <v>25.9609</v>
       </c>
       <c r="G77" t="n">
+        <v>959.613333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>960.0750000000005</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3140,18 +3535,21 @@
         <v>17.9464</v>
       </c>
       <c r="G78" t="n">
+        <v>959.0466666666664</v>
+      </c>
+      <c r="H78" t="n">
         <v>960.0850000000006</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3175,18 +3573,21 @@
         <v>0.0001</v>
       </c>
       <c r="G79" t="n">
+        <v>958.4133333333331</v>
+      </c>
+      <c r="H79" t="n">
         <v>960.0183333333339</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3210,18 +3611,21 @@
         <v>786.104</v>
       </c>
       <c r="G80" t="n">
+        <v>958.1066666666663</v>
+      </c>
+      <c r="H80" t="n">
         <v>960.0783333333339</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3245,18 +3649,21 @@
         <v>463</v>
       </c>
       <c r="G81" t="n">
+        <v>957.793333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>960.0033333333339</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3280,18 +3687,21 @@
         <v>735.7676</v>
       </c>
       <c r="G82" t="n">
+        <v>957.3599999999996</v>
+      </c>
+      <c r="H82" t="n">
         <v>959.9200000000005</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3315,18 +3725,21 @@
         <v>475.2026</v>
       </c>
       <c r="G83" t="n">
+        <v>956.5133333333329</v>
+      </c>
+      <c r="H83" t="n">
         <v>959.808333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3350,18 +3763,21 @@
         <v>888.7705</v>
       </c>
       <c r="G84" t="n">
+        <v>955.393333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>959.7666666666672</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,18 +3801,21 @@
         <v>0.6</v>
       </c>
       <c r="G85" t="n">
+        <v>954.9133333333331</v>
+      </c>
+      <c r="H85" t="n">
         <v>959.818333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3420,18 +3839,21 @@
         <v>500</v>
       </c>
       <c r="G86" t="n">
+        <v>953.9333333333329</v>
+      </c>
+      <c r="H86" t="n">
         <v>959.8383333333339</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3455,18 +3877,21 @@
         <v>18.3586</v>
       </c>
       <c r="G87" t="n">
+        <v>953.1066666666663</v>
+      </c>
+      <c r="H87" t="n">
         <v>959.728333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3490,18 +3915,21 @@
         <v>429.5772</v>
       </c>
       <c r="G88" t="n">
+        <v>952.2266666666662</v>
+      </c>
+      <c r="H88" t="n">
         <v>959.4950000000007</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3525,18 +3953,21 @@
         <v>1917.0682</v>
       </c>
       <c r="G89" t="n">
+        <v>952.0266666666663</v>
+      </c>
+      <c r="H89" t="n">
         <v>959.3700000000007</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3560,18 +3991,21 @@
         <v>3702.9626</v>
       </c>
       <c r="G90" t="n">
+        <v>950.073333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>959.0650000000006</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3595,18 +4029,21 @@
         <v>144.4243</v>
       </c>
       <c r="G91" t="n">
+        <v>949.153333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>958.6750000000008</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,22 +4067,21 @@
         <v>1793.5849</v>
       </c>
       <c r="G92" t="n">
+        <v>948.6466666666662</v>
+      </c>
+      <c r="H92" t="n">
         <v>958.4466666666674</v>
       </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>938.3</v>
-      </c>
-      <c r="K92" t="n">
-        <v>938.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3669,24 +4105,21 @@
         <v>1666.5701</v>
       </c>
       <c r="G93" t="n">
+        <v>948.153333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>958.1800000000007</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>938.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3710,26 +4143,21 @@
         <v>4.008</v>
       </c>
       <c r="G94" t="n">
+        <v>947.6466666666662</v>
+      </c>
+      <c r="H94" t="n">
         <v>957.9116666666674</v>
       </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="K94" t="n">
-        <v>938.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3753,22 +4181,21 @@
         <v>0.8022</v>
       </c>
       <c r="G95" t="n">
+        <v>946.6999999999995</v>
+      </c>
+      <c r="H95" t="n">
         <v>957.5233333333342</v>
       </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="K95" t="n">
-        <v>944.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,24 +4219,21 @@
         <v>30.0978</v>
       </c>
       <c r="G96" t="n">
+        <v>946.2066666666663</v>
+      </c>
+      <c r="H96" t="n">
         <v>957.1116666666676</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3833,24 +4257,21 @@
         <v>0.9</v>
       </c>
       <c r="G97" t="n">
+        <v>946.0399999999995</v>
+      </c>
+      <c r="H97" t="n">
         <v>956.815000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,18 +4295,21 @@
         <v>194.9854</v>
       </c>
       <c r="G98" t="n">
+        <v>945.8599999999994</v>
+      </c>
+      <c r="H98" t="n">
         <v>956.5483333333343</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3909,18 +4333,21 @@
         <v>260</v>
       </c>
       <c r="G99" t="n">
+        <v>946.0733333333329</v>
+      </c>
+      <c r="H99" t="n">
         <v>956.4183333333343</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3944,18 +4371,21 @@
         <v>1874.7549</v>
       </c>
       <c r="G100" t="n">
+        <v>945.5533333333328</v>
+      </c>
+      <c r="H100" t="n">
         <v>956.2183333333343</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3979,18 +4409,21 @@
         <v>365.109</v>
       </c>
       <c r="G101" t="n">
+        <v>945.0799999999995</v>
+      </c>
+      <c r="H101" t="n">
         <v>955.8983333333343</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,18 +4447,21 @@
         <v>151.6056</v>
       </c>
       <c r="G102" t="n">
+        <v>945.2066666666661</v>
+      </c>
+      <c r="H102" t="n">
         <v>955.7133333333344</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4049,18 +4485,21 @@
         <v>727.3658</v>
       </c>
       <c r="G103" t="n">
+        <v>945.3266666666661</v>
+      </c>
+      <c r="H103" t="n">
         <v>955.3500000000009</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4084,18 +4523,21 @@
         <v>369.6276</v>
       </c>
       <c r="G104" t="n">
+        <v>944.8866666666662</v>
+      </c>
+      <c r="H104" t="n">
         <v>954.8916666666677</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4119,18 +4561,21 @@
         <v>28.7513</v>
       </c>
       <c r="G105" t="n">
+        <v>945.4866666666662</v>
+      </c>
+      <c r="H105" t="n">
         <v>954.5083333333343</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,18 +4599,401 @@
         <v>0.6651</v>
       </c>
       <c r="G106" t="n">
+        <v>946.0666666666663</v>
+      </c>
+      <c r="H106" t="n">
         <v>954.125000000001</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>945</v>
+      </c>
+      <c r="C107" t="n">
+        <v>945</v>
+      </c>
+      <c r="D107" t="n">
+        <v>945</v>
+      </c>
+      <c r="E107" t="n">
+        <v>945</v>
+      </c>
+      <c r="F107" t="n">
+        <v>353.9759</v>
+      </c>
+      <c r="G107" t="n">
+        <v>946.1066666666663</v>
+      </c>
+      <c r="H107" t="n">
+        <v>953.6916666666676</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>945</v>
+      </c>
+      <c r="C108" t="n">
+        <v>945</v>
+      </c>
+      <c r="D108" t="n">
+        <v>945</v>
+      </c>
+      <c r="E108" t="n">
+        <v>945</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2575.5749</v>
+      </c>
+      <c r="G108" t="n">
+        <v>946.1466666666663</v>
+      </c>
+      <c r="H108" t="n">
+        <v>953.2583333333343</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="G109" t="n">
+        <v>945.753333333333</v>
+      </c>
+      <c r="H109" t="n">
+        <v>952.7166666666676</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>949.4</v>
+      </c>
+      <c r="C110" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>949.4</v>
+      </c>
+      <c r="E110" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>14.663</v>
+      </c>
+      <c r="G110" t="n">
+        <v>945.3666666666664</v>
+      </c>
+      <c r="H110" t="n">
+        <v>952.2933333333343</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="G111" t="n">
+        <v>945.6799999999998</v>
+      </c>
+      <c r="H111" t="n">
+        <v>952.0466666666675</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="C112" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1805.2025</v>
+      </c>
+      <c r="G112" t="n">
+        <v>945.2199999999998</v>
+      </c>
+      <c r="H112" t="n">
+        <v>951.6800000000009</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G113" t="n">
+        <v>944.8533333333331</v>
+      </c>
+      <c r="H113" t="n">
+        <v>951.3433333333343</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="G114" t="n">
+        <v>944.593333333333</v>
+      </c>
+      <c r="H114" t="n">
+        <v>951.1950000000011</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="C115" t="n">
+        <v>948.7</v>
+      </c>
+      <c r="D115" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="E115" t="n">
+        <v>948.7</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.6338</v>
+      </c>
+      <c r="G115" t="n">
+        <v>944.7199999999998</v>
+      </c>
+      <c r="H115" t="n">
+        <v>950.9816666666677</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="G116" t="n">
+        <v>944.2999999999998</v>
+      </c>
+      <c r="H116" t="n">
+        <v>950.6983333333343</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest OMG.xlsx
+++ b/BackTest/2020-01-23 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>942.9</v>
+        <v>952.5</v>
       </c>
       <c r="C2" t="n">
-        <v>942.9</v>
+        <v>952.5</v>
       </c>
       <c r="D2" t="n">
-        <v>942.9</v>
+        <v>952.5</v>
       </c>
       <c r="E2" t="n">
-        <v>942.9</v>
+        <v>952.5</v>
       </c>
       <c r="F2" t="n">
-        <v>618.45</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>942.24</v>
+        <v>-14696.50310000001</v>
       </c>
       <c r="H2" t="n">
-        <v>948.9900000000004</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,42 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="C3" t="n">
-        <v>942.9</v>
+        <v>953</v>
       </c>
       <c r="D3" t="n">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="E3" t="n">
-        <v>942.9</v>
+        <v>953</v>
       </c>
       <c r="F3" t="n">
-        <v>37.16322714740191</v>
+        <v>226.1169</v>
       </c>
       <c r="G3" t="n">
-        <v>942.0866666666666</v>
+        <v>-14470.38620000001</v>
       </c>
       <c r="H3" t="n">
-        <v>948.9983333333337</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>942.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,42 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="C4" t="n">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="D4" t="n">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="E4" t="n">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="F4" t="n">
-        <v>31.39596602972399</v>
+        <v>338.2166</v>
       </c>
       <c r="G4" t="n">
-        <v>941.8733333333332</v>
+        <v>-14470.38620000001</v>
       </c>
       <c r="H4" t="n">
-        <v>948.8650000000004</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>942.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940</v>
+        <v>953</v>
       </c>
       <c r="C5" t="n">
-        <v>940</v>
+        <v>953</v>
       </c>
       <c r="D5" t="n">
-        <v>940</v>
+        <v>953</v>
       </c>
       <c r="E5" t="n">
-        <v>940</v>
+        <v>953</v>
       </c>
       <c r="F5" t="n">
-        <v>4.1655</v>
+        <v>270.3273</v>
       </c>
       <c r="G5" t="n">
-        <v>942.0399999999998</v>
+        <v>-14470.38620000001</v>
       </c>
       <c r="H5" t="n">
-        <v>948.6983333333337</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>938.4</v>
+        <v>953</v>
       </c>
       <c r="C6" t="n">
-        <v>938.4</v>
+        <v>953</v>
       </c>
       <c r="D6" t="n">
-        <v>938.4</v>
+        <v>953</v>
       </c>
       <c r="E6" t="n">
-        <v>937.4</v>
+        <v>953</v>
       </c>
       <c r="F6" t="n">
-        <v>1092.1</v>
+        <v>69.8673</v>
       </c>
       <c r="G6" t="n">
-        <v>941.8333333333333</v>
+        <v>-14470.38620000001</v>
       </c>
       <c r="H6" t="n">
-        <v>948.5050000000005</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>941.9</v>
+        <v>952.5</v>
       </c>
       <c r="C7" t="n">
-        <v>941.9</v>
+        <v>952.5</v>
       </c>
       <c r="D7" t="n">
-        <v>941.9</v>
+        <v>952.5</v>
       </c>
       <c r="E7" t="n">
-        <v>941.9</v>
+        <v>952.5</v>
       </c>
       <c r="F7" t="n">
-        <v>9.0167</v>
+        <v>238.3035</v>
       </c>
       <c r="G7" t="n">
-        <v>941.7599999999999</v>
+        <v>-14708.68970000001</v>
       </c>
       <c r="H7" t="n">
-        <v>948.3700000000005</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>938.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -696,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940</v>
+        <v>952.5</v>
       </c>
       <c r="C8" t="n">
-        <v>940</v>
+        <v>952.5</v>
       </c>
       <c r="D8" t="n">
-        <v>940</v>
+        <v>952.5</v>
       </c>
       <c r="E8" t="n">
-        <v>940</v>
+        <v>952.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8345</v>
+        <v>176.5647</v>
       </c>
       <c r="G8" t="n">
-        <v>941.5599999999998</v>
+        <v>-14708.68970000001</v>
       </c>
       <c r="H8" t="n">
-        <v>948.1000000000005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>941.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,42 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>941.9</v>
+        <v>952.5</v>
       </c>
       <c r="C9" t="n">
-        <v>943</v>
+        <v>952.5</v>
       </c>
       <c r="D9" t="n">
-        <v>943</v>
+        <v>952.5</v>
       </c>
       <c r="E9" t="n">
-        <v>941.9</v>
+        <v>952.5</v>
       </c>
       <c r="F9" t="n">
-        <v>959.9453</v>
+        <v>35.4615</v>
       </c>
       <c r="G9" t="n">
-        <v>941.5599999999998</v>
+        <v>-14708.68970000001</v>
       </c>
       <c r="H9" t="n">
-        <v>947.8783333333338</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -784,42 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>943</v>
+        <v>949.3</v>
       </c>
       <c r="C10" t="n">
-        <v>950.8</v>
+        <v>949.2</v>
       </c>
       <c r="D10" t="n">
-        <v>950.8</v>
+        <v>949.3</v>
       </c>
       <c r="E10" t="n">
-        <v>943</v>
+        <v>949.2</v>
       </c>
       <c r="F10" t="n">
-        <v>2401.4334</v>
+        <v>362.4326</v>
       </c>
       <c r="G10" t="n">
-        <v>942.4066666666664</v>
+        <v>-15071.12230000001</v>
       </c>
       <c r="H10" t="n">
-        <v>947.7866666666671</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -828,40 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>950.7</v>
+        <v>949</v>
       </c>
       <c r="C11" t="n">
-        <v>950.7</v>
+        <v>949</v>
       </c>
       <c r="D11" t="n">
-        <v>950.7</v>
+        <v>949</v>
       </c>
       <c r="E11" t="n">
-        <v>950.7</v>
+        <v>949</v>
       </c>
       <c r="F11" t="n">
-        <v>1500</v>
+        <v>12.7491</v>
       </c>
       <c r="G11" t="n">
-        <v>942.9199999999998</v>
+        <v>-15083.87140000001</v>
       </c>
       <c r="H11" t="n">
-        <v>947.8283333333337</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -870,40 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>950.7</v>
+        <v>954.8</v>
       </c>
       <c r="C12" t="n">
-        <v>950.7</v>
+        <v>956.1</v>
       </c>
       <c r="D12" t="n">
-        <v>950.7</v>
+        <v>956.1</v>
       </c>
       <c r="E12" t="n">
-        <v>950.7</v>
+        <v>954.8</v>
       </c>
       <c r="F12" t="n">
-        <v>1500</v>
+        <v>1805.202503713001</v>
       </c>
       <c r="G12" t="n">
-        <v>943.4333333333332</v>
+        <v>-13278.66889628701</v>
       </c>
       <c r="H12" t="n">
-        <v>947.8900000000004</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,40 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953.2</v>
+        <v>948.4</v>
       </c>
       <c r="C13" t="n">
-        <v>953.2</v>
+        <v>948.2</v>
       </c>
       <c r="D13" t="n">
-        <v>953.2</v>
+        <v>948.4</v>
       </c>
       <c r="E13" t="n">
-        <v>953.2</v>
+        <v>948.2</v>
       </c>
       <c r="F13" t="n">
-        <v>579.9065000000001</v>
+        <v>300</v>
       </c>
       <c r="G13" t="n">
-        <v>944.1133333333332</v>
+        <v>-13578.66889628701</v>
       </c>
       <c r="H13" t="n">
-        <v>948.026666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,40 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>953.3</v>
+        <v>946.2</v>
       </c>
       <c r="C14" t="n">
-        <v>953.3</v>
+        <v>946.2</v>
       </c>
       <c r="D14" t="n">
-        <v>953.3</v>
+        <v>946.2</v>
       </c>
       <c r="E14" t="n">
-        <v>953.3</v>
+        <v>946.2</v>
       </c>
       <c r="F14" t="n">
-        <v>43.3807</v>
+        <v>577.5</v>
       </c>
       <c r="G14" t="n">
-        <v>944.7999999999998</v>
+        <v>-14156.16889628701</v>
       </c>
       <c r="H14" t="n">
-        <v>948.1683333333336</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -996,40 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>952</v>
+        <v>946.2</v>
       </c>
       <c r="C15" t="n">
-        <v>952</v>
+        <v>953.1</v>
       </c>
       <c r="D15" t="n">
-        <v>953.3</v>
+        <v>953.1</v>
       </c>
       <c r="E15" t="n">
-        <v>952</v>
+        <v>944.9</v>
       </c>
       <c r="F15" t="n">
-        <v>681.1763999999999</v>
+        <v>963.1</v>
       </c>
       <c r="G15" t="n">
-        <v>945.6533333333332</v>
+        <v>-13193.06889628701</v>
       </c>
       <c r="H15" t="n">
-        <v>948.2883333333336</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1038,40 +923,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>951.1</v>
+        <v>952.3</v>
       </c>
       <c r="C16" t="n">
-        <v>951.1</v>
+        <v>952.3</v>
       </c>
       <c r="D16" t="n">
-        <v>951.1</v>
+        <v>952.3</v>
       </c>
       <c r="E16" t="n">
-        <v>951.1</v>
+        <v>952.3</v>
       </c>
       <c r="F16" t="n">
-        <v>61.7</v>
+        <v>59.9</v>
       </c>
       <c r="G16" t="n">
-        <v>946.1933333333332</v>
+        <v>-13252.96889628701</v>
       </c>
       <c r="H16" t="n">
-        <v>948.3983333333337</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+        <v>953.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>953.1</v>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1080,40 +962,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>951.2</v>
+        <v>952.3</v>
       </c>
       <c r="C17" t="n">
-        <v>951.2</v>
+        <v>945.2</v>
       </c>
       <c r="D17" t="n">
-        <v>951.2</v>
+        <v>952.3</v>
       </c>
       <c r="E17" t="n">
-        <v>951.2</v>
+        <v>945.2</v>
       </c>
       <c r="F17" t="n">
-        <v>61.7</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>946.7466666666666</v>
+        <v>-13259.96889628701</v>
       </c>
       <c r="H17" t="n">
-        <v>948.5066666666669</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,40 +1003,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>951.2</v>
+        <v>945.2</v>
       </c>
       <c r="C18" t="n">
-        <v>951.2</v>
+        <v>945.2</v>
       </c>
       <c r="D18" t="n">
-        <v>951.2</v>
+        <v>945.2</v>
       </c>
       <c r="E18" t="n">
-        <v>951.2</v>
+        <v>945.2</v>
       </c>
       <c r="F18" t="n">
-        <v>30.9</v>
+        <v>65.30589999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>947.3</v>
+        <v>-13259.96889628701</v>
       </c>
       <c r="H18" t="n">
-        <v>948.4883333333335</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,40 +1044,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>954.2</v>
+        <v>944.8</v>
       </c>
       <c r="C19" t="n">
-        <v>956</v>
+        <v>937.5</v>
       </c>
       <c r="D19" t="n">
-        <v>956</v>
+        <v>944.8</v>
       </c>
       <c r="E19" t="n">
-        <v>954.2</v>
+        <v>937.5</v>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>4201.5543</v>
       </c>
       <c r="G19" t="n">
-        <v>948.2333333333333</v>
+        <v>-17461.52319628701</v>
       </c>
       <c r="H19" t="n">
-        <v>948.5500000000001</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
+        <v>945.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1206,40 +1087,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>955</v>
+        <v>941.5</v>
       </c>
       <c r="C20" t="n">
-        <v>955</v>
+        <v>941.5</v>
       </c>
       <c r="D20" t="n">
-        <v>955</v>
+        <v>941.5</v>
       </c>
       <c r="E20" t="n">
-        <v>955</v>
+        <v>941.5</v>
       </c>
       <c r="F20" t="n">
-        <v>46.3</v>
+        <v>59.6226</v>
       </c>
       <c r="G20" t="n">
-        <v>949.2333333333333</v>
+        <v>-17401.90059628701</v>
       </c>
       <c r="H20" t="n">
-        <v>948.595</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
+        <v>937.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1248,40 +1130,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>956</v>
+        <v>944.1</v>
       </c>
       <c r="C21" t="n">
-        <v>956.3</v>
+        <v>943</v>
       </c>
       <c r="D21" t="n">
-        <v>956.3</v>
+        <v>944.1</v>
       </c>
       <c r="E21" t="n">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="F21" t="n">
-        <v>611.1109</v>
+        <v>6812.5326</v>
       </c>
       <c r="G21" t="n">
-        <v>950.4266666666666</v>
+        <v>-10589.36799628701</v>
       </c>
       <c r="H21" t="n">
-        <v>948.6616666666667</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
+        <v>941.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,40 +1173,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>956.3</v>
+        <v>943</v>
       </c>
       <c r="C22" t="n">
-        <v>956.3</v>
+        <v>943</v>
       </c>
       <c r="D22" t="n">
-        <v>956.3</v>
+        <v>943</v>
       </c>
       <c r="E22" t="n">
-        <v>956.3</v>
+        <v>943</v>
       </c>
       <c r="F22" t="n">
-        <v>1545.364</v>
+        <v>380</v>
       </c>
       <c r="G22" t="n">
-        <v>951.3866666666667</v>
+        <v>-10589.36799628701</v>
       </c>
       <c r="H22" t="n">
-        <v>948.7283333333334</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,40 +1214,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>956.2</v>
+        <v>938.9</v>
       </c>
       <c r="C23" t="n">
-        <v>956.2</v>
+        <v>943</v>
       </c>
       <c r="D23" t="n">
-        <v>956.2</v>
+        <v>943</v>
       </c>
       <c r="E23" t="n">
-        <v>956.2</v>
+        <v>938.9</v>
       </c>
       <c r="F23" t="n">
-        <v>224.7</v>
+        <v>601.4873</v>
       </c>
       <c r="G23" t="n">
-        <v>952.4666666666667</v>
+        <v>-10589.36799628701</v>
       </c>
       <c r="H23" t="n">
-        <v>948.7933333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,40 +1255,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>952</v>
+        <v>938.1</v>
       </c>
       <c r="C24" t="n">
-        <v>952</v>
+        <v>938.1</v>
       </c>
       <c r="D24" t="n">
-        <v>952</v>
+        <v>938.1</v>
       </c>
       <c r="E24" t="n">
-        <v>952</v>
+        <v>938.1</v>
       </c>
       <c r="F24" t="n">
-        <v>1133.539</v>
+        <v>130.4292</v>
       </c>
       <c r="G24" t="n">
-        <v>953.0666666666667</v>
+        <v>-10719.79719628701</v>
       </c>
       <c r="H24" t="n">
-        <v>948.7883333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1416,40 +1296,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>951.5</v>
+        <v>943</v>
       </c>
       <c r="C25" t="n">
-        <v>951.5</v>
+        <v>943</v>
       </c>
       <c r="D25" t="n">
-        <v>951.5</v>
+        <v>943</v>
       </c>
       <c r="E25" t="n">
-        <v>951.5</v>
+        <v>943</v>
       </c>
       <c r="F25" t="n">
-        <v>567.0802</v>
+        <v>10.3773</v>
       </c>
       <c r="G25" t="n">
-        <v>953.1133333333333</v>
+        <v>-10709.41989628701</v>
       </c>
       <c r="H25" t="n">
-        <v>948.7183333333334</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1458,40 +1337,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="C26" t="n">
-        <v>952.7</v>
+        <v>943</v>
       </c>
       <c r="D26" t="n">
-        <v>952.7</v>
+        <v>943</v>
       </c>
       <c r="E26" t="n">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="F26" t="n">
-        <v>418.3274</v>
+        <v>29.9858</v>
       </c>
       <c r="G26" t="n">
-        <v>953.2466666666667</v>
+        <v>-10709.41989628701</v>
       </c>
       <c r="H26" t="n">
-        <v>948.6633333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1500,40 +1378,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>951.5</v>
+        <v>939.4</v>
       </c>
       <c r="C27" t="n">
-        <v>951.5</v>
+        <v>943</v>
       </c>
       <c r="D27" t="n">
-        <v>951.5</v>
+        <v>943</v>
       </c>
       <c r="E27" t="n">
-        <v>951.5</v>
+        <v>939.2</v>
       </c>
       <c r="F27" t="n">
-        <v>149.374</v>
+        <v>302.2587</v>
       </c>
       <c r="G27" t="n">
-        <v>953.3</v>
+        <v>-10709.41989628701</v>
       </c>
       <c r="H27" t="n">
-        <v>948.5883333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1542,40 +1419,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>956.3</v>
+        <v>943</v>
       </c>
       <c r="C28" t="n">
-        <v>956.3</v>
+        <v>943</v>
       </c>
       <c r="D28" t="n">
-        <v>956.3</v>
+        <v>943</v>
       </c>
       <c r="E28" t="n">
-        <v>956.3</v>
+        <v>943</v>
       </c>
       <c r="F28" t="n">
-        <v>410.5293</v>
+        <v>407.39</v>
       </c>
       <c r="G28" t="n">
-        <v>953.5066666666665</v>
+        <v>-10709.41989628701</v>
       </c>
       <c r="H28" t="n">
-        <v>948.655</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,40 +1460,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>956.3</v>
+        <v>940.2</v>
       </c>
       <c r="C29" t="n">
-        <v>956.3</v>
+        <v>939.2</v>
       </c>
       <c r="D29" t="n">
-        <v>956.3</v>
+        <v>940.2</v>
       </c>
       <c r="E29" t="n">
-        <v>956.3</v>
+        <v>939.2</v>
       </c>
       <c r="F29" t="n">
-        <v>132.7689695702186</v>
+        <v>4166.1641</v>
       </c>
       <c r="G29" t="n">
-        <v>953.7066666666666</v>
+        <v>-14875.58399628701</v>
       </c>
       <c r="H29" t="n">
-        <v>948.6583333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,40 +1501,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>956.3</v>
+        <v>943</v>
       </c>
       <c r="C30" t="n">
-        <v>956.3</v>
+        <v>943</v>
       </c>
       <c r="D30" t="n">
-        <v>956.3</v>
+        <v>943</v>
       </c>
       <c r="E30" t="n">
-        <v>956.3</v>
+        <v>943</v>
       </c>
       <c r="F30" t="n">
-        <v>11.7376</v>
+        <v>633.4289</v>
       </c>
       <c r="G30" t="n">
-        <v>953.9933333333332</v>
+        <v>-14242.15509628701</v>
       </c>
       <c r="H30" t="n">
-        <v>948.725</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1668,40 +1542,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>956.3</v>
+        <v>942.9</v>
       </c>
       <c r="C31" t="n">
-        <v>961.7</v>
+        <v>942.9</v>
       </c>
       <c r="D31" t="n">
-        <v>961.7</v>
+        <v>942.9</v>
       </c>
       <c r="E31" t="n">
-        <v>956.3</v>
+        <v>942.9</v>
       </c>
       <c r="F31" t="n">
-        <v>426.9238</v>
+        <v>618.45</v>
       </c>
       <c r="G31" t="n">
-        <v>954.6999999999999</v>
+        <v>-14860.60509628701</v>
       </c>
       <c r="H31" t="n">
-        <v>948.8783333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1710,40 +1583,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>958.1</v>
+        <v>943</v>
       </c>
       <c r="C32" t="n">
-        <v>958.1</v>
+        <v>942.9</v>
       </c>
       <c r="D32" t="n">
-        <v>958.1</v>
+        <v>943</v>
       </c>
       <c r="E32" t="n">
-        <v>958.1</v>
+        <v>942.9</v>
       </c>
       <c r="F32" t="n">
-        <v>38.6</v>
+        <v>37.16322714740191</v>
       </c>
       <c r="G32" t="n">
-        <v>955.1599999999999</v>
+        <v>-14860.60509628701</v>
       </c>
       <c r="H32" t="n">
-        <v>948.9716666666666</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1752,40 +1624,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>966.2</v>
+        <v>942</v>
       </c>
       <c r="C33" t="n">
-        <v>960.4</v>
+        <v>942</v>
       </c>
       <c r="D33" t="n">
-        <v>967.7</v>
+        <v>942</v>
       </c>
       <c r="E33" t="n">
-        <v>960.4</v>
+        <v>942</v>
       </c>
       <c r="F33" t="n">
-        <v>1507.0958</v>
+        <v>31.39596602972399</v>
       </c>
       <c r="G33" t="n">
-        <v>955.7733333333331</v>
+        <v>-14892.00106231674</v>
       </c>
       <c r="H33" t="n">
-        <v>949.1033333333332</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,40 +1665,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>960.5</v>
+        <v>940</v>
       </c>
       <c r="C34" t="n">
-        <v>960.5</v>
+        <v>940</v>
       </c>
       <c r="D34" t="n">
-        <v>960.5</v>
+        <v>940</v>
       </c>
       <c r="E34" t="n">
-        <v>960.5</v>
+        <v>940</v>
       </c>
       <c r="F34" t="n">
-        <v>83.5117</v>
+        <v>4.1655</v>
       </c>
       <c r="G34" t="n">
-        <v>956.0733333333332</v>
+        <v>-14896.16656231674</v>
       </c>
       <c r="H34" t="n">
-        <v>949.2283333333332</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1836,40 +1706,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>965.4</v>
+        <v>938.4</v>
       </c>
       <c r="C35" t="n">
-        <v>967.7</v>
+        <v>938.4</v>
       </c>
       <c r="D35" t="n">
-        <v>967.7</v>
+        <v>938.4</v>
       </c>
       <c r="E35" t="n">
-        <v>965.4</v>
+        <v>937.4</v>
       </c>
       <c r="F35" t="n">
-        <v>565.7662150356515</v>
+        <v>1092.1</v>
       </c>
       <c r="G35" t="n">
-        <v>956.9199999999998</v>
+        <v>-15988.26656231674</v>
       </c>
       <c r="H35" t="n">
-        <v>949.4733333333332</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1878,40 +1747,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>969.1</v>
+        <v>941.9</v>
       </c>
       <c r="C36" t="n">
-        <v>969.1</v>
+        <v>941.9</v>
       </c>
       <c r="D36" t="n">
-        <v>969.1</v>
+        <v>941.9</v>
       </c>
       <c r="E36" t="n">
-        <v>969.1</v>
+        <v>941.9</v>
       </c>
       <c r="F36" t="n">
-        <v>67.0467444020225</v>
+        <v>9.0167</v>
       </c>
       <c r="G36" t="n">
-        <v>957.7733333333332</v>
+        <v>-15979.24986231674</v>
       </c>
       <c r="H36" t="n">
-        <v>949.7416666666666</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,40 +1788,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>966.6</v>
+        <v>940</v>
       </c>
       <c r="C37" t="n">
-        <v>966.6</v>
+        <v>940</v>
       </c>
       <c r="D37" t="n">
-        <v>966.6</v>
+        <v>940</v>
       </c>
       <c r="E37" t="n">
-        <v>966.6</v>
+        <v>940</v>
       </c>
       <c r="F37" t="n">
-        <v>1500</v>
+        <v>0.8345</v>
       </c>
       <c r="G37" t="n">
-        <v>958.4599999999999</v>
+        <v>-15980.08436231674</v>
       </c>
       <c r="H37" t="n">
-        <v>949.9683333333331</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
+        <v>941.9</v>
+      </c>
+      <c r="K37" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1962,40 +1831,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>962.8</v>
+        <v>941.9</v>
       </c>
       <c r="C38" t="n">
-        <v>962.8</v>
+        <v>943</v>
       </c>
       <c r="D38" t="n">
-        <v>962.8</v>
+        <v>943</v>
       </c>
       <c r="E38" t="n">
-        <v>962.8</v>
+        <v>941.9</v>
       </c>
       <c r="F38" t="n">
-        <v>4.1667</v>
+        <v>959.9453</v>
       </c>
       <c r="G38" t="n">
-        <v>958.8999999999999</v>
+        <v>-15020.13906231674</v>
       </c>
       <c r="H38" t="n">
-        <v>950.1399999999999</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
+        <v>940</v>
+      </c>
+      <c r="K38" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,40 +1874,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="C39" t="n">
-        <v>960.5</v>
+        <v>950.8</v>
       </c>
       <c r="D39" t="n">
-        <v>962</v>
+        <v>950.8</v>
       </c>
       <c r="E39" t="n">
-        <v>960.5</v>
+        <v>943</v>
       </c>
       <c r="F39" t="n">
-        <v>1560.862</v>
+        <v>2401.4334</v>
       </c>
       <c r="G39" t="n">
-        <v>959.4666666666666</v>
+        <v>-12618.70566231674</v>
       </c>
       <c r="H39" t="n">
-        <v>950.2733333333332</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
+        <v>943</v>
+      </c>
+      <c r="K39" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2046,40 +1917,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>960.6</v>
+        <v>950.7</v>
       </c>
       <c r="C40" t="n">
-        <v>958.8</v>
+        <v>950.7</v>
       </c>
       <c r="D40" t="n">
-        <v>960.6</v>
+        <v>950.7</v>
       </c>
       <c r="E40" t="n">
-        <v>958.8</v>
+        <v>950.7</v>
       </c>
       <c r="F40" t="n">
-        <v>2435.2386</v>
+        <v>1500</v>
       </c>
       <c r="G40" t="n">
-        <v>959.9533333333331</v>
+        <v>-14118.70566231674</v>
       </c>
       <c r="H40" t="n">
-        <v>950.3783333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2088,40 +1958,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>962</v>
+        <v>950.7</v>
       </c>
       <c r="C41" t="n">
-        <v>966</v>
+        <v>950.7</v>
       </c>
       <c r="D41" t="n">
-        <v>966</v>
+        <v>950.7</v>
       </c>
       <c r="E41" t="n">
-        <v>962</v>
+        <v>950.7</v>
       </c>
       <c r="F41" t="n">
-        <v>61.7</v>
+        <v>1500</v>
       </c>
       <c r="G41" t="n">
-        <v>960.8399999999998</v>
+        <v>-14118.70566231674</v>
       </c>
       <c r="H41" t="n">
-        <v>950.6583333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2130,40 +1999,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>961.1</v>
+        <v>953.2</v>
       </c>
       <c r="C42" t="n">
-        <v>957.9</v>
+        <v>953.2</v>
       </c>
       <c r="D42" t="n">
-        <v>961.1</v>
+        <v>953.2</v>
       </c>
       <c r="E42" t="n">
-        <v>950.9</v>
+        <v>953.2</v>
       </c>
       <c r="F42" t="n">
-        <v>4459.2331</v>
+        <v>579.9065000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>961.2666666666664</v>
+        <v>-13538.79916231674</v>
       </c>
       <c r="H42" t="n">
-        <v>950.8066666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2172,40 +2040,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>964.5</v>
+        <v>953.3</v>
       </c>
       <c r="C43" t="n">
-        <v>965.9</v>
+        <v>953.3</v>
       </c>
       <c r="D43" t="n">
-        <v>965.9</v>
+        <v>953.3</v>
       </c>
       <c r="E43" t="n">
-        <v>964.5</v>
+        <v>953.3</v>
       </c>
       <c r="F43" t="n">
-        <v>45.2999</v>
+        <v>43.3807</v>
       </c>
       <c r="G43" t="n">
-        <v>961.9066666666664</v>
+        <v>-13495.41846231674</v>
       </c>
       <c r="H43" t="n">
-        <v>950.97</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,40 +2081,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="C44" t="n">
-        <v>969.7</v>
+        <v>952</v>
       </c>
       <c r="D44" t="n">
-        <v>969.7</v>
+        <v>953.3</v>
       </c>
       <c r="E44" t="n">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="F44" t="n">
-        <v>13.7</v>
+        <v>681.1763999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>962.7999999999998</v>
+        <v>-14176.59486231674</v>
       </c>
       <c r="H44" t="n">
-        <v>951.3283333333334</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2256,40 +2122,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>969.7</v>
+        <v>951.1</v>
       </c>
       <c r="C45" t="n">
-        <v>970</v>
+        <v>951.1</v>
       </c>
       <c r="D45" t="n">
-        <v>970</v>
+        <v>951.1</v>
       </c>
       <c r="E45" t="n">
-        <v>969.7</v>
+        <v>951.1</v>
       </c>
       <c r="F45" t="n">
-        <v>405.5048</v>
+        <v>61.7</v>
       </c>
       <c r="G45" t="n">
-        <v>963.7133333333333</v>
+        <v>-14238.29486231674</v>
       </c>
       <c r="H45" t="n">
-        <v>951.7250000000001</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2298,40 +2163,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>970</v>
+        <v>951.2</v>
       </c>
       <c r="C46" t="n">
-        <v>970</v>
+        <v>951.2</v>
       </c>
       <c r="D46" t="n">
-        <v>970.1</v>
+        <v>951.2</v>
       </c>
       <c r="E46" t="n">
-        <v>970</v>
+        <v>951.2</v>
       </c>
       <c r="F46" t="n">
-        <v>544.6506000000001</v>
+        <v>61.7</v>
       </c>
       <c r="G46" t="n">
-        <v>964.2666666666665</v>
+        <v>-14176.59486231674</v>
       </c>
       <c r="H46" t="n">
-        <v>952.0066666666668</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2340,76 +2204,80 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>971</v>
+        <v>951.2</v>
       </c>
       <c r="C47" t="n">
-        <v>971</v>
+        <v>951.2</v>
       </c>
       <c r="D47" t="n">
-        <v>971</v>
+        <v>951.2</v>
       </c>
       <c r="E47" t="n">
-        <v>971</v>
+        <v>951.2</v>
       </c>
       <c r="F47" t="n">
-        <v>282.4218</v>
+        <v>30.9</v>
       </c>
       <c r="G47" t="n">
-        <v>965.1266666666666</v>
+        <v>-14176.59486231674</v>
       </c>
       <c r="H47" t="n">
-        <v>952.3183333333334</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>971</v>
+        <v>954.2</v>
       </c>
       <c r="C48" t="n">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="D48" t="n">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="E48" t="n">
-        <v>971</v>
+        <v>954.2</v>
       </c>
       <c r="F48" t="n">
-        <v>2.1469</v>
+        <v>300</v>
       </c>
       <c r="G48" t="n">
-        <v>965.8333333333333</v>
+        <v>-13876.59486231674</v>
       </c>
       <c r="H48" t="n">
-        <v>952.7483333333334</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2418,36 +2286,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="C49" t="n">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="D49" t="n">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="E49" t="n">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4313</v>
+        <v>46.3</v>
       </c>
       <c r="G49" t="n">
-        <v>966.5333333333332</v>
+        <v>-13922.89486231674</v>
       </c>
       <c r="H49" t="n">
-        <v>953.1783333333335</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2456,36 +2327,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>969.9</v>
+        <v>956</v>
       </c>
       <c r="C50" t="n">
-        <v>964</v>
+        <v>956.3</v>
       </c>
       <c r="D50" t="n">
-        <v>969.9</v>
+        <v>956.3</v>
       </c>
       <c r="E50" t="n">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="F50" t="n">
-        <v>11</v>
+        <v>611.1109</v>
       </c>
       <c r="G50" t="n">
-        <v>966.2866666666665</v>
+        <v>-13311.78396231674</v>
       </c>
       <c r="H50" t="n">
-        <v>953.6200000000002</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,36 +2368,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>963.9</v>
+        <v>956.3</v>
       </c>
       <c r="C51" t="n">
-        <v>963.9</v>
+        <v>956.3</v>
       </c>
       <c r="D51" t="n">
-        <v>963.9</v>
+        <v>956.3</v>
       </c>
       <c r="E51" t="n">
-        <v>963.9</v>
+        <v>956.3</v>
       </c>
       <c r="F51" t="n">
-        <v>568</v>
+        <v>1545.364</v>
       </c>
       <c r="G51" t="n">
-        <v>965.9399999999998</v>
+        <v>-13311.78396231674</v>
       </c>
       <c r="H51" t="n">
-        <v>953.9933333333336</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2532,36 +2409,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>963.9</v>
+        <v>956.2</v>
       </c>
       <c r="C52" t="n">
-        <v>963.9</v>
+        <v>956.2</v>
       </c>
       <c r="D52" t="n">
-        <v>963.9</v>
+        <v>956.2</v>
       </c>
       <c r="E52" t="n">
-        <v>963.9</v>
+        <v>956.2</v>
       </c>
       <c r="F52" t="n">
-        <v>421.9576</v>
+        <v>224.7</v>
       </c>
       <c r="G52" t="n">
-        <v>965.7599999999998</v>
+        <v>-13536.48396231674</v>
       </c>
       <c r="H52" t="n">
-        <v>954.3416666666669</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2570,36 +2450,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>961.5</v>
+        <v>952</v>
       </c>
       <c r="C53" t="n">
-        <v>961.5</v>
+        <v>952</v>
       </c>
       <c r="D53" t="n">
-        <v>961.5</v>
+        <v>952</v>
       </c>
       <c r="E53" t="n">
-        <v>961.5</v>
+        <v>952</v>
       </c>
       <c r="F53" t="n">
-        <v>325.2133</v>
+        <v>1133.539</v>
       </c>
       <c r="G53" t="n">
-        <v>965.6733333333331</v>
+        <v>-14670.02296231674</v>
       </c>
       <c r="H53" t="n">
-        <v>954.6500000000002</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2608,36 +2491,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>961.1</v>
+        <v>951.5</v>
       </c>
       <c r="C54" t="n">
-        <v>957.7</v>
+        <v>951.5</v>
       </c>
       <c r="D54" t="n">
-        <v>961.1</v>
+        <v>951.5</v>
       </c>
       <c r="E54" t="n">
-        <v>957.7</v>
+        <v>951.5</v>
       </c>
       <c r="F54" t="n">
-        <v>1826.8274</v>
+        <v>567.0802</v>
       </c>
       <c r="G54" t="n">
-        <v>965.4866666666665</v>
+        <v>-15237.10316231674</v>
       </c>
       <c r="H54" t="n">
-        <v>954.8950000000002</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2646,36 +2532,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>961.5</v>
+        <v>952</v>
       </c>
       <c r="C55" t="n">
-        <v>961.5</v>
+        <v>952.7</v>
       </c>
       <c r="D55" t="n">
-        <v>961.5</v>
+        <v>952.7</v>
       </c>
       <c r="E55" t="n">
-        <v>961.5</v>
+        <v>952</v>
       </c>
       <c r="F55" t="n">
-        <v>27.5849</v>
+        <v>418.3274</v>
       </c>
       <c r="G55" t="n">
-        <v>965.6666666666665</v>
+        <v>-14818.77576231674</v>
       </c>
       <c r="H55" t="n">
-        <v>955.2850000000002</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2684,36 +2573,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>957.5</v>
+        <v>951.5</v>
       </c>
       <c r="C56" t="n">
-        <v>957.5</v>
+        <v>951.5</v>
       </c>
       <c r="D56" t="n">
-        <v>957.5</v>
+        <v>951.5</v>
       </c>
       <c r="E56" t="n">
-        <v>957.5</v>
+        <v>951.5</v>
       </c>
       <c r="F56" t="n">
-        <v>10.94</v>
+        <v>149.374</v>
       </c>
       <c r="G56" t="n">
-        <v>965.0999999999999</v>
+        <v>-14968.14976231674</v>
       </c>
       <c r="H56" t="n">
-        <v>955.5266666666669</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,36 +2614,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="C57" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="D57" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="E57" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="F57" t="n">
-        <v>54.41</v>
+        <v>410.5293</v>
       </c>
       <c r="G57" t="n">
-        <v>965.0733333333333</v>
+        <v>-14557.62046231674</v>
       </c>
       <c r="H57" t="n">
-        <v>955.7683333333335</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2760,36 +2655,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="C58" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="D58" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="E58" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="F58" t="n">
-        <v>39.6599</v>
+        <v>132.7689695702186</v>
       </c>
       <c r="G58" t="n">
-        <v>964.5133333333332</v>
+        <v>-14557.62046231674</v>
       </c>
       <c r="H58" t="n">
-        <v>956.0100000000002</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2798,36 +2696,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="C59" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="D59" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="E59" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="F59" t="n">
-        <v>32.4828</v>
+        <v>11.7376</v>
       </c>
       <c r="G59" t="n">
-        <v>963.6999999999999</v>
+        <v>-14557.62046231674</v>
       </c>
       <c r="H59" t="n">
-        <v>956.2516666666669</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2836,36 +2737,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="C60" t="n">
-        <v>957.5</v>
+        <v>961.7</v>
       </c>
       <c r="D60" t="n">
-        <v>957.5</v>
+        <v>961.7</v>
       </c>
       <c r="E60" t="n">
-        <v>957.5</v>
+        <v>956.3</v>
       </c>
       <c r="F60" t="n">
-        <v>19.8155</v>
+        <v>426.9238</v>
       </c>
       <c r="G60" t="n">
-        <v>962.8666666666666</v>
+        <v>-14130.69666231674</v>
       </c>
       <c r="H60" t="n">
-        <v>956.556666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2874,36 +2778,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>952</v>
+        <v>958.1</v>
       </c>
       <c r="C61" t="n">
-        <v>952</v>
+        <v>958.1</v>
       </c>
       <c r="D61" t="n">
-        <v>952</v>
+        <v>958.1</v>
       </c>
       <c r="E61" t="n">
-        <v>952</v>
+        <v>958.1</v>
       </c>
       <c r="F61" t="n">
-        <v>1224.0066</v>
+        <v>38.6</v>
       </c>
       <c r="G61" t="n">
-        <v>961.6666666666665</v>
+        <v>-14169.29666231674</v>
       </c>
       <c r="H61" t="n">
-        <v>956.7066666666669</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,36 +2819,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>952</v>
+        <v>966.2</v>
       </c>
       <c r="C62" t="n">
-        <v>952</v>
+        <v>960.4</v>
       </c>
       <c r="D62" t="n">
-        <v>952</v>
+        <v>967.7</v>
       </c>
       <c r="E62" t="n">
-        <v>952</v>
+        <v>960.4</v>
       </c>
       <c r="F62" t="n">
-        <v>405.5048</v>
+        <v>1507.0958</v>
       </c>
       <c r="G62" t="n">
-        <v>960.3999999999999</v>
+        <v>-12662.20086231674</v>
       </c>
       <c r="H62" t="n">
-        <v>956.8583333333336</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2950,36 +2860,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>954.1</v>
+        <v>960.5</v>
       </c>
       <c r="C63" t="n">
-        <v>960.3</v>
+        <v>960.5</v>
       </c>
       <c r="D63" t="n">
-        <v>960.3</v>
+        <v>960.5</v>
       </c>
       <c r="E63" t="n">
-        <v>954.1</v>
+        <v>960.5</v>
       </c>
       <c r="F63" t="n">
-        <v>342.8642</v>
+        <v>83.5117</v>
       </c>
       <c r="G63" t="n">
-        <v>959.6866666666665</v>
+        <v>-12578.68916231674</v>
       </c>
       <c r="H63" t="n">
-        <v>957.1483333333337</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,36 +2901,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>961.3</v>
+        <v>965.4</v>
       </c>
       <c r="C64" t="n">
-        <v>961.5</v>
+        <v>967.7</v>
       </c>
       <c r="D64" t="n">
-        <v>961.5</v>
+        <v>967.7</v>
       </c>
       <c r="E64" t="n">
-        <v>961.3</v>
+        <v>965.4</v>
       </c>
       <c r="F64" t="n">
-        <v>547.9501</v>
+        <v>565.7662150356515</v>
       </c>
       <c r="G64" t="n">
-        <v>959.0533333333332</v>
+        <v>-12012.92294728109</v>
       </c>
       <c r="H64" t="n">
-        <v>957.4733333333336</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3026,36 +2942,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>962.2</v>
+        <v>969.1</v>
       </c>
       <c r="C65" t="n">
-        <v>963.2</v>
+        <v>969.1</v>
       </c>
       <c r="D65" t="n">
-        <v>963.2</v>
+        <v>969.1</v>
       </c>
       <c r="E65" t="n">
-        <v>962.2</v>
+        <v>969.1</v>
       </c>
       <c r="F65" t="n">
-        <v>241.9026</v>
+        <v>67.0467444020225</v>
       </c>
       <c r="G65" t="n">
-        <v>958.9999999999999</v>
+        <v>-11945.87620287906</v>
       </c>
       <c r="H65" t="n">
-        <v>957.8600000000002</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3064,37 +2983,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>962.2</v>
+        <v>966.6</v>
       </c>
       <c r="C66" t="n">
-        <v>956.5</v>
+        <v>966.6</v>
       </c>
       <c r="D66" t="n">
-        <v>962.2</v>
+        <v>966.6</v>
       </c>
       <c r="E66" t="n">
-        <v>956.5</v>
+        <v>966.6</v>
       </c>
       <c r="F66" t="n">
-        <v>554.3043</v>
+        <v>1500</v>
       </c>
       <c r="G66" t="n">
-        <v>958.5066666666665</v>
+        <v>-13445.87620287906</v>
       </c>
       <c r="H66" t="n">
-        <v>958.1616666666669</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>953.1</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>1.009164305949009</v>
       </c>
     </row>
     <row r="67">
@@ -3102,36 +3024,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>957.8</v>
+        <v>962.8</v>
       </c>
       <c r="C67" t="n">
-        <v>957.8</v>
+        <v>962.8</v>
       </c>
       <c r="D67" t="n">
-        <v>957.8</v>
+        <v>962.8</v>
       </c>
       <c r="E67" t="n">
-        <v>957.8</v>
+        <v>962.8</v>
       </c>
       <c r="F67" t="n">
-        <v>162.5</v>
+        <v>4.1667</v>
       </c>
       <c r="G67" t="n">
-        <v>958.0999999999999</v>
+        <v>-13450.04290287906</v>
       </c>
       <c r="H67" t="n">
-        <v>958.4266666666668</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3140,36 +3059,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>957.9</v>
+        <v>962</v>
       </c>
       <c r="C68" t="n">
-        <v>962.2</v>
+        <v>960.5</v>
       </c>
       <c r="D68" t="n">
-        <v>962.2</v>
+        <v>962</v>
       </c>
       <c r="E68" t="n">
-        <v>957.5</v>
+        <v>960.5</v>
       </c>
       <c r="F68" t="n">
-        <v>309.3562</v>
+        <v>1560.862</v>
       </c>
       <c r="G68" t="n">
-        <v>958.1466666666666</v>
+        <v>-15010.90490287907</v>
       </c>
       <c r="H68" t="n">
-        <v>958.7966666666669</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,36 +3094,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>962.2</v>
+        <v>960.6</v>
       </c>
       <c r="C69" t="n">
-        <v>966.3</v>
+        <v>958.8</v>
       </c>
       <c r="D69" t="n">
-        <v>966.3</v>
+        <v>960.6</v>
       </c>
       <c r="E69" t="n">
-        <v>962.2</v>
+        <v>958.8</v>
       </c>
       <c r="F69" t="n">
-        <v>1317.9</v>
+        <v>2435.2386</v>
       </c>
       <c r="G69" t="n">
-        <v>958.7199999999998</v>
+        <v>-17446.14350287907</v>
       </c>
       <c r="H69" t="n">
-        <v>959.1850000000002</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,36 +3129,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>961.8</v>
+        <v>962</v>
       </c>
       <c r="C70" t="n">
-        <v>961.8</v>
+        <v>966</v>
       </c>
       <c r="D70" t="n">
-        <v>961.8</v>
+        <v>966</v>
       </c>
       <c r="E70" t="n">
-        <v>961.8</v>
+        <v>962</v>
       </c>
       <c r="F70" t="n">
-        <v>89.33320000000001</v>
+        <v>61.7</v>
       </c>
       <c r="G70" t="n">
-        <v>958.7399999999998</v>
+        <v>-17384.44350287906</v>
       </c>
       <c r="H70" t="n">
-        <v>959.3683333333336</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3254,36 +3164,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>968.3</v>
+        <v>961.1</v>
       </c>
       <c r="C71" t="n">
-        <v>968.6</v>
+        <v>957.9</v>
       </c>
       <c r="D71" t="n">
-        <v>968.6</v>
+        <v>961.1</v>
       </c>
       <c r="E71" t="n">
-        <v>968.3</v>
+        <v>950.9</v>
       </c>
       <c r="F71" t="n">
-        <v>401.1707135453232</v>
+        <v>4459.2331</v>
       </c>
       <c r="G71" t="n">
-        <v>959.4799999999998</v>
+        <v>-21843.67660287907</v>
       </c>
       <c r="H71" t="n">
-        <v>959.6666666666669</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3292,36 +3199,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>962</v>
+        <v>964.5</v>
       </c>
       <c r="C72" t="n">
-        <v>957.3</v>
+        <v>965.9</v>
       </c>
       <c r="D72" t="n">
-        <v>962</v>
+        <v>965.9</v>
       </c>
       <c r="E72" t="n">
-        <v>957.3</v>
+        <v>964.5</v>
       </c>
       <c r="F72" t="n">
-        <v>1063.6954</v>
+        <v>45.2999</v>
       </c>
       <c r="G72" t="n">
-        <v>959.4666666666665</v>
+        <v>-21798.37670287906</v>
       </c>
       <c r="H72" t="n">
-        <v>959.776666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,36 +3234,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>955.5</v>
+        <v>967</v>
       </c>
       <c r="C73" t="n">
-        <v>955.5</v>
+        <v>969.7</v>
       </c>
       <c r="D73" t="n">
-        <v>955.5</v>
+        <v>969.7</v>
       </c>
       <c r="E73" t="n">
-        <v>955.5</v>
+        <v>967</v>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>13.7</v>
       </c>
       <c r="G73" t="n">
-        <v>959.3333333333331</v>
+        <v>-21784.67670287906</v>
       </c>
       <c r="H73" t="n">
-        <v>959.8150000000004</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3368,36 +3269,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>952.8</v>
+        <v>969.7</v>
       </c>
       <c r="C74" t="n">
-        <v>951.8</v>
+        <v>970</v>
       </c>
       <c r="D74" t="n">
-        <v>952.8</v>
+        <v>970</v>
       </c>
       <c r="E74" t="n">
-        <v>951.8</v>
+        <v>969.7</v>
       </c>
       <c r="F74" t="n">
-        <v>1319</v>
+        <v>405.5048</v>
       </c>
       <c r="G74" t="n">
-        <v>958.953333333333</v>
+        <v>-21379.17190287906</v>
       </c>
       <c r="H74" t="n">
-        <v>959.7900000000004</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,36 +3304,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>967.3</v>
+        <v>970</v>
       </c>
       <c r="C75" t="n">
-        <v>967.3</v>
+        <v>970</v>
       </c>
       <c r="D75" t="n">
-        <v>967.3</v>
+        <v>970.1</v>
       </c>
       <c r="E75" t="n">
-        <v>967.3</v>
+        <v>970</v>
       </c>
       <c r="F75" t="n">
-        <v>1.3702</v>
+        <v>544.6506000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>959.6066666666663</v>
+        <v>-21379.17190287906</v>
       </c>
       <c r="H75" t="n">
-        <v>960.0450000000004</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3444,36 +3339,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>952.1</v>
+        <v>971</v>
       </c>
       <c r="C76" t="n">
-        <v>952.1</v>
+        <v>971</v>
       </c>
       <c r="D76" t="n">
-        <v>952.1</v>
+        <v>971</v>
       </c>
       <c r="E76" t="n">
-        <v>952.1</v>
+        <v>971</v>
       </c>
       <c r="F76" t="n">
-        <v>453</v>
+        <v>282.4218</v>
       </c>
       <c r="G76" t="n">
-        <v>959.613333333333</v>
+        <v>-21096.75010287906</v>
       </c>
       <c r="H76" t="n">
-        <v>960.0616666666671</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,36 +3374,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>952</v>
+        <v>971</v>
       </c>
       <c r="C77" t="n">
-        <v>952</v>
+        <v>971</v>
       </c>
       <c r="D77" t="n">
-        <v>952</v>
+        <v>971</v>
       </c>
       <c r="E77" t="n">
-        <v>952</v>
+        <v>971</v>
       </c>
       <c r="F77" t="n">
-        <v>25.9609</v>
+        <v>2.1469</v>
       </c>
       <c r="G77" t="n">
-        <v>959.613333333333</v>
+        <v>-21096.75010287906</v>
       </c>
       <c r="H77" t="n">
-        <v>960.0750000000005</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3520,36 +3409,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>951.8</v>
+        <v>971</v>
       </c>
       <c r="C78" t="n">
-        <v>951.8</v>
+        <v>971</v>
       </c>
       <c r="D78" t="n">
-        <v>951.8</v>
+        <v>971</v>
       </c>
       <c r="E78" t="n">
-        <v>951.8</v>
+        <v>971</v>
       </c>
       <c r="F78" t="n">
-        <v>17.9464</v>
+        <v>0.4313</v>
       </c>
       <c r="G78" t="n">
-        <v>959.0466666666664</v>
+        <v>-21096.75010287906</v>
       </c>
       <c r="H78" t="n">
-        <v>960.0850000000006</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3558,36 +3444,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>952</v>
+        <v>969.9</v>
       </c>
       <c r="C79" t="n">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="D79" t="n">
-        <v>952</v>
+        <v>969.9</v>
       </c>
       <c r="E79" t="n">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0001</v>
+        <v>11</v>
       </c>
       <c r="G79" t="n">
-        <v>958.4133333333331</v>
+        <v>-21107.75010287906</v>
       </c>
       <c r="H79" t="n">
-        <v>960.0183333333339</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3596,36 +3479,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>958.6</v>
+        <v>963.9</v>
       </c>
       <c r="C80" t="n">
-        <v>958.6</v>
+        <v>963.9</v>
       </c>
       <c r="D80" t="n">
-        <v>958.6</v>
+        <v>963.9</v>
       </c>
       <c r="E80" t="n">
-        <v>958.6</v>
+        <v>963.9</v>
       </c>
       <c r="F80" t="n">
-        <v>786.104</v>
+        <v>568</v>
       </c>
       <c r="G80" t="n">
-        <v>958.1066666666663</v>
+        <v>-21675.75010287906</v>
       </c>
       <c r="H80" t="n">
-        <v>960.0783333333339</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,36 +3514,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>951.8</v>
+        <v>963.9</v>
       </c>
       <c r="C81" t="n">
-        <v>951.8</v>
+        <v>963.9</v>
       </c>
       <c r="D81" t="n">
-        <v>951.8</v>
+        <v>963.9</v>
       </c>
       <c r="E81" t="n">
-        <v>951.8</v>
+        <v>963.9</v>
       </c>
       <c r="F81" t="n">
-        <v>463</v>
+        <v>421.9576</v>
       </c>
       <c r="G81" t="n">
-        <v>957.793333333333</v>
+        <v>-21675.75010287906</v>
       </c>
       <c r="H81" t="n">
-        <v>960.0033333333339</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3672,36 +3549,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>951.8</v>
+        <v>961.5</v>
       </c>
       <c r="C82" t="n">
-        <v>951.3</v>
+        <v>961.5</v>
       </c>
       <c r="D82" t="n">
-        <v>951.8</v>
+        <v>961.5</v>
       </c>
       <c r="E82" t="n">
-        <v>951.3</v>
+        <v>961.5</v>
       </c>
       <c r="F82" t="n">
-        <v>735.7676</v>
+        <v>325.2133</v>
       </c>
       <c r="G82" t="n">
-        <v>957.3599999999996</v>
+        <v>-22000.96340287906</v>
       </c>
       <c r="H82" t="n">
-        <v>959.9200000000005</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3710,36 +3584,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>949.5</v>
+        <v>961.1</v>
       </c>
       <c r="C83" t="n">
-        <v>949.5</v>
+        <v>957.7</v>
       </c>
       <c r="D83" t="n">
-        <v>949.5</v>
+        <v>961.1</v>
       </c>
       <c r="E83" t="n">
-        <v>949.5</v>
+        <v>957.7</v>
       </c>
       <c r="F83" t="n">
-        <v>475.2026</v>
+        <v>1826.8274</v>
       </c>
       <c r="G83" t="n">
-        <v>956.5133333333329</v>
+        <v>-23827.79080287906</v>
       </c>
       <c r="H83" t="n">
-        <v>959.808333333334</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3748,36 +3619,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>949.5</v>
+        <v>961.5</v>
       </c>
       <c r="C84" t="n">
-        <v>949.5</v>
+        <v>961.5</v>
       </c>
       <c r="D84" t="n">
-        <v>949.5</v>
+        <v>961.5</v>
       </c>
       <c r="E84" t="n">
-        <v>949.5</v>
+        <v>961.5</v>
       </c>
       <c r="F84" t="n">
-        <v>888.7705</v>
+        <v>27.5849</v>
       </c>
       <c r="G84" t="n">
-        <v>955.393333333333</v>
+        <v>-23800.20590287906</v>
       </c>
       <c r="H84" t="n">
-        <v>959.7666666666672</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3786,36 +3654,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>954.6</v>
+        <v>957.5</v>
       </c>
       <c r="C85" t="n">
-        <v>954.6</v>
+        <v>957.5</v>
       </c>
       <c r="D85" t="n">
-        <v>954.6</v>
+        <v>957.5</v>
       </c>
       <c r="E85" t="n">
-        <v>954.6</v>
+        <v>957.5</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6</v>
+        <v>10.94</v>
       </c>
       <c r="G85" t="n">
-        <v>954.9133333333331</v>
+        <v>-23811.14590287906</v>
       </c>
       <c r="H85" t="n">
-        <v>959.818333333334</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,36 +3689,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>953.9</v>
+        <v>957.5</v>
       </c>
       <c r="C86" t="n">
-        <v>953.9</v>
+        <v>957.5</v>
       </c>
       <c r="D86" t="n">
-        <v>953.9</v>
+        <v>957.5</v>
       </c>
       <c r="E86" t="n">
-        <v>953.9</v>
+        <v>957.5</v>
       </c>
       <c r="F86" t="n">
-        <v>500</v>
+        <v>54.41</v>
       </c>
       <c r="G86" t="n">
-        <v>953.9333333333329</v>
+        <v>-23811.14590287906</v>
       </c>
       <c r="H86" t="n">
-        <v>959.8383333333339</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,36 +3724,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>944.9</v>
+        <v>957.5</v>
       </c>
       <c r="C87" t="n">
-        <v>944.9</v>
+        <v>957.5</v>
       </c>
       <c r="D87" t="n">
-        <v>944.9</v>
+        <v>957.5</v>
       </c>
       <c r="E87" t="n">
-        <v>944.9</v>
+        <v>957.5</v>
       </c>
       <c r="F87" t="n">
-        <v>18.3586</v>
+        <v>39.6599</v>
       </c>
       <c r="G87" t="n">
-        <v>953.1066666666663</v>
+        <v>-23811.14590287906</v>
       </c>
       <c r="H87" t="n">
-        <v>959.728333333334</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,36 +3759,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>942.3</v>
+        <v>957.5</v>
       </c>
       <c r="C88" t="n">
-        <v>942.3</v>
+        <v>957.5</v>
       </c>
       <c r="D88" t="n">
-        <v>942.3</v>
+        <v>957.5</v>
       </c>
       <c r="E88" t="n">
-        <v>942.3</v>
+        <v>957.5</v>
       </c>
       <c r="F88" t="n">
-        <v>429.5772</v>
+        <v>32.4828</v>
       </c>
       <c r="G88" t="n">
-        <v>952.2266666666662</v>
+        <v>-23811.14590287906</v>
       </c>
       <c r="H88" t="n">
-        <v>959.4950000000007</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,36 +3794,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>948.8</v>
+        <v>957.5</v>
       </c>
       <c r="C89" t="n">
-        <v>948.8</v>
+        <v>957.5</v>
       </c>
       <c r="D89" t="n">
-        <v>948.8</v>
+        <v>957.5</v>
       </c>
       <c r="E89" t="n">
-        <v>948.7</v>
+        <v>957.5</v>
       </c>
       <c r="F89" t="n">
-        <v>1917.0682</v>
+        <v>19.8155</v>
       </c>
       <c r="G89" t="n">
-        <v>952.0266666666663</v>
+        <v>-23811.14590287906</v>
       </c>
       <c r="H89" t="n">
-        <v>959.3700000000007</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,36 +3829,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>948.9</v>
+        <v>952</v>
       </c>
       <c r="C90" t="n">
-        <v>938</v>
+        <v>952</v>
       </c>
       <c r="D90" t="n">
-        <v>948.9</v>
+        <v>952</v>
       </c>
       <c r="E90" t="n">
-        <v>938</v>
+        <v>952</v>
       </c>
       <c r="F90" t="n">
-        <v>3702.9626</v>
+        <v>1224.0066</v>
       </c>
       <c r="G90" t="n">
-        <v>950.073333333333</v>
+        <v>-25035.15250287906</v>
       </c>
       <c r="H90" t="n">
-        <v>959.0650000000006</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,36 +3864,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>939.3</v>
+        <v>952</v>
       </c>
       <c r="C91" t="n">
-        <v>938.3</v>
+        <v>952</v>
       </c>
       <c r="D91" t="n">
-        <v>939.3</v>
+        <v>952</v>
       </c>
       <c r="E91" t="n">
-        <v>938.3</v>
+        <v>952</v>
       </c>
       <c r="F91" t="n">
-        <v>144.4243</v>
+        <v>405.5048</v>
       </c>
       <c r="G91" t="n">
-        <v>949.153333333333</v>
+        <v>-25035.15250287906</v>
       </c>
       <c r="H91" t="n">
-        <v>958.6750000000008</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,36 +3899,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>939.5</v>
+        <v>954.1</v>
       </c>
       <c r="C92" t="n">
-        <v>944.4</v>
+        <v>960.3</v>
       </c>
       <c r="D92" t="n">
-        <v>944.4</v>
+        <v>960.3</v>
       </c>
       <c r="E92" t="n">
-        <v>939.5</v>
+        <v>954.1</v>
       </c>
       <c r="F92" t="n">
-        <v>1793.5849</v>
+        <v>342.8642</v>
       </c>
       <c r="G92" t="n">
-        <v>948.6466666666662</v>
+        <v>-24692.28830287906</v>
       </c>
       <c r="H92" t="n">
-        <v>958.4466666666674</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4090,36 +3934,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>944.4</v>
+        <v>961.3</v>
       </c>
       <c r="C93" t="n">
-        <v>944.4</v>
+        <v>961.5</v>
       </c>
       <c r="D93" t="n">
-        <v>944.4</v>
+        <v>961.5</v>
       </c>
       <c r="E93" t="n">
-        <v>944.4</v>
+        <v>961.3</v>
       </c>
       <c r="F93" t="n">
-        <v>1666.5701</v>
+        <v>547.9501</v>
       </c>
       <c r="G93" t="n">
-        <v>948.153333333333</v>
+        <v>-24144.33820287906</v>
       </c>
       <c r="H93" t="n">
-        <v>958.1800000000007</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,36 +3969,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>944.4</v>
+        <v>962.2</v>
       </c>
       <c r="C94" t="n">
-        <v>944.4</v>
+        <v>963.2</v>
       </c>
       <c r="D94" t="n">
-        <v>944.4</v>
+        <v>963.2</v>
       </c>
       <c r="E94" t="n">
-        <v>944.4</v>
+        <v>962.2</v>
       </c>
       <c r="F94" t="n">
-        <v>4.008</v>
+        <v>241.9026</v>
       </c>
       <c r="G94" t="n">
-        <v>947.6466666666662</v>
+        <v>-23902.43560287906</v>
       </c>
       <c r="H94" t="n">
-        <v>957.9116666666674</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4166,36 +4004,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>944.4</v>
+        <v>962.2</v>
       </c>
       <c r="C95" t="n">
-        <v>944.4</v>
+        <v>956.5</v>
       </c>
       <c r="D95" t="n">
-        <v>944.4</v>
+        <v>962.2</v>
       </c>
       <c r="E95" t="n">
-        <v>944.4</v>
+        <v>956.5</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8022</v>
+        <v>554.3043</v>
       </c>
       <c r="G95" t="n">
-        <v>946.6999999999995</v>
+        <v>-24456.73990287906</v>
       </c>
       <c r="H95" t="n">
-        <v>957.5233333333342</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,36 +4039,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>944.4</v>
+        <v>957.8</v>
       </c>
       <c r="C96" t="n">
-        <v>944.4</v>
+        <v>957.8</v>
       </c>
       <c r="D96" t="n">
-        <v>944.4</v>
+        <v>957.8</v>
       </c>
       <c r="E96" t="n">
-        <v>944.4</v>
+        <v>957.8</v>
       </c>
       <c r="F96" t="n">
-        <v>30.0978</v>
+        <v>162.5</v>
       </c>
       <c r="G96" t="n">
-        <v>946.2066666666663</v>
+        <v>-24294.23990287906</v>
       </c>
       <c r="H96" t="n">
-        <v>957.1116666666676</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4242,36 +4074,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>945.9</v>
+        <v>957.9</v>
       </c>
       <c r="C97" t="n">
-        <v>948.8</v>
+        <v>962.2</v>
       </c>
       <c r="D97" t="n">
-        <v>948.8</v>
+        <v>962.2</v>
       </c>
       <c r="E97" t="n">
-        <v>945.9</v>
+        <v>957.5</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9</v>
+        <v>309.3562</v>
       </c>
       <c r="G97" t="n">
-        <v>946.0399999999995</v>
+        <v>-23984.88370287906</v>
       </c>
       <c r="H97" t="n">
-        <v>956.815000000001</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,36 +4109,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>946.8</v>
+        <v>962.2</v>
       </c>
       <c r="C98" t="n">
-        <v>946.8</v>
+        <v>966.3</v>
       </c>
       <c r="D98" t="n">
-        <v>946.8</v>
+        <v>966.3</v>
       </c>
       <c r="E98" t="n">
-        <v>946.8</v>
+        <v>962.2</v>
       </c>
       <c r="F98" t="n">
-        <v>194.9854</v>
+        <v>1317.9</v>
       </c>
       <c r="G98" t="n">
-        <v>945.8599999999994</v>
+        <v>-22666.98370287906</v>
       </c>
       <c r="H98" t="n">
-        <v>956.5483333333343</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,36 +4144,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>952.7</v>
+        <v>961.8</v>
       </c>
       <c r="C99" t="n">
-        <v>952.7</v>
+        <v>961.8</v>
       </c>
       <c r="D99" t="n">
-        <v>952.7</v>
+        <v>961.8</v>
       </c>
       <c r="E99" t="n">
-        <v>952.7</v>
+        <v>961.8</v>
       </c>
       <c r="F99" t="n">
-        <v>260</v>
+        <v>89.33320000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>946.0733333333329</v>
+        <v>-22756.31690287906</v>
       </c>
       <c r="H99" t="n">
-        <v>956.4183333333343</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4356,36 +4179,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>951.5</v>
+        <v>968.3</v>
       </c>
       <c r="C100" t="n">
-        <v>946.8</v>
+        <v>968.6</v>
       </c>
       <c r="D100" t="n">
-        <v>951.9</v>
+        <v>968.6</v>
       </c>
       <c r="E100" t="n">
-        <v>946.8</v>
+        <v>968.3</v>
       </c>
       <c r="F100" t="n">
-        <v>1874.7549</v>
+        <v>401.1707135453232</v>
       </c>
       <c r="G100" t="n">
-        <v>945.5533333333328</v>
+        <v>-22355.14618933374</v>
       </c>
       <c r="H100" t="n">
-        <v>956.2183333333343</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,36 +4214,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>946.8</v>
+        <v>962</v>
       </c>
       <c r="C101" t="n">
-        <v>946.8</v>
+        <v>957.3</v>
       </c>
       <c r="D101" t="n">
-        <v>946.8</v>
+        <v>962</v>
       </c>
       <c r="E101" t="n">
-        <v>946.8</v>
+        <v>957.3</v>
       </c>
       <c r="F101" t="n">
-        <v>365.109</v>
+        <v>1063.6954</v>
       </c>
       <c r="G101" t="n">
-        <v>945.0799999999995</v>
+        <v>-23418.84158933374</v>
       </c>
       <c r="H101" t="n">
-        <v>955.8983333333343</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4432,36 +4249,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>946.8</v>
+        <v>955.5</v>
       </c>
       <c r="C102" t="n">
-        <v>946.8</v>
+        <v>955.5</v>
       </c>
       <c r="D102" t="n">
-        <v>946.8</v>
+        <v>955.5</v>
       </c>
       <c r="E102" t="n">
-        <v>946.8</v>
+        <v>955.5</v>
       </c>
       <c r="F102" t="n">
-        <v>151.6056</v>
+        <v>300</v>
       </c>
       <c r="G102" t="n">
-        <v>945.2066666666661</v>
+        <v>-23718.84158933374</v>
       </c>
       <c r="H102" t="n">
-        <v>955.7133333333344</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4470,36 +4284,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>948.8</v>
+        <v>952.8</v>
       </c>
       <c r="C103" t="n">
-        <v>944.1</v>
+        <v>951.8</v>
       </c>
       <c r="D103" t="n">
-        <v>948.8</v>
+        <v>952.8</v>
       </c>
       <c r="E103" t="n">
-        <v>944.1</v>
+        <v>951.8</v>
       </c>
       <c r="F103" t="n">
-        <v>727.3658</v>
+        <v>1319</v>
       </c>
       <c r="G103" t="n">
-        <v>945.3266666666661</v>
+        <v>-25037.84158933374</v>
       </c>
       <c r="H103" t="n">
-        <v>955.3500000000009</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,36 +4319,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>942.2</v>
+        <v>967.3</v>
       </c>
       <c r="C104" t="n">
-        <v>942.2</v>
+        <v>967.3</v>
       </c>
       <c r="D104" t="n">
-        <v>942.2</v>
+        <v>967.3</v>
       </c>
       <c r="E104" t="n">
-        <v>942.2</v>
+        <v>967.3</v>
       </c>
       <c r="F104" t="n">
-        <v>369.6276</v>
+        <v>1.3702</v>
       </c>
       <c r="G104" t="n">
-        <v>944.8866666666662</v>
+        <v>-25036.47138933374</v>
       </c>
       <c r="H104" t="n">
-        <v>954.8916666666677</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,36 +4354,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>948</v>
+        <v>952.1</v>
       </c>
       <c r="C105" t="n">
-        <v>947</v>
+        <v>952.1</v>
       </c>
       <c r="D105" t="n">
-        <v>948</v>
+        <v>952.1</v>
       </c>
       <c r="E105" t="n">
-        <v>947</v>
+        <v>952.1</v>
       </c>
       <c r="F105" t="n">
-        <v>28.7513</v>
+        <v>453</v>
       </c>
       <c r="G105" t="n">
-        <v>945.4866666666662</v>
+        <v>-25489.47138933374</v>
       </c>
       <c r="H105" t="n">
-        <v>954.5083333333343</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,36 +4389,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="C106" t="n">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="D106" t="n">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="E106" t="n">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6651</v>
+        <v>25.9609</v>
       </c>
       <c r="G106" t="n">
-        <v>946.0666666666663</v>
+        <v>-25515.43228933373</v>
       </c>
       <c r="H106" t="n">
-        <v>954.125000000001</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4622,36 +4424,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>945</v>
+        <v>951.8</v>
       </c>
       <c r="C107" t="n">
-        <v>945</v>
+        <v>951.8</v>
       </c>
       <c r="D107" t="n">
-        <v>945</v>
+        <v>951.8</v>
       </c>
       <c r="E107" t="n">
-        <v>945</v>
+        <v>951.8</v>
       </c>
       <c r="F107" t="n">
-        <v>353.9759</v>
+        <v>17.9464</v>
       </c>
       <c r="G107" t="n">
-        <v>946.1066666666663</v>
+        <v>-25533.37868933373</v>
       </c>
       <c r="H107" t="n">
-        <v>953.6916666666676</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,36 +4459,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="C108" t="n">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="D108" t="n">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="E108" t="n">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="F108" t="n">
-        <v>2575.5749</v>
+        <v>0.0001</v>
       </c>
       <c r="G108" t="n">
-        <v>946.1466666666663</v>
+        <v>-25533.37858933373</v>
       </c>
       <c r="H108" t="n">
-        <v>953.2583333333343</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,36 +4494,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>938.5</v>
+        <v>958.6</v>
       </c>
       <c r="C109" t="n">
-        <v>938.5</v>
+        <v>958.6</v>
       </c>
       <c r="D109" t="n">
-        <v>938.5</v>
+        <v>958.6</v>
       </c>
       <c r="E109" t="n">
-        <v>938.5</v>
+        <v>958.6</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8169</v>
+        <v>786.104</v>
       </c>
       <c r="G109" t="n">
-        <v>945.753333333333</v>
+        <v>-24747.27458933373</v>
       </c>
       <c r="H109" t="n">
-        <v>952.7166666666676</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,36 +4529,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>949.4</v>
+        <v>951.8</v>
       </c>
       <c r="C110" t="n">
-        <v>938.6</v>
+        <v>951.8</v>
       </c>
       <c r="D110" t="n">
-        <v>949.4</v>
+        <v>951.8</v>
       </c>
       <c r="E110" t="n">
-        <v>938.6</v>
+        <v>951.8</v>
       </c>
       <c r="F110" t="n">
-        <v>14.663</v>
+        <v>463</v>
       </c>
       <c r="G110" t="n">
-        <v>945.3666666666664</v>
+        <v>-25210.27458933373</v>
       </c>
       <c r="H110" t="n">
-        <v>952.2933333333343</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4774,36 +4564,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>949.1</v>
+        <v>951.8</v>
       </c>
       <c r="C111" t="n">
-        <v>949.1</v>
+        <v>951.3</v>
       </c>
       <c r="D111" t="n">
-        <v>949.1</v>
+        <v>951.8</v>
       </c>
       <c r="E111" t="n">
-        <v>949.1</v>
+        <v>951.3</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8169</v>
+        <v>735.7676</v>
       </c>
       <c r="G111" t="n">
-        <v>945.6799999999998</v>
+        <v>-25946.04218933373</v>
       </c>
       <c r="H111" t="n">
-        <v>952.0466666666675</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4812,36 +4599,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>941.9</v>
+        <v>949.5</v>
       </c>
       <c r="C112" t="n">
-        <v>941.9</v>
+        <v>949.5</v>
       </c>
       <c r="D112" t="n">
-        <v>941.9</v>
+        <v>949.5</v>
       </c>
       <c r="E112" t="n">
-        <v>941.9</v>
+        <v>949.5</v>
       </c>
       <c r="F112" t="n">
-        <v>1805.2025</v>
+        <v>475.2026</v>
       </c>
       <c r="G112" t="n">
-        <v>945.2199999999998</v>
+        <v>-26421.24478933373</v>
       </c>
       <c r="H112" t="n">
-        <v>951.6800000000009</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4850,36 +4634,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>941.3</v>
+        <v>949.5</v>
       </c>
       <c r="C113" t="n">
-        <v>941.3</v>
+        <v>949.5</v>
       </c>
       <c r="D113" t="n">
-        <v>941.3</v>
+        <v>949.5</v>
       </c>
       <c r="E113" t="n">
-        <v>941.3</v>
+        <v>949.5</v>
       </c>
       <c r="F113" t="n">
-        <v>0.6</v>
+        <v>888.7705</v>
       </c>
       <c r="G113" t="n">
-        <v>944.8533333333331</v>
+        <v>-26421.24478933373</v>
       </c>
       <c r="H113" t="n">
-        <v>951.3433333333343</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4888,36 +4669,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>948.8</v>
+        <v>954.6</v>
       </c>
       <c r="C114" t="n">
-        <v>948.8</v>
+        <v>954.6</v>
       </c>
       <c r="D114" t="n">
-        <v>948.8</v>
+        <v>954.6</v>
       </c>
       <c r="E114" t="n">
-        <v>948.8</v>
+        <v>954.6</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8169</v>
+        <v>0.6</v>
       </c>
       <c r="G114" t="n">
-        <v>944.593333333333</v>
+        <v>-26420.64478933374</v>
       </c>
       <c r="H114" t="n">
-        <v>951.1950000000011</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4926,36 +4704,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>948.8</v>
+        <v>953.9</v>
       </c>
       <c r="C115" t="n">
-        <v>948.7</v>
+        <v>953.9</v>
       </c>
       <c r="D115" t="n">
-        <v>948.8</v>
+        <v>953.9</v>
       </c>
       <c r="E115" t="n">
-        <v>948.7</v>
+        <v>953.9</v>
       </c>
       <c r="F115" t="n">
-        <v>1.6338</v>
+        <v>500</v>
       </c>
       <c r="G115" t="n">
-        <v>944.7199999999998</v>
+        <v>-26920.64478933374</v>
       </c>
       <c r="H115" t="n">
-        <v>950.9816666666677</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,36 +4739,1102 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>940.5</v>
+        <v>944.9</v>
       </c>
       <c r="C116" t="n">
-        <v>940.5</v>
+        <v>944.9</v>
       </c>
       <c r="D116" t="n">
-        <v>940.5</v>
+        <v>944.9</v>
       </c>
       <c r="E116" t="n">
-        <v>940.5</v>
+        <v>944.9</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8169</v>
+        <v>18.3586</v>
       </c>
       <c r="G116" t="n">
-        <v>944.2999999999998</v>
+        <v>-26939.00338933373</v>
       </c>
       <c r="H116" t="n">
-        <v>950.6983333333343</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>942.3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>942.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>942.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>942.3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>429.5772</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-27368.58058933373</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="C118" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="D118" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="E118" t="n">
+        <v>948.7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1917.0682</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-25451.51238933373</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>948.9</v>
+      </c>
+      <c r="C119" t="n">
+        <v>938</v>
+      </c>
+      <c r="D119" t="n">
+        <v>948.9</v>
+      </c>
+      <c r="E119" t="n">
+        <v>938</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3702.9626</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-29154.47498933373</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>939.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>938.3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>939.3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>938.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>144.4243</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-29010.05068933373</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1793.5849</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-27216.46578933373</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="C122" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="D122" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1666.5701</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-27216.46578933373</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-27216.46578933373</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K123" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.8022</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-27216.46578933373</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>30.0978</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-27216.46578933373</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>945.9</v>
+      </c>
+      <c r="C126" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="E126" t="n">
+        <v>945.9</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-27215.56578933373</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="C127" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="D127" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="E127" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>194.9854</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-27410.55118933373</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>952.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>952.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>952.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>952.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>260</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-27150.55118933373</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>951.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>951.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1874.7549</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-29025.30608933373</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>365.109</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-29025.30608933373</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>151.6056</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-29025.30608933373</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>944.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>944.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>727.3658</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-29752.67188933373</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>942.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>942.2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>942.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>942.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>369.6276</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-30122.29948933373</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>948</v>
+      </c>
+      <c r="C134" t="n">
+        <v>947</v>
+      </c>
+      <c r="D134" t="n">
+        <v>948</v>
+      </c>
+      <c r="E134" t="n">
+        <v>947</v>
+      </c>
+      <c r="F134" t="n">
+        <v>28.7513</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-30093.54818933373</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>947</v>
+      </c>
+      <c r="C135" t="n">
+        <v>947</v>
+      </c>
+      <c r="D135" t="n">
+        <v>947</v>
+      </c>
+      <c r="E135" t="n">
+        <v>947</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.6651</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-30093.54818933373</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>945</v>
+      </c>
+      <c r="C136" t="n">
+        <v>945</v>
+      </c>
+      <c r="D136" t="n">
+        <v>945</v>
+      </c>
+      <c r="E136" t="n">
+        <v>945</v>
+      </c>
+      <c r="F136" t="n">
+        <v>353.9759</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-30447.52408933373</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>947</v>
+      </c>
+      <c r="K136" t="n">
+        <v>947</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>945</v>
+      </c>
+      <c r="C137" t="n">
+        <v>945</v>
+      </c>
+      <c r="D137" t="n">
+        <v>945</v>
+      </c>
+      <c r="E137" t="n">
+        <v>945</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2575.5749</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-30447.52408933373</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>945</v>
+      </c>
+      <c r="K137" t="n">
+        <v>947</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-30448.34098933373</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>947</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>949.4</v>
+      </c>
+      <c r="C139" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="D139" t="n">
+        <v>949.4</v>
+      </c>
+      <c r="E139" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="F139" t="n">
+        <v>14.663</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-30433.67798933373</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="K139" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-30432.86108933373</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1805.2025</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-32238.06358933373</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-32238.66358933373</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-32237.84668933373</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="C144" t="n">
+        <v>948.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="E144" t="n">
+        <v>948.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.6338</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-32239.48048933373</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-32240.29738933373</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>948.7</v>
+      </c>
+      <c r="K145" t="n">
+        <v>948.7</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest OMG.xlsx
+++ b/BackTest/2020-01-23 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>952.5</v>
+        <v>952</v>
       </c>
       <c r="C2" t="n">
-        <v>952.5</v>
+        <v>952</v>
       </c>
       <c r="D2" t="n">
-        <v>952.5</v>
+        <v>953.3</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5</v>
+        <v>952</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>681.1763999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>-14696.50310000001</v>
+        <v>-14176.59486231674</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>953</v>
+        <v>951.1</v>
       </c>
       <c r="C3" t="n">
-        <v>953</v>
+        <v>951.1</v>
       </c>
       <c r="D3" t="n">
-        <v>953</v>
+        <v>951.1</v>
       </c>
       <c r="E3" t="n">
-        <v>953</v>
+        <v>951.1</v>
       </c>
       <c r="F3" t="n">
-        <v>226.1169</v>
+        <v>61.7</v>
       </c>
       <c r="G3" t="n">
-        <v>-14470.38620000001</v>
+        <v>-14238.29486231674</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>953</v>
+        <v>951.2</v>
       </c>
       <c r="C4" t="n">
-        <v>953</v>
+        <v>951.2</v>
       </c>
       <c r="D4" t="n">
-        <v>953</v>
+        <v>951.2</v>
       </c>
       <c r="E4" t="n">
-        <v>953</v>
+        <v>951.2</v>
       </c>
       <c r="F4" t="n">
-        <v>338.2166</v>
+        <v>61.7</v>
       </c>
       <c r="G4" t="n">
-        <v>-14470.38620000001</v>
+        <v>-14176.59486231674</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>953</v>
+        <v>951.2</v>
       </c>
       <c r="C5" t="n">
-        <v>953</v>
+        <v>951.2</v>
       </c>
       <c r="D5" t="n">
-        <v>953</v>
+        <v>951.2</v>
       </c>
       <c r="E5" t="n">
-        <v>953</v>
+        <v>951.2</v>
       </c>
       <c r="F5" t="n">
-        <v>270.3273</v>
+        <v>30.9</v>
       </c>
       <c r="G5" t="n">
-        <v>-14470.38620000001</v>
+        <v>-14176.59486231674</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>953</v>
+        <v>954.2</v>
       </c>
       <c r="C6" t="n">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="D6" t="n">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="E6" t="n">
-        <v>953</v>
+        <v>954.2</v>
       </c>
       <c r="F6" t="n">
-        <v>69.8673</v>
+        <v>300</v>
       </c>
       <c r="G6" t="n">
-        <v>-14470.38620000001</v>
+        <v>-13876.59486231674</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>952.5</v>
+        <v>955</v>
       </c>
       <c r="C7" t="n">
-        <v>952.5</v>
+        <v>955</v>
       </c>
       <c r="D7" t="n">
-        <v>952.5</v>
+        <v>955</v>
       </c>
       <c r="E7" t="n">
-        <v>952.5</v>
+        <v>955</v>
       </c>
       <c r="F7" t="n">
-        <v>238.3035</v>
+        <v>46.3</v>
       </c>
       <c r="G7" t="n">
-        <v>-14708.68970000001</v>
+        <v>-13922.89486231674</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>952.5</v>
+        <v>956</v>
       </c>
       <c r="C8" t="n">
-        <v>952.5</v>
+        <v>956.3</v>
       </c>
       <c r="D8" t="n">
-        <v>952.5</v>
+        <v>956.3</v>
       </c>
       <c r="E8" t="n">
-        <v>952.5</v>
+        <v>956</v>
       </c>
       <c r="F8" t="n">
-        <v>176.5647</v>
+        <v>611.1109</v>
       </c>
       <c r="G8" t="n">
-        <v>-14708.68970000001</v>
+        <v>-13311.78396231674</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>952.5</v>
+        <v>956.3</v>
       </c>
       <c r="C9" t="n">
-        <v>952.5</v>
+        <v>956.3</v>
       </c>
       <c r="D9" t="n">
-        <v>952.5</v>
+        <v>956.3</v>
       </c>
       <c r="E9" t="n">
-        <v>952.5</v>
+        <v>956.3</v>
       </c>
       <c r="F9" t="n">
-        <v>35.4615</v>
+        <v>1545.364</v>
       </c>
       <c r="G9" t="n">
-        <v>-14708.68970000001</v>
+        <v>-13311.78396231674</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>949.3</v>
+        <v>956.2</v>
       </c>
       <c r="C10" t="n">
-        <v>949.2</v>
+        <v>956.2</v>
       </c>
       <c r="D10" t="n">
-        <v>949.3</v>
+        <v>956.2</v>
       </c>
       <c r="E10" t="n">
-        <v>949.2</v>
+        <v>956.2</v>
       </c>
       <c r="F10" t="n">
-        <v>362.4326</v>
+        <v>224.7</v>
       </c>
       <c r="G10" t="n">
-        <v>-15071.12230000001</v>
+        <v>-13536.48396231674</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C11" t="n">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="D11" t="n">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E11" t="n">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="F11" t="n">
-        <v>12.7491</v>
+        <v>1133.539</v>
       </c>
       <c r="G11" t="n">
-        <v>-15083.87140000001</v>
+        <v>-14670.02296231674</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954.8</v>
+        <v>951.5</v>
       </c>
       <c r="C12" t="n">
-        <v>956.1</v>
+        <v>951.5</v>
       </c>
       <c r="D12" t="n">
-        <v>956.1</v>
+        <v>951.5</v>
       </c>
       <c r="E12" t="n">
-        <v>954.8</v>
+        <v>951.5</v>
       </c>
       <c r="F12" t="n">
-        <v>1805.202503713001</v>
+        <v>567.0802</v>
       </c>
       <c r="G12" t="n">
-        <v>-13278.66889628701</v>
+        <v>-15237.10316231674</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>948.4</v>
+        <v>952</v>
       </c>
       <c r="C13" t="n">
-        <v>948.2</v>
+        <v>952.7</v>
       </c>
       <c r="D13" t="n">
-        <v>948.4</v>
+        <v>952.7</v>
       </c>
       <c r="E13" t="n">
-        <v>948.2</v>
+        <v>952</v>
       </c>
       <c r="F13" t="n">
-        <v>300</v>
+        <v>418.3274</v>
       </c>
       <c r="G13" t="n">
-        <v>-13578.66889628701</v>
+        <v>-14818.77576231674</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>946.2</v>
+        <v>951.5</v>
       </c>
       <c r="C14" t="n">
-        <v>946.2</v>
+        <v>951.5</v>
       </c>
       <c r="D14" t="n">
-        <v>946.2</v>
+        <v>951.5</v>
       </c>
       <c r="E14" t="n">
-        <v>946.2</v>
+        <v>951.5</v>
       </c>
       <c r="F14" t="n">
-        <v>577.5</v>
+        <v>149.374</v>
       </c>
       <c r="G14" t="n">
-        <v>-14156.16889628701</v>
+        <v>-14968.14976231674</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>946.2</v>
+        <v>956.3</v>
       </c>
       <c r="C15" t="n">
-        <v>953.1</v>
+        <v>956.3</v>
       </c>
       <c r="D15" t="n">
-        <v>953.1</v>
+        <v>956.3</v>
       </c>
       <c r="E15" t="n">
-        <v>944.9</v>
+        <v>956.3</v>
       </c>
       <c r="F15" t="n">
-        <v>963.1</v>
+        <v>410.5293</v>
       </c>
       <c r="G15" t="n">
-        <v>-13193.06889628701</v>
+        <v>-14557.62046231674</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,67 +935,65 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>952.3</v>
+        <v>956.3</v>
       </c>
       <c r="C16" t="n">
-        <v>952.3</v>
+        <v>956.3</v>
       </c>
       <c r="D16" t="n">
-        <v>952.3</v>
+        <v>956.3</v>
       </c>
       <c r="E16" t="n">
-        <v>952.3</v>
+        <v>956.3</v>
       </c>
       <c r="F16" t="n">
-        <v>59.9</v>
+        <v>132.7689695702186</v>
       </c>
       <c r="G16" t="n">
-        <v>-13252.96889628701</v>
+        <v>-14557.62046231674</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>953.1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>952.3</v>
+        <v>956.3</v>
       </c>
       <c r="C17" t="n">
-        <v>945.2</v>
+        <v>956.3</v>
       </c>
       <c r="D17" t="n">
-        <v>952.3</v>
+        <v>956.3</v>
       </c>
       <c r="E17" t="n">
-        <v>945.2</v>
+        <v>956.3</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>11.7376</v>
       </c>
       <c r="G17" t="n">
-        <v>-13259.96889628701</v>
+        <v>-14557.62046231674</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -986,39 +1002,34 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>945.2</v>
+        <v>956.3</v>
       </c>
       <c r="C18" t="n">
-        <v>945.2</v>
+        <v>961.7</v>
       </c>
       <c r="D18" t="n">
-        <v>945.2</v>
+        <v>961.7</v>
       </c>
       <c r="E18" t="n">
-        <v>945.2</v>
+        <v>956.3</v>
       </c>
       <c r="F18" t="n">
-        <v>65.30589999999999</v>
+        <v>426.9238</v>
       </c>
       <c r="G18" t="n">
-        <v>-13259.96889628701</v>
+        <v>-14130.69666231674</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1027,168 +1038,142 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>944.8</v>
+        <v>958.1</v>
       </c>
       <c r="C19" t="n">
-        <v>937.5</v>
+        <v>958.1</v>
       </c>
       <c r="D19" t="n">
-        <v>944.8</v>
+        <v>958.1</v>
       </c>
       <c r="E19" t="n">
-        <v>937.5</v>
+        <v>958.1</v>
       </c>
       <c r="F19" t="n">
-        <v>4201.5543</v>
+        <v>38.6</v>
       </c>
       <c r="G19" t="n">
-        <v>-17461.52319628701</v>
+        <v>-14169.29666231674</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>945.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>941.5</v>
+        <v>966.2</v>
       </c>
       <c r="C20" t="n">
-        <v>941.5</v>
+        <v>960.4</v>
       </c>
       <c r="D20" t="n">
-        <v>941.5</v>
+        <v>967.7</v>
       </c>
       <c r="E20" t="n">
-        <v>941.5</v>
+        <v>960.4</v>
       </c>
       <c r="F20" t="n">
-        <v>59.6226</v>
+        <v>1507.0958</v>
       </c>
       <c r="G20" t="n">
-        <v>-17401.90059628701</v>
+        <v>-12662.20086231674</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>937.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>944.1</v>
+        <v>960.5</v>
       </c>
       <c r="C21" t="n">
-        <v>943</v>
+        <v>960.5</v>
       </c>
       <c r="D21" t="n">
-        <v>944.1</v>
+        <v>960.5</v>
       </c>
       <c r="E21" t="n">
-        <v>943</v>
+        <v>960.5</v>
       </c>
       <c r="F21" t="n">
-        <v>6812.5326</v>
+        <v>83.5117</v>
       </c>
       <c r="G21" t="n">
-        <v>-10589.36799628701</v>
+        <v>-12578.68916231674</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>941.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>943</v>
+        <v>965.4</v>
       </c>
       <c r="C22" t="n">
-        <v>943</v>
+        <v>967.7</v>
       </c>
       <c r="D22" t="n">
-        <v>943</v>
+        <v>967.7</v>
       </c>
       <c r="E22" t="n">
-        <v>943</v>
+        <v>965.4</v>
       </c>
       <c r="F22" t="n">
-        <v>380</v>
+        <v>565.7662150356515</v>
       </c>
       <c r="G22" t="n">
-        <v>-10589.36799628701</v>
+        <v>-12012.92294728109</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1197,39 +1182,34 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>938.9</v>
+        <v>969.1</v>
       </c>
       <c r="C23" t="n">
-        <v>943</v>
+        <v>969.1</v>
       </c>
       <c r="D23" t="n">
-        <v>943</v>
+        <v>969.1</v>
       </c>
       <c r="E23" t="n">
-        <v>938.9</v>
+        <v>969.1</v>
       </c>
       <c r="F23" t="n">
-        <v>601.4873</v>
+        <v>67.0467444020225</v>
       </c>
       <c r="G23" t="n">
-        <v>-10589.36799628701</v>
+        <v>-11945.87620287906</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1238,39 +1218,34 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>938.1</v>
+        <v>966.6</v>
       </c>
       <c r="C24" t="n">
-        <v>938.1</v>
+        <v>966.6</v>
       </c>
       <c r="D24" t="n">
-        <v>938.1</v>
+        <v>966.6</v>
       </c>
       <c r="E24" t="n">
-        <v>938.1</v>
+        <v>966.6</v>
       </c>
       <c r="F24" t="n">
-        <v>130.4292</v>
+        <v>1500</v>
       </c>
       <c r="G24" t="n">
-        <v>-10719.79719628701</v>
+        <v>-13445.87620287906</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1279,285 +1254,250 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>943</v>
+        <v>962.8</v>
       </c>
       <c r="C25" t="n">
-        <v>943</v>
+        <v>962.8</v>
       </c>
       <c r="D25" t="n">
-        <v>943</v>
+        <v>962.8</v>
       </c>
       <c r="E25" t="n">
-        <v>943</v>
+        <v>962.8</v>
       </c>
       <c r="F25" t="n">
-        <v>10.3773</v>
+        <v>4.1667</v>
       </c>
       <c r="G25" t="n">
-        <v>-10709.41989628701</v>
+        <v>-13450.04290287906</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="C26" t="n">
-        <v>943</v>
+        <v>960.5</v>
       </c>
       <c r="D26" t="n">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="E26" t="n">
-        <v>943</v>
+        <v>960.5</v>
       </c>
       <c r="F26" t="n">
-        <v>29.9858</v>
+        <v>1560.862</v>
       </c>
       <c r="G26" t="n">
-        <v>-10709.41989628701</v>
+        <v>-15010.90490287907</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>939.4</v>
+        <v>960.6</v>
       </c>
       <c r="C27" t="n">
-        <v>943</v>
+        <v>958.8</v>
       </c>
       <c r="D27" t="n">
-        <v>943</v>
+        <v>960.6</v>
       </c>
       <c r="E27" t="n">
-        <v>939.2</v>
+        <v>958.8</v>
       </c>
       <c r="F27" t="n">
-        <v>302.2587</v>
+        <v>2435.2386</v>
       </c>
       <c r="G27" t="n">
-        <v>-10709.41989628701</v>
+        <v>-17446.14350287907</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="C28" t="n">
-        <v>943</v>
+        <v>966</v>
       </c>
       <c r="D28" t="n">
-        <v>943</v>
+        <v>966</v>
       </c>
       <c r="E28" t="n">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="F28" t="n">
-        <v>407.39</v>
+        <v>61.7</v>
       </c>
       <c r="G28" t="n">
-        <v>-10709.41989628701</v>
+        <v>-17384.44350287906</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>940.2</v>
+        <v>961.1</v>
       </c>
       <c r="C29" t="n">
-        <v>939.2</v>
+        <v>957.9</v>
       </c>
       <c r="D29" t="n">
-        <v>940.2</v>
+        <v>961.1</v>
       </c>
       <c r="E29" t="n">
-        <v>939.2</v>
+        <v>950.9</v>
       </c>
       <c r="F29" t="n">
-        <v>4166.1641</v>
+        <v>4459.2331</v>
       </c>
       <c r="G29" t="n">
-        <v>-14875.58399628701</v>
+        <v>-21843.67660287907</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>943</v>
+        <v>964.5</v>
       </c>
       <c r="C30" t="n">
-        <v>943</v>
+        <v>965.9</v>
       </c>
       <c r="D30" t="n">
-        <v>943</v>
+        <v>965.9</v>
       </c>
       <c r="E30" t="n">
-        <v>943</v>
+        <v>964.5</v>
       </c>
       <c r="F30" t="n">
-        <v>633.4289</v>
+        <v>45.2999</v>
       </c>
       <c r="G30" t="n">
-        <v>-14242.15509628701</v>
+        <v>-21798.37670287906</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>942.9</v>
+        <v>967</v>
       </c>
       <c r="C31" t="n">
-        <v>942.9</v>
+        <v>969.7</v>
       </c>
       <c r="D31" t="n">
-        <v>942.9</v>
+        <v>969.7</v>
       </c>
       <c r="E31" t="n">
-        <v>942.9</v>
+        <v>967</v>
       </c>
       <c r="F31" t="n">
-        <v>618.45</v>
+        <v>13.7</v>
       </c>
       <c r="G31" t="n">
-        <v>-14860.60509628701</v>
+        <v>-21784.67670287906</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1566,39 +1506,34 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>943</v>
+        <v>969.7</v>
       </c>
       <c r="C32" t="n">
-        <v>942.9</v>
+        <v>970</v>
       </c>
       <c r="D32" t="n">
-        <v>943</v>
+        <v>970</v>
       </c>
       <c r="E32" t="n">
-        <v>942.9</v>
+        <v>969.7</v>
       </c>
       <c r="F32" t="n">
-        <v>37.16322714740191</v>
+        <v>405.5048</v>
       </c>
       <c r="G32" t="n">
-        <v>-14860.60509628701</v>
+        <v>-21379.17190287906</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1607,39 +1542,34 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>942</v>
+        <v>970</v>
       </c>
       <c r="C33" t="n">
-        <v>942</v>
+        <v>970</v>
       </c>
       <c r="D33" t="n">
-        <v>942</v>
+        <v>970.1</v>
       </c>
       <c r="E33" t="n">
-        <v>942</v>
+        <v>970</v>
       </c>
       <c r="F33" t="n">
-        <v>31.39596602972399</v>
+        <v>544.6506000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>-14892.00106231674</v>
+        <v>-21379.17190287906</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1648,39 +1578,34 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>940</v>
+        <v>971</v>
       </c>
       <c r="C34" t="n">
-        <v>940</v>
+        <v>971</v>
       </c>
       <c r="D34" t="n">
-        <v>940</v>
+        <v>971</v>
       </c>
       <c r="E34" t="n">
-        <v>940</v>
+        <v>971</v>
       </c>
       <c r="F34" t="n">
-        <v>4.1655</v>
+        <v>282.4218</v>
       </c>
       <c r="G34" t="n">
-        <v>-14896.16656231674</v>
+        <v>-21096.75010287906</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1689,414 +1614,358 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>938.4</v>
+        <v>971</v>
       </c>
       <c r="C35" t="n">
-        <v>938.4</v>
+        <v>971</v>
       </c>
       <c r="D35" t="n">
-        <v>938.4</v>
+        <v>971</v>
       </c>
       <c r="E35" t="n">
-        <v>937.4</v>
+        <v>971</v>
       </c>
       <c r="F35" t="n">
-        <v>1092.1</v>
+        <v>2.1469</v>
       </c>
       <c r="G35" t="n">
-        <v>-15988.26656231674</v>
+        <v>-21096.75010287906</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>941.9</v>
+        <v>971</v>
       </c>
       <c r="C36" t="n">
-        <v>941.9</v>
+        <v>971</v>
       </c>
       <c r="D36" t="n">
-        <v>941.9</v>
+        <v>971</v>
       </c>
       <c r="E36" t="n">
-        <v>941.9</v>
+        <v>971</v>
       </c>
       <c r="F36" t="n">
-        <v>9.0167</v>
+        <v>0.4313</v>
       </c>
       <c r="G36" t="n">
-        <v>-15979.24986231674</v>
+        <v>-21096.75010287906</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>940</v>
+        <v>969.9</v>
       </c>
       <c r="C37" t="n">
-        <v>940</v>
+        <v>964</v>
       </c>
       <c r="D37" t="n">
-        <v>940</v>
+        <v>969.9</v>
       </c>
       <c r="E37" t="n">
-        <v>940</v>
+        <v>964</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8345</v>
+        <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>-15980.08436231674</v>
+        <v>-21107.75010287906</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>941.9</v>
-      </c>
-      <c r="K37" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>941.9</v>
+        <v>963.9</v>
       </c>
       <c r="C38" t="n">
-        <v>943</v>
+        <v>963.9</v>
       </c>
       <c r="D38" t="n">
-        <v>943</v>
+        <v>963.9</v>
       </c>
       <c r="E38" t="n">
-        <v>941.9</v>
+        <v>963.9</v>
       </c>
       <c r="F38" t="n">
-        <v>959.9453</v>
+        <v>568</v>
       </c>
       <c r="G38" t="n">
-        <v>-15020.13906231674</v>
+        <v>-21675.75010287906</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>940</v>
-      </c>
-      <c r="K38" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>943</v>
+        <v>963.9</v>
       </c>
       <c r="C39" t="n">
-        <v>950.8</v>
+        <v>963.9</v>
       </c>
       <c r="D39" t="n">
-        <v>950.8</v>
+        <v>963.9</v>
       </c>
       <c r="E39" t="n">
-        <v>943</v>
+        <v>963.9</v>
       </c>
       <c r="F39" t="n">
-        <v>2401.4334</v>
+        <v>421.9576</v>
       </c>
       <c r="G39" t="n">
-        <v>-12618.70566231674</v>
+        <v>-21675.75010287906</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>943</v>
-      </c>
-      <c r="K39" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>950.7</v>
+        <v>961.5</v>
       </c>
       <c r="C40" t="n">
-        <v>950.7</v>
+        <v>961.5</v>
       </c>
       <c r="D40" t="n">
-        <v>950.7</v>
+        <v>961.5</v>
       </c>
       <c r="E40" t="n">
-        <v>950.7</v>
+        <v>961.5</v>
       </c>
       <c r="F40" t="n">
-        <v>1500</v>
+        <v>325.2133</v>
       </c>
       <c r="G40" t="n">
-        <v>-14118.70566231674</v>
+        <v>-22000.96340287906</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>950.7</v>
+        <v>961.1</v>
       </c>
       <c r="C41" t="n">
-        <v>950.7</v>
+        <v>957.7</v>
       </c>
       <c r="D41" t="n">
-        <v>950.7</v>
+        <v>961.1</v>
       </c>
       <c r="E41" t="n">
-        <v>950.7</v>
+        <v>957.7</v>
       </c>
       <c r="F41" t="n">
-        <v>1500</v>
+        <v>1826.8274</v>
       </c>
       <c r="G41" t="n">
-        <v>-14118.70566231674</v>
+        <v>-23827.79080287906</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>953.2</v>
+        <v>961.5</v>
       </c>
       <c r="C42" t="n">
-        <v>953.2</v>
+        <v>961.5</v>
       </c>
       <c r="D42" t="n">
-        <v>953.2</v>
+        <v>961.5</v>
       </c>
       <c r="E42" t="n">
-        <v>953.2</v>
+        <v>961.5</v>
       </c>
       <c r="F42" t="n">
-        <v>579.9065000000001</v>
+        <v>27.5849</v>
       </c>
       <c r="G42" t="n">
-        <v>-13538.79916231674</v>
+        <v>-23800.20590287906</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>953.3</v>
+        <v>957.5</v>
       </c>
       <c r="C43" t="n">
-        <v>953.3</v>
+        <v>957.5</v>
       </c>
       <c r="D43" t="n">
-        <v>953.3</v>
+        <v>957.5</v>
       </c>
       <c r="E43" t="n">
-        <v>953.3</v>
+        <v>957.5</v>
       </c>
       <c r="F43" t="n">
-        <v>43.3807</v>
+        <v>10.94</v>
       </c>
       <c r="G43" t="n">
-        <v>-13495.41846231674</v>
+        <v>-23811.14590287906</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>952</v>
+        <v>957.5</v>
       </c>
       <c r="C44" t="n">
-        <v>952</v>
+        <v>957.5</v>
       </c>
       <c r="D44" t="n">
-        <v>953.3</v>
+        <v>957.5</v>
       </c>
       <c r="E44" t="n">
-        <v>952</v>
+        <v>957.5</v>
       </c>
       <c r="F44" t="n">
-        <v>681.1763999999999</v>
+        <v>54.41</v>
       </c>
       <c r="G44" t="n">
-        <v>-14176.59486231674</v>
+        <v>-23811.14590287906</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2105,80 +1974,70 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>951.1</v>
+        <v>957.5</v>
       </c>
       <c r="C45" t="n">
-        <v>951.1</v>
+        <v>957.5</v>
       </c>
       <c r="D45" t="n">
-        <v>951.1</v>
+        <v>957.5</v>
       </c>
       <c r="E45" t="n">
-        <v>951.1</v>
+        <v>957.5</v>
       </c>
       <c r="F45" t="n">
-        <v>61.7</v>
+        <v>39.6599</v>
       </c>
       <c r="G45" t="n">
-        <v>-14238.29486231674</v>
+        <v>-23811.14590287906</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>951.2</v>
+        <v>957.5</v>
       </c>
       <c r="C46" t="n">
-        <v>951.2</v>
+        <v>957.5</v>
       </c>
       <c r="D46" t="n">
-        <v>951.2</v>
+        <v>957.5</v>
       </c>
       <c r="E46" t="n">
-        <v>951.2</v>
+        <v>957.5</v>
       </c>
       <c r="F46" t="n">
-        <v>61.7</v>
+        <v>32.4828</v>
       </c>
       <c r="G46" t="n">
-        <v>-14176.59486231674</v>
+        <v>-23811.14590287906</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2187,162 +2046,142 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>951.2</v>
+        <v>957.5</v>
       </c>
       <c r="C47" t="n">
-        <v>951.2</v>
+        <v>957.5</v>
       </c>
       <c r="D47" t="n">
-        <v>951.2</v>
+        <v>957.5</v>
       </c>
       <c r="E47" t="n">
-        <v>951.2</v>
+        <v>957.5</v>
       </c>
       <c r="F47" t="n">
-        <v>30.9</v>
+        <v>19.8155</v>
       </c>
       <c r="G47" t="n">
-        <v>-14176.59486231674</v>
+        <v>-23811.14590287906</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>954.2</v>
+        <v>952</v>
       </c>
       <c r="C48" t="n">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D48" t="n">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="E48" t="n">
-        <v>954.2</v>
+        <v>952</v>
       </c>
       <c r="F48" t="n">
-        <v>300</v>
+        <v>1224.0066</v>
       </c>
       <c r="G48" t="n">
-        <v>-13876.59486231674</v>
+        <v>-25035.15250287906</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C49" t="n">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D49" t="n">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E49" t="n">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F49" t="n">
-        <v>46.3</v>
+        <v>405.5048</v>
       </c>
       <c r="G49" t="n">
-        <v>-13922.89486231674</v>
+        <v>-25035.15250287906</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>956</v>
+        <v>954.1</v>
       </c>
       <c r="C50" t="n">
-        <v>956.3</v>
+        <v>960.3</v>
       </c>
       <c r="D50" t="n">
-        <v>956.3</v>
+        <v>960.3</v>
       </c>
       <c r="E50" t="n">
-        <v>956</v>
+        <v>954.1</v>
       </c>
       <c r="F50" t="n">
-        <v>611.1109</v>
+        <v>342.8642</v>
       </c>
       <c r="G50" t="n">
-        <v>-13311.78396231674</v>
+        <v>-24692.28830287906</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2351,39 +2190,34 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>956.3</v>
+        <v>961.3</v>
       </c>
       <c r="C51" t="n">
-        <v>956.3</v>
+        <v>961.5</v>
       </c>
       <c r="D51" t="n">
-        <v>956.3</v>
+        <v>961.5</v>
       </c>
       <c r="E51" t="n">
-        <v>956.3</v>
+        <v>961.3</v>
       </c>
       <c r="F51" t="n">
-        <v>1545.364</v>
+        <v>547.9501</v>
       </c>
       <c r="G51" t="n">
-        <v>-13311.78396231674</v>
+        <v>-24144.33820287906</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2392,39 +2226,34 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>956.2</v>
+        <v>962.2</v>
       </c>
       <c r="C52" t="n">
-        <v>956.2</v>
+        <v>963.2</v>
       </c>
       <c r="D52" t="n">
-        <v>956.2</v>
+        <v>963.2</v>
       </c>
       <c r="E52" t="n">
-        <v>956.2</v>
+        <v>962.2</v>
       </c>
       <c r="F52" t="n">
-        <v>224.7</v>
+        <v>241.9026</v>
       </c>
       <c r="G52" t="n">
-        <v>-13536.48396231674</v>
+        <v>-23902.43560287906</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2433,39 +2262,34 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>952</v>
+        <v>962.2</v>
       </c>
       <c r="C53" t="n">
-        <v>952</v>
+        <v>956.5</v>
       </c>
       <c r="D53" t="n">
-        <v>952</v>
+        <v>962.2</v>
       </c>
       <c r="E53" t="n">
-        <v>952</v>
+        <v>956.5</v>
       </c>
       <c r="F53" t="n">
-        <v>1133.539</v>
+        <v>554.3043</v>
       </c>
       <c r="G53" t="n">
-        <v>-14670.02296231674</v>
+        <v>-24456.73990287906</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2474,39 +2298,34 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>951.5</v>
+        <v>957.8</v>
       </c>
       <c r="C54" t="n">
-        <v>951.5</v>
+        <v>957.8</v>
       </c>
       <c r="D54" t="n">
-        <v>951.5</v>
+        <v>957.8</v>
       </c>
       <c r="E54" t="n">
-        <v>951.5</v>
+        <v>957.8</v>
       </c>
       <c r="F54" t="n">
-        <v>567.0802</v>
+        <v>162.5</v>
       </c>
       <c r="G54" t="n">
-        <v>-15237.10316231674</v>
+        <v>-24294.23990287906</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2515,39 +2334,34 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>952</v>
+        <v>957.9</v>
       </c>
       <c r="C55" t="n">
-        <v>952.7</v>
+        <v>962.2</v>
       </c>
       <c r="D55" t="n">
-        <v>952.7</v>
+        <v>962.2</v>
       </c>
       <c r="E55" t="n">
-        <v>952</v>
+        <v>957.5</v>
       </c>
       <c r="F55" t="n">
-        <v>418.3274</v>
+        <v>309.3562</v>
       </c>
       <c r="G55" t="n">
-        <v>-14818.77576231674</v>
+        <v>-23984.88370287906</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2556,39 +2370,34 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>951.5</v>
+        <v>962.2</v>
       </c>
       <c r="C56" t="n">
-        <v>951.5</v>
+        <v>966.3</v>
       </c>
       <c r="D56" t="n">
-        <v>951.5</v>
+        <v>966.3</v>
       </c>
       <c r="E56" t="n">
-        <v>951.5</v>
+        <v>962.2</v>
       </c>
       <c r="F56" t="n">
-        <v>149.374</v>
+        <v>1317.9</v>
       </c>
       <c r="G56" t="n">
-        <v>-14968.14976231674</v>
+        <v>-22666.98370287906</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2597,39 +2406,34 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>956.3</v>
+        <v>961.8</v>
       </c>
       <c r="C57" t="n">
-        <v>956.3</v>
+        <v>961.8</v>
       </c>
       <c r="D57" t="n">
-        <v>956.3</v>
+        <v>961.8</v>
       </c>
       <c r="E57" t="n">
-        <v>956.3</v>
+        <v>961.8</v>
       </c>
       <c r="F57" t="n">
-        <v>410.5293</v>
+        <v>89.33320000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>-14557.62046231674</v>
+        <v>-22756.31690287906</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2638,162 +2442,142 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>956.3</v>
+        <v>968.3</v>
       </c>
       <c r="C58" t="n">
-        <v>956.3</v>
+        <v>968.6</v>
       </c>
       <c r="D58" t="n">
-        <v>956.3</v>
+        <v>968.6</v>
       </c>
       <c r="E58" t="n">
-        <v>956.3</v>
+        <v>968.3</v>
       </c>
       <c r="F58" t="n">
-        <v>132.7689695702186</v>
+        <v>401.1707135453232</v>
       </c>
       <c r="G58" t="n">
-        <v>-14557.62046231674</v>
+        <v>-22355.14618933374</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>956.3</v>
+        <v>962</v>
       </c>
       <c r="C59" t="n">
-        <v>956.3</v>
+        <v>957.3</v>
       </c>
       <c r="D59" t="n">
-        <v>956.3</v>
+        <v>962</v>
       </c>
       <c r="E59" t="n">
-        <v>956.3</v>
+        <v>957.3</v>
       </c>
       <c r="F59" t="n">
-        <v>11.7376</v>
+        <v>1063.6954</v>
       </c>
       <c r="G59" t="n">
-        <v>-14557.62046231674</v>
+        <v>-23418.84158933374</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>956.3</v>
+        <v>955.5</v>
       </c>
       <c r="C60" t="n">
-        <v>961.7</v>
+        <v>955.5</v>
       </c>
       <c r="D60" t="n">
-        <v>961.7</v>
+        <v>955.5</v>
       </c>
       <c r="E60" t="n">
-        <v>956.3</v>
+        <v>955.5</v>
       </c>
       <c r="F60" t="n">
-        <v>426.9238</v>
+        <v>300</v>
       </c>
       <c r="G60" t="n">
-        <v>-14130.69666231674</v>
+        <v>-23718.84158933374</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>958.1</v>
+        <v>952.8</v>
       </c>
       <c r="C61" t="n">
-        <v>958.1</v>
+        <v>951.8</v>
       </c>
       <c r="D61" t="n">
-        <v>958.1</v>
+        <v>952.8</v>
       </c>
       <c r="E61" t="n">
-        <v>958.1</v>
+        <v>951.8</v>
       </c>
       <c r="F61" t="n">
-        <v>38.6</v>
+        <v>1319</v>
       </c>
       <c r="G61" t="n">
-        <v>-14169.29666231674</v>
+        <v>-25037.84158933374</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2802,39 +2586,34 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>966.2</v>
+        <v>967.3</v>
       </c>
       <c r="C62" t="n">
-        <v>960.4</v>
+        <v>967.3</v>
       </c>
       <c r="D62" t="n">
-        <v>967.7</v>
+        <v>967.3</v>
       </c>
       <c r="E62" t="n">
-        <v>960.4</v>
+        <v>967.3</v>
       </c>
       <c r="F62" t="n">
-        <v>1507.0958</v>
+        <v>1.3702</v>
       </c>
       <c r="G62" t="n">
-        <v>-12662.20086231674</v>
+        <v>-25036.47138933374</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2843,39 +2622,34 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>960.5</v>
+        <v>952.1</v>
       </c>
       <c r="C63" t="n">
-        <v>960.5</v>
+        <v>952.1</v>
       </c>
       <c r="D63" t="n">
-        <v>960.5</v>
+        <v>952.1</v>
       </c>
       <c r="E63" t="n">
-        <v>960.5</v>
+        <v>952.1</v>
       </c>
       <c r="F63" t="n">
-        <v>83.5117</v>
+        <v>453</v>
       </c>
       <c r="G63" t="n">
-        <v>-12578.68916231674</v>
+        <v>-25489.47138933374</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2884,39 +2658,34 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>965.4</v>
+        <v>952</v>
       </c>
       <c r="C64" t="n">
-        <v>967.7</v>
+        <v>952</v>
       </c>
       <c r="D64" t="n">
-        <v>967.7</v>
+        <v>952</v>
       </c>
       <c r="E64" t="n">
-        <v>965.4</v>
+        <v>952</v>
       </c>
       <c r="F64" t="n">
-        <v>565.7662150356515</v>
+        <v>25.9609</v>
       </c>
       <c r="G64" t="n">
-        <v>-12012.92294728109</v>
+        <v>-25515.43228933373</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2925,39 +2694,34 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>969.1</v>
+        <v>951.8</v>
       </c>
       <c r="C65" t="n">
-        <v>969.1</v>
+        <v>951.8</v>
       </c>
       <c r="D65" t="n">
-        <v>969.1</v>
+        <v>951.8</v>
       </c>
       <c r="E65" t="n">
-        <v>969.1</v>
+        <v>951.8</v>
       </c>
       <c r="F65" t="n">
-        <v>67.0467444020225</v>
+        <v>17.9464</v>
       </c>
       <c r="G65" t="n">
-        <v>-11945.87620287906</v>
+        <v>-25533.37868933373</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2966,86 +2730,76 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>966.6</v>
+        <v>952</v>
       </c>
       <c r="C66" t="n">
-        <v>966.6</v>
+        <v>952</v>
       </c>
       <c r="D66" t="n">
-        <v>966.6</v>
+        <v>952</v>
       </c>
       <c r="E66" t="n">
-        <v>966.6</v>
+        <v>952</v>
       </c>
       <c r="F66" t="n">
-        <v>1500</v>
+        <v>0.0001</v>
       </c>
       <c r="G66" t="n">
-        <v>-13445.87620287906</v>
+        <v>-25533.37858933373</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>953.1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>1.009164305949009</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>962.8</v>
+        <v>958.6</v>
       </c>
       <c r="C67" t="n">
-        <v>962.8</v>
+        <v>958.6</v>
       </c>
       <c r="D67" t="n">
-        <v>962.8</v>
+        <v>958.6</v>
       </c>
       <c r="E67" t="n">
-        <v>962.8</v>
+        <v>958.6</v>
       </c>
       <c r="F67" t="n">
-        <v>4.1667</v>
+        <v>786.104</v>
       </c>
       <c r="G67" t="n">
-        <v>-13450.04290287906</v>
+        <v>-24747.27458933373</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3053,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>962</v>
+        <v>951.8</v>
       </c>
       <c r="C68" t="n">
-        <v>960.5</v>
+        <v>951.8</v>
       </c>
       <c r="D68" t="n">
-        <v>962</v>
+        <v>951.8</v>
       </c>
       <c r="E68" t="n">
-        <v>960.5</v>
+        <v>951.8</v>
       </c>
       <c r="F68" t="n">
-        <v>1560.862</v>
+        <v>463</v>
       </c>
       <c r="G68" t="n">
-        <v>-15010.90490287907</v>
+        <v>-25210.27458933373</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3088,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>960.6</v>
+        <v>951.8</v>
       </c>
       <c r="C69" t="n">
-        <v>958.8</v>
+        <v>951.3</v>
       </c>
       <c r="D69" t="n">
-        <v>960.6</v>
+        <v>951.8</v>
       </c>
       <c r="E69" t="n">
-        <v>958.8</v>
+        <v>951.3</v>
       </c>
       <c r="F69" t="n">
-        <v>2435.2386</v>
+        <v>735.7676</v>
       </c>
       <c r="G69" t="n">
-        <v>-17446.14350287907</v>
+        <v>-25946.04218933373</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3123,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>962</v>
+        <v>949.5</v>
       </c>
       <c r="C70" t="n">
-        <v>966</v>
+        <v>949.5</v>
       </c>
       <c r="D70" t="n">
-        <v>966</v>
+        <v>949.5</v>
       </c>
       <c r="E70" t="n">
-        <v>962</v>
+        <v>949.5</v>
       </c>
       <c r="F70" t="n">
-        <v>61.7</v>
+        <v>475.2026</v>
       </c>
       <c r="G70" t="n">
-        <v>-17384.44350287906</v>
+        <v>-26421.24478933373</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3158,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>961.1</v>
+        <v>949.5</v>
       </c>
       <c r="C71" t="n">
-        <v>957.9</v>
+        <v>949.5</v>
       </c>
       <c r="D71" t="n">
-        <v>961.1</v>
+        <v>949.5</v>
       </c>
       <c r="E71" t="n">
-        <v>950.9</v>
+        <v>949.5</v>
       </c>
       <c r="F71" t="n">
-        <v>4459.2331</v>
+        <v>888.7705</v>
       </c>
       <c r="G71" t="n">
-        <v>-21843.67660287907</v>
+        <v>-26421.24478933373</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3193,34 +2951,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>964.5</v>
+        <v>954.6</v>
       </c>
       <c r="C72" t="n">
-        <v>965.9</v>
+        <v>954.6</v>
       </c>
       <c r="D72" t="n">
-        <v>965.9</v>
+        <v>954.6</v>
       </c>
       <c r="E72" t="n">
-        <v>964.5</v>
+        <v>954.6</v>
       </c>
       <c r="F72" t="n">
-        <v>45.2999</v>
+        <v>0.6</v>
       </c>
       <c r="G72" t="n">
-        <v>-21798.37670287906</v>
+        <v>-26420.64478933374</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3228,34 +2987,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>967</v>
+        <v>953.9</v>
       </c>
       <c r="C73" t="n">
-        <v>969.7</v>
+        <v>953.9</v>
       </c>
       <c r="D73" t="n">
-        <v>969.7</v>
+        <v>953.9</v>
       </c>
       <c r="E73" t="n">
-        <v>967</v>
+        <v>953.9</v>
       </c>
       <c r="F73" t="n">
-        <v>13.7</v>
+        <v>500</v>
       </c>
       <c r="G73" t="n">
-        <v>-21784.67670287906</v>
+        <v>-26920.64478933374</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3263,34 +3023,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>969.7</v>
+        <v>944.9</v>
       </c>
       <c r="C74" t="n">
-        <v>970</v>
+        <v>944.9</v>
       </c>
       <c r="D74" t="n">
-        <v>970</v>
+        <v>944.9</v>
       </c>
       <c r="E74" t="n">
-        <v>969.7</v>
+        <v>944.9</v>
       </c>
       <c r="F74" t="n">
-        <v>405.5048</v>
+        <v>18.3586</v>
       </c>
       <c r="G74" t="n">
-        <v>-21379.17190287906</v>
+        <v>-26939.00338933373</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3298,34 +3059,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>970</v>
+        <v>942.3</v>
       </c>
       <c r="C75" t="n">
-        <v>970</v>
+        <v>942.3</v>
       </c>
       <c r="D75" t="n">
-        <v>970.1</v>
+        <v>942.3</v>
       </c>
       <c r="E75" t="n">
-        <v>970</v>
+        <v>942.3</v>
       </c>
       <c r="F75" t="n">
-        <v>544.6506000000001</v>
+        <v>429.5772</v>
       </c>
       <c r="G75" t="n">
-        <v>-21379.17190287906</v>
+        <v>-27368.58058933373</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3333,34 +3095,35 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>971</v>
+        <v>948.8</v>
       </c>
       <c r="C76" t="n">
-        <v>971</v>
+        <v>948.8</v>
       </c>
       <c r="D76" t="n">
-        <v>971</v>
+        <v>948.8</v>
       </c>
       <c r="E76" t="n">
-        <v>971</v>
+        <v>948.7</v>
       </c>
       <c r="F76" t="n">
-        <v>282.4218</v>
+        <v>1917.0682</v>
       </c>
       <c r="G76" t="n">
-        <v>-21096.75010287906</v>
+        <v>-25451.51238933373</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3368,34 +3131,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>971</v>
+        <v>948.9</v>
       </c>
       <c r="C77" t="n">
-        <v>971</v>
+        <v>938</v>
       </c>
       <c r="D77" t="n">
-        <v>971</v>
+        <v>948.9</v>
       </c>
       <c r="E77" t="n">
-        <v>971</v>
+        <v>938</v>
       </c>
       <c r="F77" t="n">
-        <v>2.1469</v>
+        <v>3702.9626</v>
       </c>
       <c r="G77" t="n">
-        <v>-21096.75010287906</v>
+        <v>-29154.47498933373</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3403,34 +3167,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>971</v>
+        <v>939.3</v>
       </c>
       <c r="C78" t="n">
-        <v>971</v>
+        <v>938.3</v>
       </c>
       <c r="D78" t="n">
-        <v>971</v>
+        <v>939.3</v>
       </c>
       <c r="E78" t="n">
-        <v>971</v>
+        <v>938.3</v>
       </c>
       <c r="F78" t="n">
-        <v>0.4313</v>
+        <v>144.4243</v>
       </c>
       <c r="G78" t="n">
-        <v>-21096.75010287906</v>
+        <v>-29010.05068933373</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3438,2405 +3203,1095 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>969.9</v>
+        <v>939.5</v>
       </c>
       <c r="C79" t="n">
-        <v>964</v>
+        <v>944.4</v>
       </c>
       <c r="D79" t="n">
-        <v>969.9</v>
+        <v>944.4</v>
       </c>
       <c r="E79" t="n">
-        <v>964</v>
+        <v>939.5</v>
       </c>
       <c r="F79" t="n">
-        <v>11</v>
+        <v>1793.5849</v>
       </c>
       <c r="G79" t="n">
-        <v>-21107.75010287906</v>
+        <v>-27216.46578933373</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>938.3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>938.3</v>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>963.9</v>
+        <v>944.4</v>
       </c>
       <c r="C80" t="n">
-        <v>963.9</v>
+        <v>944.4</v>
       </c>
       <c r="D80" t="n">
-        <v>963.9</v>
+        <v>944.4</v>
       </c>
       <c r="E80" t="n">
-        <v>963.9</v>
+        <v>944.4</v>
       </c>
       <c r="F80" t="n">
-        <v>568</v>
+        <v>1666.5701</v>
       </c>
       <c r="G80" t="n">
-        <v>-21675.75010287906</v>
+        <v>-27216.46578933373</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K80" t="n">
+        <v>938.3</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>963.9</v>
+        <v>944.4</v>
       </c>
       <c r="C81" t="n">
-        <v>963.9</v>
+        <v>944.4</v>
       </c>
       <c r="D81" t="n">
-        <v>963.9</v>
+        <v>944.4</v>
       </c>
       <c r="E81" t="n">
-        <v>963.9</v>
+        <v>944.4</v>
       </c>
       <c r="F81" t="n">
-        <v>421.9576</v>
+        <v>4.008</v>
       </c>
       <c r="G81" t="n">
-        <v>-21675.75010287906</v>
+        <v>-27216.46578933373</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K81" t="n">
+        <v>938.3</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>961.5</v>
+        <v>944.4</v>
       </c>
       <c r="C82" t="n">
-        <v>961.5</v>
+        <v>944.4</v>
       </c>
       <c r="D82" t="n">
-        <v>961.5</v>
+        <v>944.4</v>
       </c>
       <c r="E82" t="n">
-        <v>961.5</v>
+        <v>944.4</v>
       </c>
       <c r="F82" t="n">
-        <v>325.2133</v>
+        <v>0.8022</v>
       </c>
       <c r="G82" t="n">
-        <v>-22000.96340287906</v>
+        <v>-27216.46578933373</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K82" t="n">
+        <v>944.4</v>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>961.1</v>
+        <v>944.4</v>
       </c>
       <c r="C83" t="n">
-        <v>957.7</v>
+        <v>944.4</v>
       </c>
       <c r="D83" t="n">
-        <v>961.1</v>
+        <v>944.4</v>
       </c>
       <c r="E83" t="n">
-        <v>957.7</v>
+        <v>944.4</v>
       </c>
       <c r="F83" t="n">
-        <v>1826.8274</v>
+        <v>30.0978</v>
       </c>
       <c r="G83" t="n">
-        <v>-23827.79080287906</v>
+        <v>-27216.46578933373</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>961.5</v>
+        <v>945.9</v>
       </c>
       <c r="C84" t="n">
-        <v>961.5</v>
+        <v>948.8</v>
       </c>
       <c r="D84" t="n">
-        <v>961.5</v>
+        <v>948.8</v>
       </c>
       <c r="E84" t="n">
-        <v>961.5</v>
+        <v>945.9</v>
       </c>
       <c r="F84" t="n">
-        <v>27.5849</v>
+        <v>0.9</v>
       </c>
       <c r="G84" t="n">
-        <v>-23800.20590287906</v>
+        <v>-27215.56578933373</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="C85" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="D85" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="E85" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="F85" t="n">
-        <v>10.94</v>
+        <v>194.9854</v>
       </c>
       <c r="G85" t="n">
-        <v>-23811.14590287906</v>
+        <v>-27410.55118933373</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="K85" t="n">
+        <v>948.8</v>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>957.5</v>
+        <v>952.7</v>
       </c>
       <c r="C86" t="n">
-        <v>957.5</v>
+        <v>952.7</v>
       </c>
       <c r="D86" t="n">
-        <v>957.5</v>
+        <v>952.7</v>
       </c>
       <c r="E86" t="n">
-        <v>957.5</v>
+        <v>952.7</v>
       </c>
       <c r="F86" t="n">
-        <v>54.41</v>
+        <v>260</v>
       </c>
       <c r="G86" t="n">
-        <v>-23811.14590287906</v>
+        <v>-27150.55118933373</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="K86" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>957.5</v>
+        <v>951.5</v>
       </c>
       <c r="C87" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="D87" t="n">
-        <v>957.5</v>
+        <v>951.9</v>
       </c>
       <c r="E87" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="F87" t="n">
-        <v>39.6599</v>
+        <v>1874.7549</v>
       </c>
       <c r="G87" t="n">
-        <v>-23811.14590287906</v>
+        <v>-29025.30608933373</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>952.7</v>
+      </c>
+      <c r="K87" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="C88" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="D88" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="E88" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="F88" t="n">
-        <v>32.4828</v>
+        <v>365.109</v>
       </c>
       <c r="G88" t="n">
-        <v>-23811.14590287906</v>
+        <v>-29025.30608933373</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="K88" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="C89" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="D89" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="E89" t="n">
-        <v>957.5</v>
+        <v>946.8</v>
       </c>
       <c r="F89" t="n">
-        <v>19.8155</v>
+        <v>151.6056</v>
       </c>
       <c r="G89" t="n">
-        <v>-23811.14590287906</v>
+        <v>-29025.30608933373</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="K89" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>952</v>
+        <v>948.8</v>
       </c>
       <c r="C90" t="n">
-        <v>952</v>
+        <v>944.1</v>
       </c>
       <c r="D90" t="n">
-        <v>952</v>
+        <v>948.8</v>
       </c>
       <c r="E90" t="n">
-        <v>952</v>
+        <v>944.1</v>
       </c>
       <c r="F90" t="n">
-        <v>1224.0066</v>
+        <v>727.3658</v>
       </c>
       <c r="G90" t="n">
-        <v>-25035.15250287906</v>
+        <v>-29752.67188933373</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="K90" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>952</v>
+        <v>942.2</v>
       </c>
       <c r="C91" t="n">
-        <v>952</v>
+        <v>942.2</v>
       </c>
       <c r="D91" t="n">
-        <v>952</v>
+        <v>942.2</v>
       </c>
       <c r="E91" t="n">
-        <v>952</v>
+        <v>942.2</v>
       </c>
       <c r="F91" t="n">
-        <v>405.5048</v>
+        <v>369.6276</v>
       </c>
       <c r="G91" t="n">
-        <v>-25035.15250287906</v>
+        <v>-30122.29948933373</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>944.1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>954.1</v>
+        <v>948</v>
       </c>
       <c r="C92" t="n">
-        <v>960.3</v>
+        <v>947</v>
       </c>
       <c r="D92" t="n">
-        <v>960.3</v>
+        <v>948</v>
       </c>
       <c r="E92" t="n">
-        <v>954.1</v>
+        <v>947</v>
       </c>
       <c r="F92" t="n">
-        <v>342.8642</v>
+        <v>28.7513</v>
       </c>
       <c r="G92" t="n">
-        <v>-24692.28830287906</v>
+        <v>-30093.54818933373</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>942.2</v>
+      </c>
+      <c r="K92" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>961.3</v>
+        <v>947</v>
       </c>
       <c r="C93" t="n">
-        <v>961.5</v>
+        <v>947</v>
       </c>
       <c r="D93" t="n">
-        <v>961.5</v>
+        <v>947</v>
       </c>
       <c r="E93" t="n">
-        <v>961.3</v>
+        <v>947</v>
       </c>
       <c r="F93" t="n">
-        <v>547.9501</v>
+        <v>0.6651</v>
       </c>
       <c r="G93" t="n">
-        <v>-24144.33820287906</v>
+        <v>-30093.54818933373</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>947</v>
+      </c>
+      <c r="K93" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>962.2</v>
+        <v>945</v>
       </c>
       <c r="C94" t="n">
-        <v>963.2</v>
+        <v>945</v>
       </c>
       <c r="D94" t="n">
-        <v>963.2</v>
+        <v>945</v>
       </c>
       <c r="E94" t="n">
-        <v>962.2</v>
+        <v>945</v>
       </c>
       <c r="F94" t="n">
-        <v>241.9026</v>
+        <v>353.9759</v>
       </c>
       <c r="G94" t="n">
-        <v>-23902.43560287906</v>
+        <v>-30447.52408933373</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>947</v>
+      </c>
+      <c r="K94" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>962.2</v>
+        <v>945</v>
       </c>
       <c r="C95" t="n">
-        <v>956.5</v>
+        <v>945</v>
       </c>
       <c r="D95" t="n">
-        <v>962.2</v>
+        <v>945</v>
       </c>
       <c r="E95" t="n">
-        <v>956.5</v>
+        <v>945</v>
       </c>
       <c r="F95" t="n">
-        <v>554.3043</v>
+        <v>2575.5749</v>
       </c>
       <c r="G95" t="n">
-        <v>-24456.73990287906</v>
+        <v>-30447.52408933373</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>945</v>
+      </c>
+      <c r="K95" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>957.8</v>
+        <v>938.5</v>
       </c>
       <c r="C96" t="n">
-        <v>957.8</v>
+        <v>938.5</v>
       </c>
       <c r="D96" t="n">
-        <v>957.8</v>
+        <v>938.5</v>
       </c>
       <c r="E96" t="n">
-        <v>957.8</v>
+        <v>938.5</v>
       </c>
       <c r="F96" t="n">
-        <v>162.5</v>
+        <v>0.8169</v>
       </c>
       <c r="G96" t="n">
-        <v>-24294.23990287906</v>
+        <v>-30448.34098933373</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>945</v>
+      </c>
+      <c r="K96" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>957.9</v>
+        <v>949.4</v>
       </c>
       <c r="C97" t="n">
-        <v>962.2</v>
+        <v>938.6</v>
       </c>
       <c r="D97" t="n">
-        <v>962.2</v>
+        <v>949.4</v>
       </c>
       <c r="E97" t="n">
-        <v>957.5</v>
+        <v>938.6</v>
       </c>
       <c r="F97" t="n">
-        <v>309.3562</v>
+        <v>14.663</v>
       </c>
       <c r="G97" t="n">
-        <v>-23984.88370287906</v>
+        <v>-30433.67798933373</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>962.2</v>
+        <v>949.1</v>
       </c>
       <c r="C98" t="n">
-        <v>966.3</v>
+        <v>949.1</v>
       </c>
       <c r="D98" t="n">
-        <v>966.3</v>
+        <v>949.1</v>
       </c>
       <c r="E98" t="n">
-        <v>962.2</v>
+        <v>949.1</v>
       </c>
       <c r="F98" t="n">
-        <v>1317.9</v>
+        <v>0.8169</v>
       </c>
       <c r="G98" t="n">
-        <v>-22666.98370287906</v>
+        <v>-30432.86108933373</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="K98" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>961.8</v>
+        <v>941.9</v>
       </c>
       <c r="C99" t="n">
-        <v>961.8</v>
+        <v>941.9</v>
       </c>
       <c r="D99" t="n">
-        <v>961.8</v>
+        <v>941.9</v>
       </c>
       <c r="E99" t="n">
-        <v>961.8</v>
+        <v>941.9</v>
       </c>
       <c r="F99" t="n">
-        <v>89.33320000000001</v>
+        <v>1805.2025</v>
       </c>
       <c r="G99" t="n">
-        <v>-22756.31690287906</v>
+        <v>-32238.06358933373</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>968.3</v>
+        <v>941.3</v>
       </c>
       <c r="C100" t="n">
-        <v>968.6</v>
+        <v>941.3</v>
       </c>
       <c r="D100" t="n">
-        <v>968.6</v>
+        <v>941.3</v>
       </c>
       <c r="E100" t="n">
-        <v>968.3</v>
+        <v>941.3</v>
       </c>
       <c r="F100" t="n">
-        <v>401.1707135453232</v>
+        <v>0.6</v>
       </c>
       <c r="G100" t="n">
-        <v>-22355.14618933374</v>
+        <v>-32238.66358933373</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="K100" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>962</v>
+        <v>948.8</v>
       </c>
       <c r="C101" t="n">
-        <v>957.3</v>
+        <v>948.8</v>
       </c>
       <c r="D101" t="n">
-        <v>962</v>
+        <v>948.8</v>
       </c>
       <c r="E101" t="n">
-        <v>957.3</v>
+        <v>948.8</v>
       </c>
       <c r="F101" t="n">
-        <v>1063.6954</v>
+        <v>0.8169</v>
       </c>
       <c r="G101" t="n">
-        <v>-23418.84158933374</v>
+        <v>-32237.84668933373</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="K101" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>955.5</v>
+        <v>948.8</v>
       </c>
       <c r="C102" t="n">
-        <v>955.5</v>
+        <v>948.7</v>
       </c>
       <c r="D102" t="n">
-        <v>955.5</v>
+        <v>948.8</v>
       </c>
       <c r="E102" t="n">
-        <v>955.5</v>
+        <v>948.7</v>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>1.6338</v>
       </c>
       <c r="G102" t="n">
-        <v>-23718.84158933374</v>
+        <v>-32239.48048933373</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="K102" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>952.8</v>
+        <v>940.5</v>
       </c>
       <c r="C103" t="n">
-        <v>951.8</v>
+        <v>940.5</v>
       </c>
       <c r="D103" t="n">
-        <v>952.8</v>
+        <v>940.5</v>
       </c>
       <c r="E103" t="n">
-        <v>951.8</v>
+        <v>940.5</v>
       </c>
       <c r="F103" t="n">
-        <v>1319</v>
+        <v>0.8169</v>
       </c>
       <c r="G103" t="n">
-        <v>-25037.84158933374</v>
+        <v>-32240.29738933373</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>948.7</v>
+      </c>
+      <c r="K103" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>967.3</v>
-      </c>
-      <c r="C104" t="n">
-        <v>967.3</v>
-      </c>
-      <c r="D104" t="n">
-        <v>967.3</v>
-      </c>
-      <c r="E104" t="n">
-        <v>967.3</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1.3702</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-25036.47138933374</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>952.1</v>
-      </c>
-      <c r="C105" t="n">
-        <v>952.1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>952.1</v>
-      </c>
-      <c r="E105" t="n">
-        <v>952.1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>453</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-25489.47138933374</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>952</v>
-      </c>
-      <c r="C106" t="n">
-        <v>952</v>
-      </c>
-      <c r="D106" t="n">
-        <v>952</v>
-      </c>
-      <c r="E106" t="n">
-        <v>952</v>
-      </c>
-      <c r="F106" t="n">
-        <v>25.9609</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-25515.43228933373</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="C107" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="D107" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="E107" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="F107" t="n">
-        <v>17.9464</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-25533.37868933373</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>952</v>
-      </c>
-      <c r="C108" t="n">
-        <v>952</v>
-      </c>
-      <c r="D108" t="n">
-        <v>952</v>
-      </c>
-      <c r="E108" t="n">
-        <v>952</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-25533.37858933373</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>958.6</v>
-      </c>
-      <c r="C109" t="n">
-        <v>958.6</v>
-      </c>
-      <c r="D109" t="n">
-        <v>958.6</v>
-      </c>
-      <c r="E109" t="n">
-        <v>958.6</v>
-      </c>
-      <c r="F109" t="n">
-        <v>786.104</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-24747.27458933373</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="C110" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="D110" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="E110" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="F110" t="n">
-        <v>463</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-25210.27458933373</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="C111" t="n">
-        <v>951.3</v>
-      </c>
-      <c r="D111" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="E111" t="n">
-        <v>951.3</v>
-      </c>
-      <c r="F111" t="n">
-        <v>735.7676</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-25946.04218933373</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>949.5</v>
-      </c>
-      <c r="C112" t="n">
-        <v>949.5</v>
-      </c>
-      <c r="D112" t="n">
-        <v>949.5</v>
-      </c>
-      <c r="E112" t="n">
-        <v>949.5</v>
-      </c>
-      <c r="F112" t="n">
-        <v>475.2026</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-26421.24478933373</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>949.5</v>
-      </c>
-      <c r="C113" t="n">
-        <v>949.5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>949.5</v>
-      </c>
-      <c r="E113" t="n">
-        <v>949.5</v>
-      </c>
-      <c r="F113" t="n">
-        <v>888.7705</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-26421.24478933373</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>954.6</v>
-      </c>
-      <c r="C114" t="n">
-        <v>954.6</v>
-      </c>
-      <c r="D114" t="n">
-        <v>954.6</v>
-      </c>
-      <c r="E114" t="n">
-        <v>954.6</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-26420.64478933374</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>953.9</v>
-      </c>
-      <c r="C115" t="n">
-        <v>953.9</v>
-      </c>
-      <c r="D115" t="n">
-        <v>953.9</v>
-      </c>
-      <c r="E115" t="n">
-        <v>953.9</v>
-      </c>
-      <c r="F115" t="n">
-        <v>500</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-26920.64478933374</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="C116" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="D116" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="E116" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="F116" t="n">
-        <v>18.3586</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-26939.00338933373</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>942.3</v>
-      </c>
-      <c r="C117" t="n">
-        <v>942.3</v>
-      </c>
-      <c r="D117" t="n">
-        <v>942.3</v>
-      </c>
-      <c r="E117" t="n">
-        <v>942.3</v>
-      </c>
-      <c r="F117" t="n">
-        <v>429.5772</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-27368.58058933373</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="C118" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="D118" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="E118" t="n">
-        <v>948.7</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1917.0682</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-25451.51238933373</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>948.9</v>
-      </c>
-      <c r="C119" t="n">
-        <v>938</v>
-      </c>
-      <c r="D119" t="n">
-        <v>948.9</v>
-      </c>
-      <c r="E119" t="n">
-        <v>938</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3702.9626</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-29154.47498933373</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>939.3</v>
-      </c>
-      <c r="C120" t="n">
-        <v>938.3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>939.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>938.3</v>
-      </c>
-      <c r="F120" t="n">
-        <v>144.4243</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-29010.05068933373</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>939.5</v>
-      </c>
-      <c r="C121" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="D121" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="E121" t="n">
-        <v>939.5</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1793.5849</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-27216.46578933373</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="C122" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="D122" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="E122" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1666.5701</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-27216.46578933373</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="C123" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="D123" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="E123" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="F123" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-27216.46578933373</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="K123" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="C124" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="D124" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="E124" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.8022</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-27216.46578933373</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="C125" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="D125" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="E125" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="F125" t="n">
-        <v>30.0978</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-27216.46578933373</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>945.9</v>
-      </c>
-      <c r="C126" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="D126" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="E126" t="n">
-        <v>945.9</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-27215.56578933373</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="C127" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="D127" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="E127" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="F127" t="n">
-        <v>194.9854</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-27410.55118933373</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>952.7</v>
-      </c>
-      <c r="C128" t="n">
-        <v>952.7</v>
-      </c>
-      <c r="D128" t="n">
-        <v>952.7</v>
-      </c>
-      <c r="E128" t="n">
-        <v>952.7</v>
-      </c>
-      <c r="F128" t="n">
-        <v>260</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-27150.55118933373</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>951.5</v>
-      </c>
-      <c r="C129" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="D129" t="n">
-        <v>951.9</v>
-      </c>
-      <c r="E129" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1874.7549</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-29025.30608933373</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="C130" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="F130" t="n">
-        <v>365.109</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-29025.30608933373</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="C131" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="E131" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>151.6056</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-29025.30608933373</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="C132" t="n">
-        <v>944.1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="E132" t="n">
-        <v>944.1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>727.3658</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-29752.67188933373</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>942.2</v>
-      </c>
-      <c r="C133" t="n">
-        <v>942.2</v>
-      </c>
-      <c r="D133" t="n">
-        <v>942.2</v>
-      </c>
-      <c r="E133" t="n">
-        <v>942.2</v>
-      </c>
-      <c r="F133" t="n">
-        <v>369.6276</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-30122.29948933373</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>948</v>
-      </c>
-      <c r="C134" t="n">
-        <v>947</v>
-      </c>
-      <c r="D134" t="n">
-        <v>948</v>
-      </c>
-      <c r="E134" t="n">
-        <v>947</v>
-      </c>
-      <c r="F134" t="n">
-        <v>28.7513</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-30093.54818933373</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>947</v>
-      </c>
-      <c r="C135" t="n">
-        <v>947</v>
-      </c>
-      <c r="D135" t="n">
-        <v>947</v>
-      </c>
-      <c r="E135" t="n">
-        <v>947</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.6651</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-30093.54818933373</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>945</v>
-      </c>
-      <c r="C136" t="n">
-        <v>945</v>
-      </c>
-      <c r="D136" t="n">
-        <v>945</v>
-      </c>
-      <c r="E136" t="n">
-        <v>945</v>
-      </c>
-      <c r="F136" t="n">
-        <v>353.9759</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-30447.52408933373</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>947</v>
-      </c>
-      <c r="K136" t="n">
-        <v>947</v>
-      </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>945</v>
-      </c>
-      <c r="C137" t="n">
-        <v>945</v>
-      </c>
-      <c r="D137" t="n">
-        <v>945</v>
-      </c>
-      <c r="E137" t="n">
-        <v>945</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2575.5749</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-30447.52408933373</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>945</v>
-      </c>
-      <c r="K137" t="n">
-        <v>947</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>938.5</v>
-      </c>
-      <c r="C138" t="n">
-        <v>938.5</v>
-      </c>
-      <c r="D138" t="n">
-        <v>938.5</v>
-      </c>
-      <c r="E138" t="n">
-        <v>938.5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.8169</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-30448.34098933373</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>947</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>949.4</v>
-      </c>
-      <c r="C139" t="n">
-        <v>938.6</v>
-      </c>
-      <c r="D139" t="n">
-        <v>949.4</v>
-      </c>
-      <c r="E139" t="n">
-        <v>938.6</v>
-      </c>
-      <c r="F139" t="n">
-        <v>14.663</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-30433.67798933373</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>938.5</v>
-      </c>
-      <c r="K139" t="n">
-        <v>938.5</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>949.1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>949.1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>949.1</v>
-      </c>
-      <c r="E140" t="n">
-        <v>949.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.8169</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-30432.86108933373</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>938.5</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>941.9</v>
-      </c>
-      <c r="C141" t="n">
-        <v>941.9</v>
-      </c>
-      <c r="D141" t="n">
-        <v>941.9</v>
-      </c>
-      <c r="E141" t="n">
-        <v>941.9</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1805.2025</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-32238.06358933373</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>938.5</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>941.3</v>
-      </c>
-      <c r="C142" t="n">
-        <v>941.3</v>
-      </c>
-      <c r="D142" t="n">
-        <v>941.3</v>
-      </c>
-      <c r="E142" t="n">
-        <v>941.3</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-32238.66358933373</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="C143" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="E143" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.8169</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-32237.84668933373</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="C144" t="n">
-        <v>948.7</v>
-      </c>
-      <c r="D144" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="E144" t="n">
-        <v>948.7</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1.6338</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-32239.48048933373</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>940.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>940.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>940.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>940.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.8169</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-32240.29738933373</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>948.7</v>
-      </c>
-      <c r="K145" t="n">
-        <v>948.7</v>
-      </c>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest OMG.xlsx
+++ b/BackTest/2020-01-23 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C2" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D2" t="n">
-        <v>953.3</v>
+        <v>950</v>
       </c>
       <c r="E2" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F2" t="n">
-        <v>681.1763999999999</v>
+        <v>332.5</v>
       </c>
       <c r="G2" t="n">
-        <v>-14176.59486231674</v>
+        <v>-19968.39880000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>951.1</v>
+        <v>950</v>
       </c>
       <c r="C3" t="n">
-        <v>951.1</v>
+        <v>950</v>
       </c>
       <c r="D3" t="n">
-        <v>951.1</v>
+        <v>950</v>
       </c>
       <c r="E3" t="n">
-        <v>951.1</v>
+        <v>950</v>
       </c>
       <c r="F3" t="n">
-        <v>61.7</v>
+        <v>497</v>
       </c>
       <c r="G3" t="n">
-        <v>-14238.29486231674</v>
+        <v>-19968.39880000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>951.2</v>
+        <v>950</v>
       </c>
       <c r="C4" t="n">
-        <v>951.2</v>
+        <v>950</v>
       </c>
       <c r="D4" t="n">
-        <v>951.2</v>
+        <v>950</v>
       </c>
       <c r="E4" t="n">
-        <v>951.2</v>
+        <v>950</v>
       </c>
       <c r="F4" t="n">
-        <v>61.7</v>
+        <v>380.3279</v>
       </c>
       <c r="G4" t="n">
-        <v>-14176.59486231674</v>
+        <v>-19968.39880000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>951.2</v>
+        <v>950</v>
       </c>
       <c r="C5" t="n">
-        <v>951.2</v>
+        <v>950</v>
       </c>
       <c r="D5" t="n">
-        <v>951.2</v>
+        <v>950</v>
       </c>
       <c r="E5" t="n">
-        <v>951.2</v>
+        <v>950</v>
       </c>
       <c r="F5" t="n">
-        <v>30.9</v>
+        <v>337.4915</v>
       </c>
       <c r="G5" t="n">
-        <v>-14176.59486231674</v>
+        <v>-19968.39880000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954.2</v>
+        <v>956.2</v>
       </c>
       <c r="C6" t="n">
-        <v>956</v>
+        <v>956.2</v>
       </c>
       <c r="D6" t="n">
-        <v>956</v>
+        <v>956.2</v>
       </c>
       <c r="E6" t="n">
-        <v>954.2</v>
+        <v>956.2</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>17.8394</v>
       </c>
       <c r="G6" t="n">
-        <v>-13876.59486231674</v>
+        <v>-19950.55940000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>955</v>
+        <v>956.3</v>
       </c>
       <c r="C7" t="n">
-        <v>955</v>
+        <v>956.3</v>
       </c>
       <c r="D7" t="n">
-        <v>955</v>
+        <v>956.3</v>
       </c>
       <c r="E7" t="n">
-        <v>955</v>
+        <v>956.3</v>
       </c>
       <c r="F7" t="n">
-        <v>46.3</v>
+        <v>849.2936</v>
       </c>
       <c r="G7" t="n">
-        <v>-13922.89486231674</v>
+        <v>-19101.2658</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>956</v>
+        <v>956.3</v>
       </c>
       <c r="C8" t="n">
         <v>956.3</v>
@@ -663,13 +663,13 @@
         <v>956.3</v>
       </c>
       <c r="E8" t="n">
-        <v>956</v>
+        <v>956.3</v>
       </c>
       <c r="F8" t="n">
-        <v>611.1109</v>
+        <v>414.3282</v>
       </c>
       <c r="G8" t="n">
-        <v>-13311.78396231674</v>
+        <v>-19101.2658</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>956.3</v>
+        <v>948.2</v>
       </c>
       <c r="C9" t="n">
-        <v>956.3</v>
+        <v>948.2</v>
       </c>
       <c r="D9" t="n">
-        <v>956.3</v>
+        <v>948.2</v>
       </c>
       <c r="E9" t="n">
-        <v>956.3</v>
+        <v>948.2</v>
       </c>
       <c r="F9" t="n">
-        <v>1545.364</v>
+        <v>3.4293</v>
       </c>
       <c r="G9" t="n">
-        <v>-13311.78396231674</v>
+        <v>-19104.6951</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,32 +726,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>956.2</v>
+        <v>947.1</v>
       </c>
       <c r="C10" t="n">
-        <v>956.2</v>
+        <v>947</v>
       </c>
       <c r="D10" t="n">
-        <v>956.2</v>
+        <v>947.1</v>
       </c>
       <c r="E10" t="n">
-        <v>956.2</v>
+        <v>947</v>
       </c>
       <c r="F10" t="n">
-        <v>224.7</v>
+        <v>2235.521</v>
       </c>
       <c r="G10" t="n">
-        <v>-13536.48396231674</v>
+        <v>-21340.21610000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>948.2</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +768,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="C11" t="n">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="E11" t="n">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="F11" t="n">
-        <v>1133.539</v>
+        <v>342.194</v>
       </c>
       <c r="G11" t="n">
-        <v>-14670.02296231674</v>
+        <v>-21682.4101</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>947</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +810,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>951.5</v>
+        <v>944.8</v>
       </c>
       <c r="C12" t="n">
-        <v>951.5</v>
+        <v>944.8</v>
       </c>
       <c r="D12" t="n">
-        <v>951.5</v>
+        <v>944.8</v>
       </c>
       <c r="E12" t="n">
-        <v>951.5</v>
+        <v>944.8</v>
       </c>
       <c r="F12" t="n">
-        <v>567.0802</v>
+        <v>127.5</v>
       </c>
       <c r="G12" t="n">
-        <v>-15237.10316231674</v>
+        <v>-21809.9101</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>945</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +852,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>952</v>
+        <v>944.8</v>
       </c>
       <c r="C13" t="n">
-        <v>952.7</v>
+        <v>944.8</v>
       </c>
       <c r="D13" t="n">
-        <v>952.7</v>
+        <v>944.8</v>
       </c>
       <c r="E13" t="n">
-        <v>952</v>
+        <v>944.8</v>
       </c>
       <c r="F13" t="n">
-        <v>418.3274</v>
+        <v>70.5842</v>
       </c>
       <c r="G13" t="n">
-        <v>-14818.77576231674</v>
+        <v>-21809.9101</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>944.8</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +894,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>951.5</v>
+        <v>944.5</v>
       </c>
       <c r="C14" t="n">
-        <v>951.5</v>
+        <v>944.5</v>
       </c>
       <c r="D14" t="n">
-        <v>951.5</v>
+        <v>944.5</v>
       </c>
       <c r="E14" t="n">
-        <v>951.5</v>
+        <v>944.5</v>
       </c>
       <c r="F14" t="n">
-        <v>149.374</v>
+        <v>1349.865</v>
       </c>
       <c r="G14" t="n">
-        <v>-14968.14976231674</v>
+        <v>-23159.77510000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>944.8</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +936,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>956.3</v>
+        <v>944.7</v>
       </c>
       <c r="C15" t="n">
-        <v>956.3</v>
+        <v>944.7</v>
       </c>
       <c r="D15" t="n">
-        <v>956.3</v>
+        <v>944.7</v>
       </c>
       <c r="E15" t="n">
-        <v>956.3</v>
+        <v>944.7</v>
       </c>
       <c r="F15" t="n">
-        <v>410.5293</v>
+        <v>87.8282</v>
       </c>
       <c r="G15" t="n">
-        <v>-14557.62046231674</v>
+        <v>-23071.94690000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>944.5</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +978,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956.3</v>
+        <v>952.3</v>
       </c>
       <c r="C16" t="n">
-        <v>956.3</v>
+        <v>952.3</v>
       </c>
       <c r="D16" t="n">
-        <v>956.3</v>
+        <v>952.3</v>
       </c>
       <c r="E16" t="n">
-        <v>956.3</v>
+        <v>952.3</v>
       </c>
       <c r="F16" t="n">
-        <v>132.7689695702186</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>-14557.62046231674</v>
+        <v>-23070.94690000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>944.7</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1020,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>956.3</v>
+        <v>952.3</v>
       </c>
       <c r="C17" t="n">
-        <v>956.3</v>
+        <v>952.3</v>
       </c>
       <c r="D17" t="n">
-        <v>956.3</v>
+        <v>952.3</v>
       </c>
       <c r="E17" t="n">
-        <v>956.3</v>
+        <v>952.3</v>
       </c>
       <c r="F17" t="n">
-        <v>11.7376</v>
+        <v>230.3086</v>
       </c>
       <c r="G17" t="n">
-        <v>-14557.62046231674</v>
+        <v>-23070.94690000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,7 +1045,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1060,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>956.3</v>
+        <v>952.3</v>
       </c>
       <c r="C18" t="n">
-        <v>961.7</v>
+        <v>952.3</v>
       </c>
       <c r="D18" t="n">
-        <v>961.7</v>
+        <v>952.3</v>
       </c>
       <c r="E18" t="n">
-        <v>956.3</v>
+        <v>952.3</v>
       </c>
       <c r="F18" t="n">
-        <v>426.9238</v>
+        <v>67</v>
       </c>
       <c r="G18" t="n">
-        <v>-14130.69666231674</v>
+        <v>-23070.94690000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,7 +1085,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1100,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>958.1</v>
+        <v>952.3</v>
       </c>
       <c r="C19" t="n">
-        <v>958.1</v>
+        <v>952.3</v>
       </c>
       <c r="D19" t="n">
-        <v>958.1</v>
+        <v>952.3</v>
       </c>
       <c r="E19" t="n">
-        <v>958.1</v>
+        <v>952.3</v>
       </c>
       <c r="F19" t="n">
-        <v>38.6</v>
+        <v>102.2189</v>
       </c>
       <c r="G19" t="n">
-        <v>-14169.29666231674</v>
+        <v>-23070.94690000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,7 +1125,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1140,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>966.2</v>
+        <v>952.3</v>
       </c>
       <c r="C20" t="n">
-        <v>960.4</v>
+        <v>952.3</v>
       </c>
       <c r="D20" t="n">
-        <v>967.7</v>
+        <v>952.3</v>
       </c>
       <c r="E20" t="n">
-        <v>960.4</v>
+        <v>952.3</v>
       </c>
       <c r="F20" t="n">
-        <v>1507.0958</v>
+        <v>14.737</v>
       </c>
       <c r="G20" t="n">
-        <v>-12662.20086231674</v>
+        <v>-23070.94690000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1111,7 +1165,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1180,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>960.5</v>
+        <v>952.3</v>
       </c>
       <c r="C21" t="n">
-        <v>960.5</v>
+        <v>952.3</v>
       </c>
       <c r="D21" t="n">
-        <v>960.5</v>
+        <v>952.3</v>
       </c>
       <c r="E21" t="n">
-        <v>960.5</v>
+        <v>952.3</v>
       </c>
       <c r="F21" t="n">
-        <v>83.5117</v>
+        <v>2.4575</v>
       </c>
       <c r="G21" t="n">
-        <v>-12578.68916231674</v>
+        <v>-23070.94690000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1147,7 +1205,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1220,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>965.4</v>
+        <v>952.3</v>
       </c>
       <c r="C22" t="n">
-        <v>967.7</v>
+        <v>952.3</v>
       </c>
       <c r="D22" t="n">
-        <v>967.7</v>
+        <v>952.3</v>
       </c>
       <c r="E22" t="n">
-        <v>965.4</v>
+        <v>952.3</v>
       </c>
       <c r="F22" t="n">
-        <v>565.7662150356515</v>
+        <v>0.4917</v>
       </c>
       <c r="G22" t="n">
-        <v>-12012.92294728109</v>
+        <v>-23070.94690000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1245,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1260,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>969.1</v>
+        <v>954.8</v>
       </c>
       <c r="C23" t="n">
-        <v>969.1</v>
+        <v>955.7</v>
       </c>
       <c r="D23" t="n">
-        <v>969.1</v>
+        <v>955.9</v>
       </c>
       <c r="E23" t="n">
-        <v>969.1</v>
+        <v>954.6</v>
       </c>
       <c r="F23" t="n">
-        <v>67.0467444020225</v>
+        <v>2461.4315</v>
       </c>
       <c r="G23" t="n">
-        <v>-11945.87620287906</v>
+        <v>-20609.51540000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1285,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1300,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>966.6</v>
+        <v>955.7</v>
       </c>
       <c r="C24" t="n">
-        <v>966.6</v>
+        <v>956</v>
       </c>
       <c r="D24" t="n">
-        <v>966.6</v>
+        <v>956.1</v>
       </c>
       <c r="E24" t="n">
-        <v>966.6</v>
+        <v>955.6</v>
       </c>
       <c r="F24" t="n">
-        <v>1500</v>
+        <v>2015.7464</v>
       </c>
       <c r="G24" t="n">
-        <v>-13445.87620287906</v>
+        <v>-18593.76900000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1325,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1340,36 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>962.8</v>
+        <v>956</v>
       </c>
       <c r="C25" t="n">
-        <v>962.8</v>
+        <v>956</v>
       </c>
       <c r="D25" t="n">
-        <v>962.8</v>
+        <v>956</v>
       </c>
       <c r="E25" t="n">
-        <v>962.8</v>
+        <v>956</v>
       </c>
       <c r="F25" t="n">
-        <v>4.1667</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="n">
-        <v>-13450.04290287906</v>
+        <v>-18593.76900000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1380,36 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>962</v>
+        <v>952.3</v>
       </c>
       <c r="C26" t="n">
-        <v>960.5</v>
+        <v>952.3</v>
       </c>
       <c r="D26" t="n">
-        <v>962</v>
+        <v>952.3</v>
       </c>
       <c r="E26" t="n">
-        <v>960.5</v>
+        <v>952.3</v>
       </c>
       <c r="F26" t="n">
-        <v>1560.862</v>
+        <v>2.8124</v>
       </c>
       <c r="G26" t="n">
-        <v>-15010.90490287907</v>
+        <v>-18596.58140000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1420,36 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>960.6</v>
+        <v>956</v>
       </c>
       <c r="C27" t="n">
-        <v>958.8</v>
+        <v>956.1</v>
       </c>
       <c r="D27" t="n">
-        <v>960.6</v>
+        <v>956.1</v>
       </c>
       <c r="E27" t="n">
-        <v>958.8</v>
+        <v>956</v>
       </c>
       <c r="F27" t="n">
-        <v>2435.2386</v>
+        <v>3962.1076</v>
       </c>
       <c r="G27" t="n">
-        <v>-17446.14350287907</v>
+        <v>-14634.47380000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1460,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>962</v>
+        <v>953.7</v>
       </c>
       <c r="C28" t="n">
-        <v>966</v>
+        <v>952.3</v>
       </c>
       <c r="D28" t="n">
-        <v>966</v>
+        <v>953.7</v>
       </c>
       <c r="E28" t="n">
-        <v>962</v>
+        <v>952.3</v>
       </c>
       <c r="F28" t="n">
-        <v>61.7</v>
+        <v>195.8907</v>
       </c>
       <c r="G28" t="n">
-        <v>-17384.44350287906</v>
+        <v>-14830.36450000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1500,36 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>961.1</v>
+        <v>952.5</v>
       </c>
       <c r="C29" t="n">
-        <v>957.9</v>
+        <v>952.5</v>
       </c>
       <c r="D29" t="n">
-        <v>961.1</v>
+        <v>952.5</v>
       </c>
       <c r="E29" t="n">
-        <v>950.9</v>
+        <v>952.5</v>
       </c>
       <c r="F29" t="n">
-        <v>4459.2331</v>
+        <v>133.8614</v>
       </c>
       <c r="G29" t="n">
-        <v>-21843.67660287907</v>
+        <v>-14696.50310000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1540,36 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>964.5</v>
+        <v>952.5</v>
       </c>
       <c r="C30" t="n">
-        <v>965.9</v>
+        <v>952.5</v>
       </c>
       <c r="D30" t="n">
-        <v>965.9</v>
+        <v>952.6</v>
       </c>
       <c r="E30" t="n">
-        <v>964.5</v>
+        <v>952.5</v>
       </c>
       <c r="F30" t="n">
-        <v>45.2999</v>
+        <v>1333.9272</v>
       </c>
       <c r="G30" t="n">
-        <v>-21798.37670287906</v>
+        <v>-14696.50310000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1580,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>967</v>
+        <v>952.5</v>
       </c>
       <c r="C31" t="n">
-        <v>969.7</v>
+        <v>952.5</v>
       </c>
       <c r="D31" t="n">
-        <v>969.7</v>
+        <v>952.5</v>
       </c>
       <c r="E31" t="n">
-        <v>967</v>
+        <v>952.5</v>
       </c>
       <c r="F31" t="n">
-        <v>13.7</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>-21784.67670287906</v>
+        <v>-14696.50310000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1507,7 +1605,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1620,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>969.7</v>
+        <v>953</v>
       </c>
       <c r="C32" t="n">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="D32" t="n">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="E32" t="n">
-        <v>969.7</v>
+        <v>953</v>
       </c>
       <c r="F32" t="n">
-        <v>405.5048</v>
+        <v>226.1169</v>
       </c>
       <c r="G32" t="n">
-        <v>-21379.17190287906</v>
+        <v>-14470.38620000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1543,7 +1645,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1660,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="C33" t="n">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="D33" t="n">
-        <v>970.1</v>
+        <v>953</v>
       </c>
       <c r="E33" t="n">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="F33" t="n">
-        <v>544.6506000000001</v>
+        <v>338.2166</v>
       </c>
       <c r="G33" t="n">
-        <v>-21379.17190287906</v>
+        <v>-14470.38620000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1579,7 +1685,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1700,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="C34" t="n">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="D34" t="n">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="E34" t="n">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="F34" t="n">
-        <v>282.4218</v>
+        <v>270.3273</v>
       </c>
       <c r="G34" t="n">
-        <v>-21096.75010287906</v>
+        <v>-14470.38620000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1615,7 +1725,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1740,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="C35" t="n">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="D35" t="n">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="E35" t="n">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="F35" t="n">
-        <v>2.1469</v>
+        <v>69.8673</v>
       </c>
       <c r="G35" t="n">
-        <v>-21096.75010287906</v>
+        <v>-14470.38620000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1780,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>971</v>
+        <v>952.5</v>
       </c>
       <c r="C36" t="n">
-        <v>971</v>
+        <v>952.5</v>
       </c>
       <c r="D36" t="n">
-        <v>971</v>
+        <v>952.5</v>
       </c>
       <c r="E36" t="n">
-        <v>971</v>
+        <v>952.5</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4313</v>
+        <v>238.3035</v>
       </c>
       <c r="G36" t="n">
-        <v>-21096.75010287906</v>
+        <v>-14708.68970000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1820,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>969.9</v>
+        <v>952.5</v>
       </c>
       <c r="C37" t="n">
-        <v>964</v>
+        <v>952.5</v>
       </c>
       <c r="D37" t="n">
-        <v>969.9</v>
+        <v>952.5</v>
       </c>
       <c r="E37" t="n">
-        <v>964</v>
+        <v>952.5</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>176.5647</v>
       </c>
       <c r="G37" t="n">
-        <v>-21107.75010287906</v>
+        <v>-14708.68970000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1860,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>963.9</v>
+        <v>952.5</v>
       </c>
       <c r="C38" t="n">
-        <v>963.9</v>
+        <v>952.5</v>
       </c>
       <c r="D38" t="n">
-        <v>963.9</v>
+        <v>952.5</v>
       </c>
       <c r="E38" t="n">
-        <v>963.9</v>
+        <v>952.5</v>
       </c>
       <c r="F38" t="n">
-        <v>568</v>
+        <v>35.4615</v>
       </c>
       <c r="G38" t="n">
-        <v>-21675.75010287906</v>
+        <v>-14708.68970000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +1900,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>963.9</v>
+        <v>949.3</v>
       </c>
       <c r="C39" t="n">
-        <v>963.9</v>
+        <v>949.2</v>
       </c>
       <c r="D39" t="n">
-        <v>963.9</v>
+        <v>949.3</v>
       </c>
       <c r="E39" t="n">
-        <v>963.9</v>
+        <v>949.2</v>
       </c>
       <c r="F39" t="n">
-        <v>421.9576</v>
+        <v>362.4326</v>
       </c>
       <c r="G39" t="n">
-        <v>-21675.75010287906</v>
+        <v>-15071.12230000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +1940,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>961.5</v>
+        <v>949</v>
       </c>
       <c r="C40" t="n">
-        <v>961.5</v>
+        <v>949</v>
       </c>
       <c r="D40" t="n">
-        <v>961.5</v>
+        <v>949</v>
       </c>
       <c r="E40" t="n">
-        <v>961.5</v>
+        <v>949</v>
       </c>
       <c r="F40" t="n">
-        <v>325.2133</v>
+        <v>12.7491</v>
       </c>
       <c r="G40" t="n">
-        <v>-22000.96340287906</v>
+        <v>-15083.87140000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +1980,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>961.1</v>
+        <v>954.8</v>
       </c>
       <c r="C41" t="n">
-        <v>957.7</v>
+        <v>956.1</v>
       </c>
       <c r="D41" t="n">
-        <v>961.1</v>
+        <v>956.1</v>
       </c>
       <c r="E41" t="n">
-        <v>957.7</v>
+        <v>954.8</v>
       </c>
       <c r="F41" t="n">
-        <v>1826.8274</v>
+        <v>1805.202503713001</v>
       </c>
       <c r="G41" t="n">
-        <v>-23827.79080287906</v>
+        <v>-13278.66889628701</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2020,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>961.5</v>
+        <v>948.4</v>
       </c>
       <c r="C42" t="n">
-        <v>961.5</v>
+        <v>948.2</v>
       </c>
       <c r="D42" t="n">
-        <v>961.5</v>
+        <v>948.4</v>
       </c>
       <c r="E42" t="n">
-        <v>961.5</v>
+        <v>948.2</v>
       </c>
       <c r="F42" t="n">
-        <v>27.5849</v>
+        <v>300</v>
       </c>
       <c r="G42" t="n">
-        <v>-23800.20590287906</v>
+        <v>-13578.66889628701</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +2060,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>957.5</v>
+        <v>946.2</v>
       </c>
       <c r="C43" t="n">
-        <v>957.5</v>
+        <v>946.2</v>
       </c>
       <c r="D43" t="n">
-        <v>957.5</v>
+        <v>946.2</v>
       </c>
       <c r="E43" t="n">
-        <v>957.5</v>
+        <v>946.2</v>
       </c>
       <c r="F43" t="n">
-        <v>10.94</v>
+        <v>577.5</v>
       </c>
       <c r="G43" t="n">
-        <v>-23811.14590287906</v>
+        <v>-14156.16889628701</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2100,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>957.5</v>
+        <v>946.2</v>
       </c>
       <c r="C44" t="n">
-        <v>957.5</v>
+        <v>953.1</v>
       </c>
       <c r="D44" t="n">
-        <v>957.5</v>
+        <v>953.1</v>
       </c>
       <c r="E44" t="n">
-        <v>957.5</v>
+        <v>944.9</v>
       </c>
       <c r="F44" t="n">
-        <v>54.41</v>
+        <v>963.1</v>
       </c>
       <c r="G44" t="n">
-        <v>-23811.14590287906</v>
+        <v>-13193.06889628701</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1975,7 +2125,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,32 +2140,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>957.5</v>
+        <v>952.3</v>
       </c>
       <c r="C45" t="n">
-        <v>957.5</v>
+        <v>952.3</v>
       </c>
       <c r="D45" t="n">
-        <v>957.5</v>
+        <v>952.3</v>
       </c>
       <c r="E45" t="n">
-        <v>957.5</v>
+        <v>952.3</v>
       </c>
       <c r="F45" t="n">
-        <v>39.6599</v>
+        <v>59.9</v>
       </c>
       <c r="G45" t="n">
-        <v>-23811.14590287906</v>
+        <v>-13252.96889628701</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2180,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>957.5</v>
+        <v>952.3</v>
       </c>
       <c r="C46" t="n">
-        <v>957.5</v>
+        <v>945.2</v>
       </c>
       <c r="D46" t="n">
-        <v>957.5</v>
+        <v>952.3</v>
       </c>
       <c r="E46" t="n">
-        <v>957.5</v>
+        <v>945.2</v>
       </c>
       <c r="F46" t="n">
-        <v>32.4828</v>
+        <v>7</v>
       </c>
       <c r="G46" t="n">
-        <v>-23811.14590287906</v>
+        <v>-13259.96889628701</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2047,7 +2205,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,32 +2220,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>957.5</v>
+        <v>945.2</v>
       </c>
       <c r="C47" t="n">
-        <v>957.5</v>
+        <v>945.2</v>
       </c>
       <c r="D47" t="n">
-        <v>957.5</v>
+        <v>945.2</v>
       </c>
       <c r="E47" t="n">
-        <v>957.5</v>
+        <v>945.2</v>
       </c>
       <c r="F47" t="n">
-        <v>19.8155</v>
+        <v>65.30589999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>-23811.14590287906</v>
+        <v>-13259.96889628701</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,32 +2260,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>952</v>
+        <v>944.8</v>
       </c>
       <c r="C48" t="n">
-        <v>952</v>
+        <v>937.5</v>
       </c>
       <c r="D48" t="n">
-        <v>952</v>
+        <v>944.8</v>
       </c>
       <c r="E48" t="n">
-        <v>952</v>
+        <v>937.5</v>
       </c>
       <c r="F48" t="n">
-        <v>1224.0066</v>
+        <v>4201.5543</v>
       </c>
       <c r="G48" t="n">
-        <v>-25035.15250287906</v>
+        <v>-17461.52319628701</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,32 +2300,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>952</v>
+        <v>941.5</v>
       </c>
       <c r="C49" t="n">
-        <v>952</v>
+        <v>941.5</v>
       </c>
       <c r="D49" t="n">
-        <v>952</v>
+        <v>941.5</v>
       </c>
       <c r="E49" t="n">
-        <v>952</v>
+        <v>941.5</v>
       </c>
       <c r="F49" t="n">
-        <v>405.5048</v>
+        <v>59.6226</v>
       </c>
       <c r="G49" t="n">
-        <v>-25035.15250287906</v>
+        <v>-17401.90059628701</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2340,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>954.1</v>
+        <v>944.1</v>
       </c>
       <c r="C50" t="n">
-        <v>960.3</v>
+        <v>943</v>
       </c>
       <c r="D50" t="n">
-        <v>960.3</v>
+        <v>944.1</v>
       </c>
       <c r="E50" t="n">
-        <v>954.1</v>
+        <v>943</v>
       </c>
       <c r="F50" t="n">
-        <v>342.8642</v>
+        <v>6812.5326</v>
       </c>
       <c r="G50" t="n">
-        <v>-24692.28830287906</v>
+        <v>-10589.36799628701</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2191,7 +2365,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2380,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>961.3</v>
+        <v>943</v>
       </c>
       <c r="C51" t="n">
-        <v>961.5</v>
+        <v>943</v>
       </c>
       <c r="D51" t="n">
-        <v>961.5</v>
+        <v>943</v>
       </c>
       <c r="E51" t="n">
-        <v>961.3</v>
+        <v>943</v>
       </c>
       <c r="F51" t="n">
-        <v>547.9501</v>
+        <v>380</v>
       </c>
       <c r="G51" t="n">
-        <v>-24144.33820287906</v>
+        <v>-10589.36799628701</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2227,7 +2405,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2420,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>962.2</v>
+        <v>938.9</v>
       </c>
       <c r="C52" t="n">
-        <v>963.2</v>
+        <v>943</v>
       </c>
       <c r="D52" t="n">
-        <v>963.2</v>
+        <v>943</v>
       </c>
       <c r="E52" t="n">
-        <v>962.2</v>
+        <v>938.9</v>
       </c>
       <c r="F52" t="n">
-        <v>241.9026</v>
+        <v>601.4873</v>
       </c>
       <c r="G52" t="n">
-        <v>-23902.43560287906</v>
+        <v>-10589.36799628701</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2263,7 +2445,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2460,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>962.2</v>
+        <v>938.1</v>
       </c>
       <c r="C53" t="n">
-        <v>956.5</v>
+        <v>938.1</v>
       </c>
       <c r="D53" t="n">
-        <v>962.2</v>
+        <v>938.1</v>
       </c>
       <c r="E53" t="n">
-        <v>956.5</v>
+        <v>938.1</v>
       </c>
       <c r="F53" t="n">
-        <v>554.3043</v>
+        <v>130.4292</v>
       </c>
       <c r="G53" t="n">
-        <v>-24456.73990287906</v>
+        <v>-10719.79719628701</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2299,7 +2485,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2500,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>957.8</v>
+        <v>943</v>
       </c>
       <c r="C54" t="n">
-        <v>957.8</v>
+        <v>943</v>
       </c>
       <c r="D54" t="n">
-        <v>957.8</v>
+        <v>943</v>
       </c>
       <c r="E54" t="n">
-        <v>957.8</v>
+        <v>943</v>
       </c>
       <c r="F54" t="n">
-        <v>162.5</v>
+        <v>10.3773</v>
       </c>
       <c r="G54" t="n">
-        <v>-24294.23990287906</v>
+        <v>-10709.41989628701</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2335,7 +2525,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2540,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>957.9</v>
+        <v>943</v>
       </c>
       <c r="C55" t="n">
-        <v>962.2</v>
+        <v>943</v>
       </c>
       <c r="D55" t="n">
-        <v>962.2</v>
+        <v>943</v>
       </c>
       <c r="E55" t="n">
-        <v>957.5</v>
+        <v>943</v>
       </c>
       <c r="F55" t="n">
-        <v>309.3562</v>
+        <v>29.9858</v>
       </c>
       <c r="G55" t="n">
-        <v>-23984.88370287906</v>
+        <v>-10709.41989628701</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2371,7 +2565,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2580,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>962.2</v>
+        <v>939.4</v>
       </c>
       <c r="C56" t="n">
-        <v>966.3</v>
+        <v>943</v>
       </c>
       <c r="D56" t="n">
-        <v>966.3</v>
+        <v>943</v>
       </c>
       <c r="E56" t="n">
-        <v>962.2</v>
+        <v>939.2</v>
       </c>
       <c r="F56" t="n">
-        <v>1317.9</v>
+        <v>302.2587</v>
       </c>
       <c r="G56" t="n">
-        <v>-22666.98370287906</v>
+        <v>-10709.41989628701</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2407,7 +2605,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2620,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>961.8</v>
+        <v>943</v>
       </c>
       <c r="C57" t="n">
-        <v>961.8</v>
+        <v>943</v>
       </c>
       <c r="D57" t="n">
-        <v>961.8</v>
+        <v>943</v>
       </c>
       <c r="E57" t="n">
-        <v>961.8</v>
+        <v>943</v>
       </c>
       <c r="F57" t="n">
-        <v>89.33320000000001</v>
+        <v>407.39</v>
       </c>
       <c r="G57" t="n">
-        <v>-22756.31690287906</v>
+        <v>-10709.41989628701</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2443,7 +2645,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,32 +2660,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>968.3</v>
+        <v>940.2</v>
       </c>
       <c r="C58" t="n">
-        <v>968.6</v>
+        <v>939.2</v>
       </c>
       <c r="D58" t="n">
-        <v>968.6</v>
+        <v>940.2</v>
       </c>
       <c r="E58" t="n">
-        <v>968.3</v>
+        <v>939.2</v>
       </c>
       <c r="F58" t="n">
-        <v>401.1707135453232</v>
+        <v>4166.1641</v>
       </c>
       <c r="G58" t="n">
-        <v>-22355.14618933374</v>
+        <v>-14875.58399628701</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,32 +2700,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="C59" t="n">
-        <v>957.3</v>
+        <v>943</v>
       </c>
       <c r="D59" t="n">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="E59" t="n">
-        <v>957.3</v>
+        <v>943</v>
       </c>
       <c r="F59" t="n">
-        <v>1063.6954</v>
+        <v>633.4289</v>
       </c>
       <c r="G59" t="n">
-        <v>-23418.84158933374</v>
+        <v>-14242.15509628701</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,32 +2740,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>955.5</v>
+        <v>942.9</v>
       </c>
       <c r="C60" t="n">
-        <v>955.5</v>
+        <v>942.9</v>
       </c>
       <c r="D60" t="n">
-        <v>955.5</v>
+        <v>942.9</v>
       </c>
       <c r="E60" t="n">
-        <v>955.5</v>
+        <v>942.9</v>
       </c>
       <c r="F60" t="n">
-        <v>300</v>
+        <v>618.45</v>
       </c>
       <c r="G60" t="n">
-        <v>-23718.84158933374</v>
+        <v>-14860.60509628701</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2780,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>952.8</v>
+        <v>943</v>
       </c>
       <c r="C61" t="n">
-        <v>951.8</v>
+        <v>942.9</v>
       </c>
       <c r="D61" t="n">
-        <v>952.8</v>
+        <v>943</v>
       </c>
       <c r="E61" t="n">
-        <v>951.8</v>
+        <v>942.9</v>
       </c>
       <c r="F61" t="n">
-        <v>1319</v>
+        <v>37.16322714740191</v>
       </c>
       <c r="G61" t="n">
-        <v>-25037.84158933374</v>
+        <v>-14860.60509628701</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2587,7 +2805,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2820,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>967.3</v>
+        <v>942</v>
       </c>
       <c r="C62" t="n">
-        <v>967.3</v>
+        <v>942</v>
       </c>
       <c r="D62" t="n">
-        <v>967.3</v>
+        <v>942</v>
       </c>
       <c r="E62" t="n">
-        <v>967.3</v>
+        <v>942</v>
       </c>
       <c r="F62" t="n">
-        <v>1.3702</v>
+        <v>31.39596602972399</v>
       </c>
       <c r="G62" t="n">
-        <v>-25036.47138933374</v>
+        <v>-14892.00106231674</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2623,7 +2845,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2860,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>952.1</v>
+        <v>940</v>
       </c>
       <c r="C63" t="n">
-        <v>952.1</v>
+        <v>940</v>
       </c>
       <c r="D63" t="n">
-        <v>952.1</v>
+        <v>940</v>
       </c>
       <c r="E63" t="n">
-        <v>952.1</v>
+        <v>940</v>
       </c>
       <c r="F63" t="n">
-        <v>453</v>
+        <v>4.1655</v>
       </c>
       <c r="G63" t="n">
-        <v>-25489.47138933374</v>
+        <v>-14896.16656231674</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2659,7 +2885,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2900,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>952</v>
+        <v>938.4</v>
       </c>
       <c r="C64" t="n">
-        <v>952</v>
+        <v>938.4</v>
       </c>
       <c r="D64" t="n">
-        <v>952</v>
+        <v>938.4</v>
       </c>
       <c r="E64" t="n">
-        <v>952</v>
+        <v>937.4</v>
       </c>
       <c r="F64" t="n">
-        <v>25.9609</v>
+        <v>1092.1</v>
       </c>
       <c r="G64" t="n">
-        <v>-25515.43228933373</v>
+        <v>-15988.26656231674</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2695,7 +2925,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2940,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>951.8</v>
+        <v>941.9</v>
       </c>
       <c r="C65" t="n">
-        <v>951.8</v>
+        <v>941.9</v>
       </c>
       <c r="D65" t="n">
-        <v>951.8</v>
+        <v>941.9</v>
       </c>
       <c r="E65" t="n">
-        <v>951.8</v>
+        <v>941.9</v>
       </c>
       <c r="F65" t="n">
-        <v>17.9464</v>
+        <v>9.0167</v>
       </c>
       <c r="G65" t="n">
-        <v>-25533.37868933373</v>
+        <v>-15979.24986231674</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2731,7 +2965,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +2980,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="C66" t="n">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="D66" t="n">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="E66" t="n">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0001</v>
+        <v>0.8345</v>
       </c>
       <c r="G66" t="n">
-        <v>-25533.37858933373</v>
+        <v>-15980.08436231674</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2767,7 +3005,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3020,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>958.6</v>
+        <v>941.9</v>
       </c>
       <c r="C67" t="n">
-        <v>958.6</v>
+        <v>943</v>
       </c>
       <c r="D67" t="n">
-        <v>958.6</v>
+        <v>943</v>
       </c>
       <c r="E67" t="n">
-        <v>958.6</v>
+        <v>941.9</v>
       </c>
       <c r="F67" t="n">
-        <v>786.104</v>
+        <v>959.9453</v>
       </c>
       <c r="G67" t="n">
-        <v>-24747.27458933373</v>
+        <v>-15020.13906231674</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2803,7 +3045,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +3060,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>951.8</v>
+        <v>943</v>
       </c>
       <c r="C68" t="n">
-        <v>951.8</v>
+        <v>950.8</v>
       </c>
       <c r="D68" t="n">
-        <v>951.8</v>
+        <v>950.8</v>
       </c>
       <c r="E68" t="n">
-        <v>951.8</v>
+        <v>943</v>
       </c>
       <c r="F68" t="n">
-        <v>463</v>
+        <v>2401.4334</v>
       </c>
       <c r="G68" t="n">
-        <v>-25210.27458933373</v>
+        <v>-12618.70566231674</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2839,7 +3085,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +3100,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>951.8</v>
+        <v>950.7</v>
       </c>
       <c r="C69" t="n">
-        <v>951.3</v>
+        <v>950.7</v>
       </c>
       <c r="D69" t="n">
-        <v>951.8</v>
+        <v>950.7</v>
       </c>
       <c r="E69" t="n">
-        <v>951.3</v>
+        <v>950.7</v>
       </c>
       <c r="F69" t="n">
-        <v>735.7676</v>
+        <v>1500</v>
       </c>
       <c r="G69" t="n">
-        <v>-25946.04218933373</v>
+        <v>-14118.70566231674</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2875,7 +3125,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +3140,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>949.5</v>
+        <v>950.7</v>
       </c>
       <c r="C70" t="n">
-        <v>949.5</v>
+        <v>950.7</v>
       </c>
       <c r="D70" t="n">
-        <v>949.5</v>
+        <v>950.7</v>
       </c>
       <c r="E70" t="n">
-        <v>949.5</v>
+        <v>950.7</v>
       </c>
       <c r="F70" t="n">
-        <v>475.2026</v>
+        <v>1500</v>
       </c>
       <c r="G70" t="n">
-        <v>-26421.24478933373</v>
+        <v>-14118.70566231674</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2911,7 +3165,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,22 +3180,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>949.5</v>
+        <v>953.2</v>
       </c>
       <c r="C71" t="n">
-        <v>949.5</v>
+        <v>953.2</v>
       </c>
       <c r="D71" t="n">
-        <v>949.5</v>
+        <v>953.2</v>
       </c>
       <c r="E71" t="n">
-        <v>949.5</v>
+        <v>953.2</v>
       </c>
       <c r="F71" t="n">
-        <v>888.7705</v>
+        <v>579.9065000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>-26421.24478933373</v>
+        <v>-13538.79916231674</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2947,7 +3205,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +3220,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>954.6</v>
+        <v>953.3</v>
       </c>
       <c r="C72" t="n">
-        <v>954.6</v>
+        <v>953.3</v>
       </c>
       <c r="D72" t="n">
-        <v>954.6</v>
+        <v>953.3</v>
       </c>
       <c r="E72" t="n">
-        <v>954.6</v>
+        <v>953.3</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6</v>
+        <v>43.3807</v>
       </c>
       <c r="G72" t="n">
-        <v>-26420.64478933374</v>
+        <v>-13495.41846231674</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2983,7 +3245,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,22 +3260,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>953.9</v>
+        <v>952</v>
       </c>
       <c r="C73" t="n">
-        <v>953.9</v>
+        <v>952</v>
       </c>
       <c r="D73" t="n">
-        <v>953.9</v>
+        <v>953.3</v>
       </c>
       <c r="E73" t="n">
-        <v>953.9</v>
+        <v>952</v>
       </c>
       <c r="F73" t="n">
-        <v>500</v>
+        <v>681.1763999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>-26920.64478933374</v>
+        <v>-14176.59486231674</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3019,7 +3285,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +3300,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>944.9</v>
+        <v>951.1</v>
       </c>
       <c r="C74" t="n">
-        <v>944.9</v>
+        <v>951.1</v>
       </c>
       <c r="D74" t="n">
-        <v>944.9</v>
+        <v>951.1</v>
       </c>
       <c r="E74" t="n">
-        <v>944.9</v>
+        <v>951.1</v>
       </c>
       <c r="F74" t="n">
-        <v>18.3586</v>
+        <v>61.7</v>
       </c>
       <c r="G74" t="n">
-        <v>-26939.00338933373</v>
+        <v>-14238.29486231674</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3055,7 +3325,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +3340,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>942.3</v>
+        <v>951.2</v>
       </c>
       <c r="C75" t="n">
-        <v>942.3</v>
+        <v>951.2</v>
       </c>
       <c r="D75" t="n">
-        <v>942.3</v>
+        <v>951.2</v>
       </c>
       <c r="E75" t="n">
-        <v>942.3</v>
+        <v>951.2</v>
       </c>
       <c r="F75" t="n">
-        <v>429.5772</v>
+        <v>61.7</v>
       </c>
       <c r="G75" t="n">
-        <v>-27368.58058933373</v>
+        <v>-14176.59486231674</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3091,7 +3365,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3102,22 +3380,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>948.8</v>
+        <v>951.2</v>
       </c>
       <c r="C76" t="n">
-        <v>948.8</v>
+        <v>951.2</v>
       </c>
       <c r="D76" t="n">
-        <v>948.8</v>
+        <v>951.2</v>
       </c>
       <c r="E76" t="n">
-        <v>948.7</v>
+        <v>951.2</v>
       </c>
       <c r="F76" t="n">
-        <v>1917.0682</v>
+        <v>30.9</v>
       </c>
       <c r="G76" t="n">
-        <v>-25451.51238933373</v>
+        <v>-14176.59486231674</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3127,7 +3405,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +3420,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>948.9</v>
+        <v>954.2</v>
       </c>
       <c r="C77" t="n">
-        <v>938</v>
+        <v>956</v>
       </c>
       <c r="D77" t="n">
-        <v>948.9</v>
+        <v>956</v>
       </c>
       <c r="E77" t="n">
-        <v>938</v>
+        <v>954.2</v>
       </c>
       <c r="F77" t="n">
-        <v>3702.9626</v>
+        <v>300</v>
       </c>
       <c r="G77" t="n">
-        <v>-29154.47498933373</v>
+        <v>-13876.59486231674</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3163,7 +3445,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3174,22 +3460,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>939.3</v>
+        <v>955</v>
       </c>
       <c r="C78" t="n">
-        <v>938.3</v>
+        <v>955</v>
       </c>
       <c r="D78" t="n">
-        <v>939.3</v>
+        <v>955</v>
       </c>
       <c r="E78" t="n">
-        <v>938.3</v>
+        <v>955</v>
       </c>
       <c r="F78" t="n">
-        <v>144.4243</v>
+        <v>46.3</v>
       </c>
       <c r="G78" t="n">
-        <v>-29010.05068933373</v>
+        <v>-13922.89486231674</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3199,7 +3485,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3210,36 +3500,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>939.5</v>
+        <v>956</v>
       </c>
       <c r="C79" t="n">
-        <v>944.4</v>
+        <v>956.3</v>
       </c>
       <c r="D79" t="n">
-        <v>944.4</v>
+        <v>956.3</v>
       </c>
       <c r="E79" t="n">
-        <v>939.5</v>
+        <v>956</v>
       </c>
       <c r="F79" t="n">
-        <v>1793.5849</v>
+        <v>611.1109</v>
       </c>
       <c r="G79" t="n">
-        <v>-27216.46578933373</v>
+        <v>-13311.78396231674</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>938.3</v>
-      </c>
-      <c r="K79" t="n">
-        <v>938.3</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3250,38 +3540,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>944.4</v>
+        <v>956.3</v>
       </c>
       <c r="C80" t="n">
-        <v>944.4</v>
+        <v>956.3</v>
       </c>
       <c r="D80" t="n">
-        <v>944.4</v>
+        <v>956.3</v>
       </c>
       <c r="E80" t="n">
-        <v>944.4</v>
+        <v>956.3</v>
       </c>
       <c r="F80" t="n">
-        <v>1666.5701</v>
+        <v>1545.364</v>
       </c>
       <c r="G80" t="n">
-        <v>-27216.46578933373</v>
+        <v>-13311.78396231674</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="K80" t="n">
-        <v>938.3</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -3294,43 +3580,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>944.4</v>
+        <v>956.2</v>
       </c>
       <c r="C81" t="n">
-        <v>944.4</v>
+        <v>956.2</v>
       </c>
       <c r="D81" t="n">
-        <v>944.4</v>
+        <v>956.2</v>
       </c>
       <c r="E81" t="n">
-        <v>944.4</v>
+        <v>956.2</v>
       </c>
       <c r="F81" t="n">
-        <v>4.008</v>
+        <v>224.7</v>
       </c>
       <c r="G81" t="n">
-        <v>-27216.46578933373</v>
+        <v>-13536.48396231674</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="K81" t="n">
-        <v>938.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -3338,35 +3618,31 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>944.4</v>
+        <v>952</v>
       </c>
       <c r="C82" t="n">
-        <v>944.4</v>
+        <v>952</v>
       </c>
       <c r="D82" t="n">
-        <v>944.4</v>
+        <v>952</v>
       </c>
       <c r="E82" t="n">
-        <v>944.4</v>
+        <v>952</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8022</v>
+        <v>1133.539</v>
       </c>
       <c r="G82" t="n">
-        <v>-27216.46578933373</v>
+        <v>-14670.02296231674</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="K82" t="n">
-        <v>944.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
@@ -3378,40 +3654,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>944.4</v>
+        <v>951.5</v>
       </c>
       <c r="C83" t="n">
-        <v>944.4</v>
+        <v>951.5</v>
       </c>
       <c r="D83" t="n">
-        <v>944.4</v>
+        <v>951.5</v>
       </c>
       <c r="E83" t="n">
-        <v>944.4</v>
+        <v>951.5</v>
       </c>
       <c r="F83" t="n">
-        <v>30.0978</v>
+        <v>567.0802</v>
       </c>
       <c r="G83" t="n">
-        <v>-27216.46578933373</v>
+        <v>-15237.10316231674</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="K83" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3422,40 +3690,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>945.9</v>
+        <v>952</v>
       </c>
       <c r="C84" t="n">
-        <v>948.8</v>
+        <v>952.7</v>
       </c>
       <c r="D84" t="n">
-        <v>948.8</v>
+        <v>952.7</v>
       </c>
       <c r="E84" t="n">
-        <v>945.9</v>
+        <v>952</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9</v>
+        <v>418.3274</v>
       </c>
       <c r="G84" t="n">
-        <v>-27215.56578933373</v>
+        <v>-14818.77576231674</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="K84" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3466,35 +3726,31 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>946.8</v>
+        <v>951.5</v>
       </c>
       <c r="C85" t="n">
-        <v>946.8</v>
+        <v>951.5</v>
       </c>
       <c r="D85" t="n">
-        <v>946.8</v>
+        <v>951.5</v>
       </c>
       <c r="E85" t="n">
-        <v>946.8</v>
+        <v>951.5</v>
       </c>
       <c r="F85" t="n">
-        <v>194.9854</v>
+        <v>149.374</v>
       </c>
       <c r="G85" t="n">
-        <v>-27410.55118933373</v>
+        <v>-14968.14976231674</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="K85" t="n">
-        <v>948.8</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
@@ -3506,40 +3762,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>952.7</v>
+        <v>956.3</v>
       </c>
       <c r="C86" t="n">
-        <v>952.7</v>
+        <v>956.3</v>
       </c>
       <c r="D86" t="n">
-        <v>952.7</v>
+        <v>956.3</v>
       </c>
       <c r="E86" t="n">
-        <v>952.7</v>
+        <v>956.3</v>
       </c>
       <c r="F86" t="n">
-        <v>260</v>
+        <v>410.5293</v>
       </c>
       <c r="G86" t="n">
-        <v>-27150.55118933373</v>
+        <v>-14557.62046231674</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="K86" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3550,40 +3798,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>951.5</v>
+        <v>956.3</v>
       </c>
       <c r="C87" t="n">
-        <v>946.8</v>
+        <v>956.3</v>
       </c>
       <c r="D87" t="n">
-        <v>951.9</v>
+        <v>956.3</v>
       </c>
       <c r="E87" t="n">
-        <v>946.8</v>
+        <v>956.3</v>
       </c>
       <c r="F87" t="n">
-        <v>1874.7549</v>
+        <v>132.7689695702186</v>
       </c>
       <c r="G87" t="n">
-        <v>-29025.30608933373</v>
+        <v>-14557.62046231674</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>952.7</v>
-      </c>
-      <c r="K87" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3594,40 +3834,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>946.8</v>
+        <v>956.3</v>
       </c>
       <c r="C88" t="n">
-        <v>946.8</v>
+        <v>956.3</v>
       </c>
       <c r="D88" t="n">
-        <v>946.8</v>
+        <v>956.3</v>
       </c>
       <c r="E88" t="n">
-        <v>946.8</v>
+        <v>956.3</v>
       </c>
       <c r="F88" t="n">
-        <v>365.109</v>
+        <v>11.7376</v>
       </c>
       <c r="G88" t="n">
-        <v>-29025.30608933373</v>
+        <v>-14557.62046231674</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="K88" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3638,40 +3870,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>946.8</v>
+        <v>956.3</v>
       </c>
       <c r="C89" t="n">
-        <v>946.8</v>
+        <v>961.7</v>
       </c>
       <c r="D89" t="n">
-        <v>946.8</v>
+        <v>961.7</v>
       </c>
       <c r="E89" t="n">
-        <v>946.8</v>
+        <v>956.3</v>
       </c>
       <c r="F89" t="n">
-        <v>151.6056</v>
+        <v>426.9238</v>
       </c>
       <c r="G89" t="n">
-        <v>-29025.30608933373</v>
+        <v>-14130.69666231674</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="K89" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3682,40 +3906,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>948.8</v>
+        <v>958.1</v>
       </c>
       <c r="C90" t="n">
-        <v>944.1</v>
+        <v>958.1</v>
       </c>
       <c r="D90" t="n">
-        <v>948.8</v>
+        <v>958.1</v>
       </c>
       <c r="E90" t="n">
-        <v>944.1</v>
+        <v>958.1</v>
       </c>
       <c r="F90" t="n">
-        <v>727.3658</v>
+        <v>38.6</v>
       </c>
       <c r="G90" t="n">
-        <v>-29752.67188933373</v>
+        <v>-14169.29666231674</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="K90" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3726,40 +3942,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>942.2</v>
+        <v>966.2</v>
       </c>
       <c r="C91" t="n">
-        <v>942.2</v>
+        <v>960.4</v>
       </c>
       <c r="D91" t="n">
-        <v>942.2</v>
+        <v>967.7</v>
       </c>
       <c r="E91" t="n">
-        <v>942.2</v>
+        <v>960.4</v>
       </c>
       <c r="F91" t="n">
-        <v>369.6276</v>
+        <v>1507.0958</v>
       </c>
       <c r="G91" t="n">
-        <v>-30122.29948933373</v>
+        <v>-12662.20086231674</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>944.1</v>
-      </c>
-      <c r="K91" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3770,40 +3978,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>948</v>
+        <v>960.5</v>
       </c>
       <c r="C92" t="n">
-        <v>947</v>
+        <v>960.5</v>
       </c>
       <c r="D92" t="n">
-        <v>948</v>
+        <v>960.5</v>
       </c>
       <c r="E92" t="n">
-        <v>947</v>
+        <v>960.5</v>
       </c>
       <c r="F92" t="n">
-        <v>28.7513</v>
+        <v>83.5117</v>
       </c>
       <c r="G92" t="n">
-        <v>-30093.54818933373</v>
+        <v>-12578.68916231674</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>942.2</v>
-      </c>
-      <c r="K92" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3814,40 +4014,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>947</v>
+        <v>965.4</v>
       </c>
       <c r="C93" t="n">
-        <v>947</v>
+        <v>967.7</v>
       </c>
       <c r="D93" t="n">
-        <v>947</v>
+        <v>967.7</v>
       </c>
       <c r="E93" t="n">
-        <v>947</v>
+        <v>965.4</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6651</v>
+        <v>565.7662150356515</v>
       </c>
       <c r="G93" t="n">
-        <v>-30093.54818933373</v>
+        <v>-12012.92294728109</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>947</v>
-      </c>
-      <c r="K93" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3858,40 +4050,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>945</v>
+        <v>969.1</v>
       </c>
       <c r="C94" t="n">
-        <v>945</v>
+        <v>969.1</v>
       </c>
       <c r="D94" t="n">
-        <v>945</v>
+        <v>969.1</v>
       </c>
       <c r="E94" t="n">
-        <v>945</v>
+        <v>969.1</v>
       </c>
       <c r="F94" t="n">
-        <v>353.9759</v>
+        <v>67.0467444020225</v>
       </c>
       <c r="G94" t="n">
-        <v>-30447.52408933373</v>
+        <v>-11945.87620287906</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>947</v>
-      </c>
-      <c r="K94" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3902,40 +4086,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>945</v>
+        <v>966.6</v>
       </c>
       <c r="C95" t="n">
-        <v>945</v>
+        <v>966.6</v>
       </c>
       <c r="D95" t="n">
-        <v>945</v>
+        <v>966.6</v>
       </c>
       <c r="E95" t="n">
-        <v>945</v>
+        <v>966.6</v>
       </c>
       <c r="F95" t="n">
-        <v>2575.5749</v>
+        <v>1500</v>
       </c>
       <c r="G95" t="n">
-        <v>-30447.52408933373</v>
+        <v>-13445.87620287906</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>945</v>
-      </c>
-      <c r="K95" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3946,40 +4122,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>938.5</v>
+        <v>962.8</v>
       </c>
       <c r="C96" t="n">
-        <v>938.5</v>
+        <v>962.8</v>
       </c>
       <c r="D96" t="n">
-        <v>938.5</v>
+        <v>962.8</v>
       </c>
       <c r="E96" t="n">
-        <v>938.5</v>
+        <v>962.8</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8169</v>
+        <v>4.1667</v>
       </c>
       <c r="G96" t="n">
-        <v>-30448.34098933373</v>
+        <v>-13450.04290287906</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>945</v>
-      </c>
-      <c r="K96" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3990,40 +4158,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>949.4</v>
+        <v>962</v>
       </c>
       <c r="C97" t="n">
-        <v>938.6</v>
+        <v>960.5</v>
       </c>
       <c r="D97" t="n">
-        <v>949.4</v>
+        <v>962</v>
       </c>
       <c r="E97" t="n">
-        <v>938.6</v>
+        <v>960.5</v>
       </c>
       <c r="F97" t="n">
-        <v>14.663</v>
+        <v>1560.862</v>
       </c>
       <c r="G97" t="n">
-        <v>-30433.67798933373</v>
+        <v>-15010.90490287907</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>938.5</v>
-      </c>
-      <c r="K97" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4034,40 +4194,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>949.1</v>
+        <v>960.6</v>
       </c>
       <c r="C98" t="n">
-        <v>949.1</v>
+        <v>958.8</v>
       </c>
       <c r="D98" t="n">
-        <v>949.1</v>
+        <v>960.6</v>
       </c>
       <c r="E98" t="n">
-        <v>949.1</v>
+        <v>958.8</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8169</v>
+        <v>2435.2386</v>
       </c>
       <c r="G98" t="n">
-        <v>-30432.86108933373</v>
+        <v>-17446.14350287907</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>938.6</v>
-      </c>
-      <c r="K98" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4078,40 +4230,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>941.9</v>
+        <v>962</v>
       </c>
       <c r="C99" t="n">
-        <v>941.9</v>
+        <v>966</v>
       </c>
       <c r="D99" t="n">
-        <v>941.9</v>
+        <v>966</v>
       </c>
       <c r="E99" t="n">
-        <v>941.9</v>
+        <v>962</v>
       </c>
       <c r="F99" t="n">
-        <v>1805.2025</v>
+        <v>61.7</v>
       </c>
       <c r="G99" t="n">
-        <v>-32238.06358933373</v>
+        <v>-17384.44350287906</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>949.1</v>
-      </c>
-      <c r="K99" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4122,40 +4266,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>941.3</v>
+        <v>961.1</v>
       </c>
       <c r="C100" t="n">
-        <v>941.3</v>
+        <v>957.9</v>
       </c>
       <c r="D100" t="n">
-        <v>941.3</v>
+        <v>961.1</v>
       </c>
       <c r="E100" t="n">
-        <v>941.3</v>
+        <v>950.9</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6</v>
+        <v>4459.2331</v>
       </c>
       <c r="G100" t="n">
-        <v>-32238.66358933373</v>
+        <v>-21843.67660287907</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>941.9</v>
-      </c>
-      <c r="K100" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4166,40 +4302,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>948.8</v>
+        <v>964.5</v>
       </c>
       <c r="C101" t="n">
-        <v>948.8</v>
+        <v>965.9</v>
       </c>
       <c r="D101" t="n">
-        <v>948.8</v>
+        <v>965.9</v>
       </c>
       <c r="E101" t="n">
-        <v>948.8</v>
+        <v>964.5</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8169</v>
+        <v>45.2999</v>
       </c>
       <c r="G101" t="n">
-        <v>-32237.84668933373</v>
+        <v>-21798.37670287906</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>941.3</v>
-      </c>
-      <c r="K101" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4210,40 +4338,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>948.8</v>
+        <v>967</v>
       </c>
       <c r="C102" t="n">
-        <v>948.7</v>
+        <v>969.7</v>
       </c>
       <c r="D102" t="n">
-        <v>948.8</v>
+        <v>969.7</v>
       </c>
       <c r="E102" t="n">
-        <v>948.7</v>
+        <v>967</v>
       </c>
       <c r="F102" t="n">
-        <v>1.6338</v>
+        <v>13.7</v>
       </c>
       <c r="G102" t="n">
-        <v>-32239.48048933373</v>
+        <v>-21784.67670287906</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="K102" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4254,44 +4374,2824 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>969.7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>970</v>
+      </c>
+      <c r="D103" t="n">
+        <v>970</v>
+      </c>
+      <c r="E103" t="n">
+        <v>969.7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>405.5048</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-21379.17190287906</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>970</v>
+      </c>
+      <c r="C104" t="n">
+        <v>970</v>
+      </c>
+      <c r="D104" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>970</v>
+      </c>
+      <c r="F104" t="n">
+        <v>544.6506000000001</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-21379.17190287906</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>971</v>
+      </c>
+      <c r="C105" t="n">
+        <v>971</v>
+      </c>
+      <c r="D105" t="n">
+        <v>971</v>
+      </c>
+      <c r="E105" t="n">
+        <v>971</v>
+      </c>
+      <c r="F105" t="n">
+        <v>282.4218</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-21096.75010287906</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>971</v>
+      </c>
+      <c r="C106" t="n">
+        <v>971</v>
+      </c>
+      <c r="D106" t="n">
+        <v>971</v>
+      </c>
+      <c r="E106" t="n">
+        <v>971</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.1469</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-21096.75010287906</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>971</v>
+      </c>
+      <c r="C107" t="n">
+        <v>971</v>
+      </c>
+      <c r="D107" t="n">
+        <v>971</v>
+      </c>
+      <c r="E107" t="n">
+        <v>971</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.4313</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-21096.75010287906</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>969.9</v>
+      </c>
+      <c r="C108" t="n">
+        <v>964</v>
+      </c>
+      <c r="D108" t="n">
+        <v>969.9</v>
+      </c>
+      <c r="E108" t="n">
+        <v>964</v>
+      </c>
+      <c r="F108" t="n">
+        <v>11</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-21107.75010287906</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>963.9</v>
+      </c>
+      <c r="C109" t="n">
+        <v>963.9</v>
+      </c>
+      <c r="D109" t="n">
+        <v>963.9</v>
+      </c>
+      <c r="E109" t="n">
+        <v>963.9</v>
+      </c>
+      <c r="F109" t="n">
+        <v>568</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-21675.75010287906</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>963.9</v>
+      </c>
+      <c r="C110" t="n">
+        <v>963.9</v>
+      </c>
+      <c r="D110" t="n">
+        <v>963.9</v>
+      </c>
+      <c r="E110" t="n">
+        <v>963.9</v>
+      </c>
+      <c r="F110" t="n">
+        <v>421.9576</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-21675.75010287906</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>325.2133</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-22000.96340287906</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>961.1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>957.7</v>
+      </c>
+      <c r="D112" t="n">
+        <v>961.1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>957.7</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1826.8274</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-23827.79080287906</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>27.5849</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-23800.20590287906</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-23811.14590287906</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-23811.14590287906</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>39.6599</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-23811.14590287906</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>32.4828</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-23811.14590287906</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>19.8155</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-23811.14590287906</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>952</v>
+      </c>
+      <c r="C119" t="n">
+        <v>952</v>
+      </c>
+      <c r="D119" t="n">
+        <v>952</v>
+      </c>
+      <c r="E119" t="n">
+        <v>952</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1224.0066</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-25035.15250287906</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>952</v>
+      </c>
+      <c r="C120" t="n">
+        <v>952</v>
+      </c>
+      <c r="D120" t="n">
+        <v>952</v>
+      </c>
+      <c r="E120" t="n">
+        <v>952</v>
+      </c>
+      <c r="F120" t="n">
+        <v>405.5048</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-25035.15250287906</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>954.1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>960.3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>960.3</v>
+      </c>
+      <c r="E121" t="n">
+        <v>954.1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>342.8642</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-24692.28830287906</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>961.3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>961.3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>547.9501</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-24144.33820287906</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>962.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>963.2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>963.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>962.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>241.9026</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-23902.43560287906</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>962.2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>962.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>554.3043</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-24456.73990287906</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>957.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>957.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>957.8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>957.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-24294.23990287906</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>957.9</v>
+      </c>
+      <c r="C126" t="n">
+        <v>962.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>962.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>309.3562</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-23984.88370287906</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>962.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>966.3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>966.3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>962.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1317.9</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-22666.98370287906</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>961.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>961.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>961.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>961.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>89.33320000000001</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-22756.31690287906</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>968.3</v>
+      </c>
+      <c r="C129" t="n">
+        <v>968.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>968.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>968.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>401.1707135453232</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-22355.14618933374</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>962</v>
+      </c>
+      <c r="C130" t="n">
+        <v>957.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>962</v>
+      </c>
+      <c r="E130" t="n">
+        <v>957.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1063.6954</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-23418.84158933374</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>955.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>955.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>955.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>955.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>300</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-23718.84158933374</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>952.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>952.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-25037.84158933374</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>967.3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>967.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>967.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>967.3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.3702</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-25036.47138933374</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="K133" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>952.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>952.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>952.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>952.1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>453</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-25489.47138933374</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>952</v>
+      </c>
+      <c r="C135" t="n">
+        <v>952</v>
+      </c>
+      <c r="D135" t="n">
+        <v>952</v>
+      </c>
+      <c r="E135" t="n">
+        <v>952</v>
+      </c>
+      <c r="F135" t="n">
+        <v>25.9609</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-25515.43228933373</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>17.9464</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-25533.37868933373</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>952</v>
+      </c>
+      <c r="C137" t="n">
+        <v>952</v>
+      </c>
+      <c r="D137" t="n">
+        <v>952</v>
+      </c>
+      <c r="E137" t="n">
+        <v>952</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-25533.37858933373</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>958.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>958.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>958.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>958.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>786.104</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-24747.27458933373</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>463</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-25210.27458933373</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>951.3</v>
+      </c>
+      <c r="D140" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>951.3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>735.7676</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-25946.04218933373</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>949.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>949.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>949.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>949.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>475.2026</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-26421.24478933373</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>949.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>949.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>949.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>949.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>888.7705</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-26421.24478933373</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>954.6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>954.6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>954.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>954.6</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-26420.64478933374</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>953.9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>953.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>953.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>953.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>500</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-26920.64478933374</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>18.3586</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-26939.00338933373</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>942.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>942.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>942.3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>942.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>429.5772</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-27368.58058933373</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="K146" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>948.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1917.0682</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-25451.51238933373</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>942.3</v>
+      </c>
+      <c r="K147" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>948.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>938</v>
+      </c>
+      <c r="D148" t="n">
+        <v>948.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>938</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3702.9626</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-29154.47498933373</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="K148" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>939.3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>938.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>939.3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>938.3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>144.4243</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-29010.05068933373</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>938</v>
+      </c>
+      <c r="K149" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="E150" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1793.5849</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-27216.46578933373</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>938.3</v>
+      </c>
+      <c r="K150" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="C151" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="E151" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1666.5701</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-27216.46578933373</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K151" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-27216.46578933373</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K152" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.8022</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-27216.46578933373</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="C154" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="D154" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="F154" t="n">
+        <v>30.0978</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-27216.46578933373</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K154" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>945.9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="D155" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="E155" t="n">
+        <v>945.9</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-27215.56578933373</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K155" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="D156" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="E156" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>194.9854</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-27410.55118933373</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="K156" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>952.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>952.7</v>
+      </c>
+      <c r="D157" t="n">
+        <v>952.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>952.7</v>
+      </c>
+      <c r="F157" t="n">
+        <v>260</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-27150.55118933373</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>951.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>951.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1874.7549</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-29025.30608933373</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="F159" t="n">
+        <v>365.109</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-29025.30608933373</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>151.6056</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-29025.30608933373</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>944.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>944.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>727.3658</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-29752.67188933373</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>942.2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>942.2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>942.2</v>
+      </c>
+      <c r="E162" t="n">
+        <v>942.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>369.6276</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-30122.29948933373</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>944.1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>948</v>
+      </c>
+      <c r="C163" t="n">
+        <v>947</v>
+      </c>
+      <c r="D163" t="n">
+        <v>948</v>
+      </c>
+      <c r="E163" t="n">
+        <v>947</v>
+      </c>
+      <c r="F163" t="n">
+        <v>28.7513</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-30093.54818933373</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>942.2</v>
+      </c>
+      <c r="K163" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>947</v>
+      </c>
+      <c r="C164" t="n">
+        <v>947</v>
+      </c>
+      <c r="D164" t="n">
+        <v>947</v>
+      </c>
+      <c r="E164" t="n">
+        <v>947</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.6651</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-30093.54818933373</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>947</v>
+      </c>
+      <c r="K164" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>945</v>
+      </c>
+      <c r="C165" t="n">
+        <v>945</v>
+      </c>
+      <c r="D165" t="n">
+        <v>945</v>
+      </c>
+      <c r="E165" t="n">
+        <v>945</v>
+      </c>
+      <c r="F165" t="n">
+        <v>353.9759</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-30447.52408933373</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>947</v>
+      </c>
+      <c r="K165" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>945</v>
+      </c>
+      <c r="C166" t="n">
+        <v>945</v>
+      </c>
+      <c r="D166" t="n">
+        <v>945</v>
+      </c>
+      <c r="E166" t="n">
+        <v>945</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2575.5749</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-30447.52408933373</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>945</v>
+      </c>
+      <c r="K166" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="C167" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-30448.34098933373</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>945</v>
+      </c>
+      <c r="K167" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>949.4</v>
+      </c>
+      <c r="C168" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>949.4</v>
+      </c>
+      <c r="E168" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>14.663</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-30433.67798933373</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="K168" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-30432.86108933373</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="K169" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="C170" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1805.2025</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-32238.06358933373</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="C171" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="D171" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="E171" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-32238.66358933373</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="K171" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.8169</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-32237.84668933373</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="K172" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="C173" t="n">
+        <v>948.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="E173" t="n">
+        <v>948.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.6338</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-32239.48048933373</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="K173" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
         <v>940.5</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C174" t="n">
         <v>940.5</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D174" t="n">
         <v>940.5</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E174" t="n">
         <v>940.5</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F174" t="n">
         <v>0.8169</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G174" t="n">
         <v>-32240.29738933373</v>
       </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
         <v>948.7</v>
       </c>
-      <c r="K103" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest OMG.xlsx
+++ b/BackTest/2020-01-23 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,19 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>950</v>
+      </c>
+      <c r="J4" t="n">
+        <v>950</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +554,23 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>950</v>
+      </c>
+      <c r="J5" t="n">
+        <v>950</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +595,23 @@
         <v>-19950.55940000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>950</v>
+      </c>
+      <c r="J6" t="n">
+        <v>950</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +638,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +671,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +704,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,24 +735,21 @@
         <v>-21340.21610000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>948.2</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -786,24 +774,21 @@
         <v>-21682.4101</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>947</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -828,24 +813,21 @@
         <v>-21809.9101</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>945</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -870,24 +852,21 @@
         <v>-21809.9101</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>944.8</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -912,24 +891,19 @@
         <v>-23159.77510000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>944.8</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -956,22 +930,17 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>944.5</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,24 +965,19 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>944.7</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1038,22 +1002,19 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1080,20 +1041,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1120,20 +1078,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1160,20 +1115,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1200,20 +1152,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1240,20 +1189,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1280,20 +1226,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1320,20 +1263,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1360,20 +1300,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1400,20 +1337,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1440,20 +1374,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1480,20 +1411,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1520,20 +1448,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1560,20 +1485,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1600,20 +1522,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1640,20 +1559,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1680,20 +1596,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1720,20 +1633,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1760,20 +1670,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1800,20 +1707,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1840,20 +1744,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1880,20 +1781,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1920,20 +1818,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1960,20 +1855,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2000,20 +1892,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2040,20 +1929,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2080,20 +1966,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2120,20 +2003,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2160,20 +2040,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2200,20 +2077,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2240,20 +2114,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2280,20 +2151,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2318,22 +2186,19 @@
         <v>-17401.90059628701</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2360,20 +2225,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2400,20 +2262,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2438,22 +2297,19 @@
         <v>-10589.36799628701</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2480,20 +2336,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2520,20 +2373,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2560,20 +2410,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2598,22 +2445,19 @@
         <v>-10709.41989628701</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2640,20 +2484,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2678,22 +2519,19 @@
         <v>-14875.58399628701</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2720,20 +2558,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2758,22 +2593,19 @@
         <v>-14860.60509628701</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2800,20 +2632,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2840,20 +2669,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2880,20 +2706,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2920,20 +2743,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2960,20 +2780,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3000,20 +2817,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3040,20 +2854,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3080,20 +2891,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3120,20 +2928,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3160,20 +2965,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3200,20 +3002,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3240,20 +3039,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3280,20 +3076,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3320,20 +3113,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3360,20 +3150,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3400,20 +3187,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3440,20 +3224,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3480,20 +3261,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3520,20 +3298,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3560,20 +3335,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3600,18 +3372,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
       </c>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3638,16 +3409,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3672,18 +3444,17 @@
         <v>-15237.10316231674</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3710,16 +3481,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3744,18 +3512,15 @@
         <v>-14968.14976231674</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3782,16 +3547,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3818,16 +3580,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3854,16 +3613,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3890,16 +3646,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3926,16 +3679,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3962,16 +3712,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3998,16 +3745,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4032,18 +3776,15 @@
         <v>-12012.92294728109</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4068,18 +3809,15 @@
         <v>-11945.87620287906</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4104,18 +3842,15 @@
         <v>-13445.87620287906</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4140,18 +3875,15 @@
         <v>-13450.04290287906</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4176,18 +3908,15 @@
         <v>-15010.90490287907</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4212,18 +3941,15 @@
         <v>-17446.14350287907</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4250,16 +3976,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4286,16 +4009,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4322,16 +4042,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4358,16 +4075,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4394,16 +4108,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4430,16 +4141,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4464,18 +4172,15 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4500,18 +4205,15 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4536,18 +4238,15 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4574,16 +4273,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4608,18 +4304,15 @@
         <v>-21675.75010287906</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4646,16 +4339,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4682,16 +4372,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4718,16 +4405,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4754,16 +4438,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4788,18 +4469,15 @@
         <v>-23811.14590287906</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4826,16 +4504,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4862,16 +4537,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4898,16 +4570,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4932,18 +4601,15 @@
         <v>-23811.14590287906</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4968,18 +4634,15 @@
         <v>-25035.15250287906</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5004,18 +4667,15 @@
         <v>-25035.15250287906</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5042,16 +4702,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5076,18 +4733,15 @@
         <v>-24144.33820287906</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5114,16 +4768,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5150,16 +4801,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5186,16 +4834,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5222,16 +4867,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5258,16 +4900,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5294,16 +4933,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5330,16 +4966,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5366,16 +4999,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5402,16 +5032,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5438,16 +5065,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5472,22 +5096,15 @@
         <v>-25036.47138933374</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="K133" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5514,22 +5131,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5556,22 +5164,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>951.8</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5598,16 +5197,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5634,16 +5230,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5670,16 +5263,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5706,16 +5296,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5742,16 +5329,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5778,16 +5362,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5814,16 +5395,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5850,16 +5428,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5886,16 +5461,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5922,16 +5494,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5958,20 +5527,13 @@
       <c r="H146" t="n">
         <v>1</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K146" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5996,26 +5558,15 @@
         <v>-25451.51238933373</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>942.3</v>
-      </c>
-      <c r="K147" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6040,26 +5591,15 @@
         <v>-29154.47498933373</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="K148" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6084,26 +5624,15 @@
         <v>-29010.05068933373</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>938</v>
-      </c>
-      <c r="K149" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6130,24 +5659,13 @@
       <c r="H150" t="n">
         <v>1</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>938.3</v>
-      </c>
-      <c r="K150" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6172,26 +5690,15 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="K151" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6216,26 +5723,15 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="K152" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6262,22 +5758,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6302,26 +5789,15 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="K154" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6348,24 +5824,13 @@
       <c r="H155" t="n">
         <v>1</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="K155" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6392,24 +5857,13 @@
       <c r="H156" t="n">
         <v>1</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="K156" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6436,22 +5890,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6478,22 +5923,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6520,22 +5956,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6562,22 +5989,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6604,22 +6022,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6644,26 +6053,15 @@
         <v>-30122.29948933373</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>944.1</v>
-      </c>
-      <c r="K162" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6688,26 +6086,15 @@
         <v>-30093.54818933373</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>942.2</v>
-      </c>
-      <c r="K163" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6732,26 +6119,15 @@
         <v>-30093.54818933373</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>947</v>
-      </c>
-      <c r="K164" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6776,26 +6152,15 @@
         <v>-30447.52408933373</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>947</v>
-      </c>
-      <c r="K165" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6820,26 +6185,15 @@
         <v>-30447.52408933373</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>945</v>
-      </c>
-      <c r="K166" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6864,26 +6218,15 @@
         <v>-30448.34098933373</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>945</v>
-      </c>
-      <c r="K167" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6908,26 +6251,15 @@
         <v>-30433.67798933373</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>938.5</v>
-      </c>
-      <c r="K168" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6952,26 +6284,15 @@
         <v>-30432.86108933373</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>938.6</v>
-      </c>
-      <c r="K169" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6996,26 +6317,15 @@
         <v>-32238.06358933373</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>949.1</v>
-      </c>
-      <c r="K170" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7040,26 +6350,15 @@
         <v>-32238.66358933373</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>941.9</v>
-      </c>
-      <c r="K171" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7084,26 +6383,15 @@
         <v>-32237.84668933373</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>941.3</v>
-      </c>
-      <c r="K172" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7128,26 +6416,15 @@
         <v>-32239.48048933373</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="K173" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7172,28 +6449,17 @@
         <v>-32240.29738933373</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>948.7</v>
-      </c>
-      <c r="K174" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest OMG.xlsx
+++ b/BackTest/2020-01-23 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>950</v>
-      </c>
-      <c r="J4" t="n">
-        <v>950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>950</v>
-      </c>
-      <c r="J5" t="n">
-        <v>950</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,19 +583,11 @@
         <v>-19950.55940000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>950</v>
-      </c>
-      <c r="J6" t="n">
-        <v>950</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -735,7 +715,7 @@
         <v>-21340.21610000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>948.2</v>
@@ -774,7 +754,7 @@
         <v>-21682.4101</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>947</v>
@@ -813,7 +793,7 @@
         <v>-21809.9101</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>945</v>
@@ -852,7 +832,7 @@
         <v>-21809.9101</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>944.8</v>
@@ -891,9 +871,11 @@
         <v>-23159.77510000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>944.8</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -930,7 +912,9 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>944.5</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -965,9 +949,11 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>944.7</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1004,7 +990,9 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>952.3</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1039,9 +1027,11 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>952.3</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1076,9 +1066,11 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>952.3</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1113,9 +1105,11 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>952.3</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1150,9 +1144,11 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>952.3</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1187,9 +1183,11 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>952.3</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -2186,7 +2184,7 @@
         <v>-17401.90059628701</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2297,7 +2295,7 @@
         <v>-10589.36799628701</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2445,7 +2443,7 @@
         <v>-10709.41989628701</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2519,7 +2517,7 @@
         <v>-14875.58399628701</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2593,7 +2591,7 @@
         <v>-14860.60509628701</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3444,16 +3442,18 @@
         <v>-15237.10316231674</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
       <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -3479,14 +3479,16 @@
         <v>-14818.77576231674</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -3512,7 +3514,7 @@
         <v>-14968.14976231674</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3545,7 +3547,7 @@
         <v>-14557.62046231674</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3776,7 +3778,7 @@
         <v>-12012.92294728109</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3809,7 +3811,7 @@
         <v>-11945.87620287906</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3842,7 +3844,7 @@
         <v>-13445.87620287906</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3875,7 +3877,7 @@
         <v>-13450.04290287906</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3908,7 +3910,7 @@
         <v>-15010.90490287907</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3941,7 +3943,7 @@
         <v>-17446.14350287907</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3974,7 +3976,7 @@
         <v>-17384.44350287906</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4007,7 +4009,7 @@
         <v>-21843.67660287907</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4040,7 +4042,7 @@
         <v>-21798.37670287906</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4073,7 +4075,7 @@
         <v>-21784.67670287906</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4106,7 +4108,7 @@
         <v>-21379.17190287906</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4139,7 +4141,7 @@
         <v>-21379.17190287906</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4172,7 +4174,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4205,7 +4207,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4238,7 +4240,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4271,7 +4273,7 @@
         <v>-21107.75010287906</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4304,7 +4306,7 @@
         <v>-21675.75010287906</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4337,7 +4339,7 @@
         <v>-21675.75010287906</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4370,7 +4372,7 @@
         <v>-22000.96340287906</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4403,7 +4405,7 @@
         <v>-23827.79080287906</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4436,7 +4438,7 @@
         <v>-23800.20590287906</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4469,7 +4471,7 @@
         <v>-23811.14590287906</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4502,7 +4504,7 @@
         <v>-23811.14590287906</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4535,7 +4537,7 @@
         <v>-23811.14590287906</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4568,7 +4570,7 @@
         <v>-23811.14590287906</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4601,7 +4603,7 @@
         <v>-23811.14590287906</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4634,7 +4636,7 @@
         <v>-25035.15250287906</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4667,7 +4669,7 @@
         <v>-25035.15250287906</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4733,7 +4735,7 @@
         <v>-24144.33820287906</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4832,7 +4834,7 @@
         <v>-24294.23990287906</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4865,7 +4867,7 @@
         <v>-23984.88370287906</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4898,7 +4900,7 @@
         <v>-22666.98370287906</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4931,7 +4933,7 @@
         <v>-22756.31690287906</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4964,7 +4966,7 @@
         <v>-22355.14618933374</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4997,7 +4999,7 @@
         <v>-23418.84158933374</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5030,7 +5032,7 @@
         <v>-23718.84158933374</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5063,7 +5065,7 @@
         <v>-25037.84158933374</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5096,7 +5098,7 @@
         <v>-25036.47138933374</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5129,7 +5131,7 @@
         <v>-25489.47138933374</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5162,7 +5164,7 @@
         <v>-25515.43228933373</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5195,7 +5197,7 @@
         <v>-25533.37868933373</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5228,7 +5230,7 @@
         <v>-25533.37858933373</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5261,7 +5263,7 @@
         <v>-24747.27458933373</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5294,7 +5296,7 @@
         <v>-25210.27458933373</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5327,7 +5329,7 @@
         <v>-25946.04218933373</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5360,7 +5362,7 @@
         <v>-26421.24478933373</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5393,7 +5395,7 @@
         <v>-26421.24478933373</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5426,7 +5428,7 @@
         <v>-26420.64478933374</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5525,7 +5527,7 @@
         <v>-27368.58058933373</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5657,7 +5659,7 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5822,7 +5824,7 @@
         <v>-27215.56578933373</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5855,7 +5857,7 @@
         <v>-27410.55118933373</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6460,6 +6462,6 @@
       <c r="M174" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest OMG.xlsx
+++ b/BackTest/2020-01-23 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-19950.55940000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-19101.2658</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-19101.2658</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-19104.6951</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,17 +715,11 @@
         <v>-21340.21610000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>948.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -754,17 +748,11 @@
         <v>-21682.4101</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>947</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -793,17 +781,11 @@
         <v>-21809.9101</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -832,17 +814,11 @@
         <v>-21809.9101</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>944.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -871,17 +847,11 @@
         <v>-23159.77510000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>944.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -910,17 +880,11 @@
         <v>-23071.94690000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>944.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -949,17 +913,11 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>944.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -988,17 +946,11 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>952.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1027,17 +979,11 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>952.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1066,17 +1012,11 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>952.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1105,17 +1045,11 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>952.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1144,17 +1078,11 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>952.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1183,17 +1111,11 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>952.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1226,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1263,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1300,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1337,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1374,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1411,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1448,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1485,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1522,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1559,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1596,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1633,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1670,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1707,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1744,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1781,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1818,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1855,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1892,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1929,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1966,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2003,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2040,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2077,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2114,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2151,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2188,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2225,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2262,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2336,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2373,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2410,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2447,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2484,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2521,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2558,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2595,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2632,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2669,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2706,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2743,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2780,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2817,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2854,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2891,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2928,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2965,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3002,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3039,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3076,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3113,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3150,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3187,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3224,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3261,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3298,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3335,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3372,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3409,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3446,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3479,16 +3157,14 @@
         <v>-14818.77576231674</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
       <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -3514,7 +3190,7 @@
         <v>-14968.14976231674</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3547,7 +3223,7 @@
         <v>-14557.62046231674</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3778,7 +3454,7 @@
         <v>-12012.92294728109</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3811,7 +3487,7 @@
         <v>-11945.87620287906</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3844,7 +3520,7 @@
         <v>-13445.87620287906</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3877,7 +3553,7 @@
         <v>-13450.04290287906</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3910,7 +3586,7 @@
         <v>-15010.90490287907</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3943,7 +3619,7 @@
         <v>-17446.14350287907</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3976,7 +3652,7 @@
         <v>-17384.44350287906</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4009,7 +3685,7 @@
         <v>-21843.67660287907</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4042,7 +3718,7 @@
         <v>-21798.37670287906</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4075,7 +3751,7 @@
         <v>-21784.67670287906</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4108,7 +3784,7 @@
         <v>-21379.17190287906</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4141,7 +3817,7 @@
         <v>-21379.17190287906</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4174,7 +3850,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4207,7 +3883,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4240,7 +3916,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4273,7 +3949,7 @@
         <v>-21107.75010287906</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4306,7 +3982,7 @@
         <v>-21675.75010287906</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4339,7 +4015,7 @@
         <v>-21675.75010287906</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4372,7 +4048,7 @@
         <v>-22000.96340287906</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4405,7 +4081,7 @@
         <v>-23827.79080287906</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4438,7 +4114,7 @@
         <v>-23800.20590287906</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4471,7 +4147,7 @@
         <v>-23811.14590287906</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4504,7 +4180,7 @@
         <v>-23811.14590287906</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4537,7 +4213,7 @@
         <v>-23811.14590287906</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4570,7 +4246,7 @@
         <v>-23811.14590287906</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4603,7 +4279,7 @@
         <v>-23811.14590287906</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4636,7 +4312,7 @@
         <v>-25035.15250287906</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4834,7 +4510,7 @@
         <v>-24294.23990287906</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4867,7 +4543,7 @@
         <v>-23984.88370287906</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4900,7 +4576,7 @@
         <v>-22666.98370287906</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4933,7 +4609,7 @@
         <v>-22756.31690287906</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4966,7 +4642,7 @@
         <v>-22355.14618933374</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4999,7 +4675,7 @@
         <v>-23418.84158933374</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5032,7 +4708,7 @@
         <v>-23718.84158933374</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5065,7 +4741,7 @@
         <v>-25037.84158933374</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5098,7 +4774,7 @@
         <v>-25036.47138933374</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5131,7 +4807,7 @@
         <v>-25489.47138933374</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5164,7 +4840,7 @@
         <v>-25515.43228933373</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5197,7 +4873,7 @@
         <v>-25533.37868933373</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5230,7 +4906,7 @@
         <v>-25533.37858933373</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5263,7 +4939,7 @@
         <v>-24747.27458933373</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5296,7 +4972,7 @@
         <v>-25210.27458933373</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5329,7 +5005,7 @@
         <v>-25946.04218933373</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5362,7 +5038,7 @@
         <v>-26421.24478933373</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5395,7 +5071,7 @@
         <v>-26421.24478933373</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5428,7 +5104,7 @@
         <v>-26420.64478933374</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5791,10 +5467,14 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="J154" t="n">
+        <v>944.4</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5827,8 +5507,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5857,11 +5543,19 @@
         <v>-27410.55118933373</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="J156" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5923,11 +5617,17 @@
         <v>-29025.30608933373</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>952.7</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5960,7 +5660,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5993,7 +5697,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6026,7 +5734,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6059,7 +5771,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6092,7 +5808,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6125,7 +5845,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6158,7 +5882,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6191,7 +5919,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6224,7 +5956,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6257,7 +5993,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6290,7 +6030,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6323,7 +6067,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6356,7 +6104,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6389,7 +6141,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6422,7 +6178,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6455,13 +6215,17 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
       <c r="M174" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest OMG.xlsx
+++ b/BackTest/2020-01-23 BackTest OMG.xlsx
@@ -451,7 +451,7 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-19950.55940000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-19101.2658</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-19101.2658</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-19104.6951</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,11 +715,17 @@
         <v>-21340.21610000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>948.2</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +754,17 @@
         <v>-21682.4101</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>947</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +793,17 @@
         <v>-21809.9101</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>945</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +832,17 @@
         <v>-21809.9101</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>944.8</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +871,17 @@
         <v>-23159.77510000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>944.8</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +910,17 @@
         <v>-23071.94690000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>944.5</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +949,17 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>944.7</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +988,17 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>952.3</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1031,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1068,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1105,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1142,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1179,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1216,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1253,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1290,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1327,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1364,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1401,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1438,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1475,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1512,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1549,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1586,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1623,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1660,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1697,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1734,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1771,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1808,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1845,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1882,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1919,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1956,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1993,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2030,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2067,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2104,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2141,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2178,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2215,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2252,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2289,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2326,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2363,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2400,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2437,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2474,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2511,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2548,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2585,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2622,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2659,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2696,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2733,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2770,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2807,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2844,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2881,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2918,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2955,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2992,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3029,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3066,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3103,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3140,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3177,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3214,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3251,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3288,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3325,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3362,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3399,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3436,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3473,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3510,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3547,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3584,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3621,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3658,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3695,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3732,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3769,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,14 +3802,16 @@
         <v>-12012.92294728109</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3487,7 +3837,7 @@
         <v>-11945.87620287906</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3870,7 @@
         <v>-13445.87620287906</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3903,7 @@
         <v>-13450.04290287906</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3936,7 @@
         <v>-15010.90490287907</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3969,7 @@
         <v>-17446.14350287907</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +4002,7 @@
         <v>-17384.44350287906</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +4035,7 @@
         <v>-21843.67660287907</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +4068,7 @@
         <v>-21798.37670287906</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +4101,7 @@
         <v>-21784.67670287906</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +4134,7 @@
         <v>-21379.17190287906</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +4167,7 @@
         <v>-21379.17190287906</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +4200,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +4233,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4266,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4299,7 @@
         <v>-21107.75010287906</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4332,7 @@
         <v>-21675.75010287906</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4365,7 @@
         <v>-21675.75010287906</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4398,7 @@
         <v>-22000.96340287906</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -5203,10 +5553,14 @@
         <v>-27368.58058933373</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="J146" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5236,11 +5590,19 @@
         <v>-25451.51238933373</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>942.3</v>
+      </c>
+      <c r="J147" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5631,19 @@
         <v>-29154.47498933373</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="J148" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5672,19 @@
         <v>-29010.05068933373</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>938</v>
+      </c>
+      <c r="J149" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5713,19 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>938.3</v>
+      </c>
+      <c r="J150" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5754,19 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="J151" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5795,19 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="J152" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5836,19 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="J153" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5473,9 +5883,13 @@
         <v>944.4</v>
       </c>
       <c r="J154" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+        <v>944.9</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,15 +5918,17 @@
         <v>-27215.56578933373</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>944.4</v>
+      </c>
       <c r="J155" t="n">
-        <v>944.4</v>
+        <v>944.9</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -5549,11 +5965,11 @@
         <v>948.8</v>
       </c>
       <c r="J156" t="n">
-        <v>944.4</v>
+        <v>944.9</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5584,11 +6000,19 @@
         <v>-27150.55118933373</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="J157" t="n">
+        <v>944.9</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5622,10 +6046,12 @@
       <c r="I158" t="n">
         <v>952.7</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -5656,10 +6082,14 @@
         <v>-29025.30608933373</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="J159" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5693,10 +6123,14 @@
         <v>-29025.30608933373</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="J160" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5730,10 +6164,14 @@
         <v>-29752.67188933373</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>946.8</v>
+      </c>
+      <c r="J161" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5767,10 +6205,14 @@
         <v>-30122.29948933373</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>944.1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5804,10 +6246,14 @@
         <v>-30093.54818933373</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>942.2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5841,10 +6287,14 @@
         <v>-30093.54818933373</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>947</v>
+      </c>
+      <c r="J164" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5878,10 +6328,14 @@
         <v>-30447.52408933373</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>947</v>
+      </c>
+      <c r="J165" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5915,10 +6369,14 @@
         <v>-30447.52408933373</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>945</v>
+      </c>
+      <c r="J166" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5952,10 +6410,14 @@
         <v>-30448.34098933373</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>945</v>
+      </c>
+      <c r="J167" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5989,10 +6451,14 @@
         <v>-30433.67798933373</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="J168" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6026,10 +6492,14 @@
         <v>-30432.86108933373</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="J169" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6063,10 +6533,14 @@
         <v>-32238.06358933373</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>949.1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6100,10 +6574,14 @@
         <v>-32238.66358933373</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="J171" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6137,10 +6615,14 @@
         <v>-32237.84668933373</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>941.3</v>
+      </c>
+      <c r="J172" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6174,10 +6656,14 @@
         <v>-32239.48048933373</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>948.8</v>
+      </c>
+      <c r="J173" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6211,10 +6697,14 @@
         <v>-32240.29738933373</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>948.7</v>
+      </c>
+      <c r="J174" t="n">
+        <v>944.9</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-23 BackTest OMG.xlsx
+++ b/BackTest/2020-01-23 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:L174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>332.5</v>
       </c>
       <c r="G2" t="n">
-        <v>-19968.39880000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>497</v>
       </c>
       <c r="G3" t="n">
-        <v>-19968.39880000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>380.3279</v>
       </c>
       <c r="G4" t="n">
-        <v>-19968.39880000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>337.4915</v>
       </c>
       <c r="G5" t="n">
-        <v>-19968.39880000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>17.8394</v>
       </c>
       <c r="G6" t="n">
-        <v>-19950.55940000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>849.2936</v>
       </c>
       <c r="G7" t="n">
-        <v>-19101.2658</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>414.3282</v>
       </c>
       <c r="G8" t="n">
-        <v>-19101.2658</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3.4293</v>
       </c>
       <c r="G9" t="n">
-        <v>-19104.6951</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,24 +683,15 @@
         <v>2235.521</v>
       </c>
       <c r="G10" t="n">
-        <v>-21340.21610000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>948.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -751,24 +713,15 @@
         <v>342.194</v>
       </c>
       <c r="G11" t="n">
-        <v>-21682.4101</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -790,24 +743,15 @@
         <v>127.5</v>
       </c>
       <c r="G12" t="n">
-        <v>-21809.9101</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -829,24 +773,15 @@
         <v>70.5842</v>
       </c>
       <c r="G13" t="n">
-        <v>-21809.9101</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>944.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,24 +803,15 @@
         <v>1349.865</v>
       </c>
       <c r="G14" t="n">
-        <v>-23159.77510000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>944.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -907,24 +833,15 @@
         <v>87.8282</v>
       </c>
       <c r="G15" t="n">
-        <v>-23071.94690000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>944.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -946,24 +863,15 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>-23070.94690000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>944.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -985,24 +893,15 @@
         <v>230.3086</v>
       </c>
       <c r="G17" t="n">
-        <v>-23070.94690000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>952.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1024,22 +923,15 @@
         <v>67</v>
       </c>
       <c r="G18" t="n">
-        <v>-23070.94690000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1061,22 +953,15 @@
         <v>102.2189</v>
       </c>
       <c r="G19" t="n">
-        <v>-23070.94690000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1098,22 +983,15 @@
         <v>14.737</v>
       </c>
       <c r="G20" t="n">
-        <v>-23070.94690000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1135,22 +1013,15 @@
         <v>2.4575</v>
       </c>
       <c r="G21" t="n">
-        <v>-23070.94690000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1172,22 +1043,15 @@
         <v>0.4917</v>
       </c>
       <c r="G22" t="n">
-        <v>-23070.94690000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1209,22 +1073,15 @@
         <v>2461.4315</v>
       </c>
       <c r="G23" t="n">
-        <v>-20609.51540000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1246,22 +1103,15 @@
         <v>2015.7464</v>
       </c>
       <c r="G24" t="n">
-        <v>-18593.76900000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1283,22 +1133,15 @@
         <v>1000</v>
       </c>
       <c r="G25" t="n">
-        <v>-18593.76900000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,22 +1163,15 @@
         <v>2.8124</v>
       </c>
       <c r="G26" t="n">
-        <v>-18596.58140000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1357,22 +1193,15 @@
         <v>3962.1076</v>
       </c>
       <c r="G27" t="n">
-        <v>-14634.47380000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,22 +1223,15 @@
         <v>195.8907</v>
       </c>
       <c r="G28" t="n">
-        <v>-14830.36450000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1431,22 +1253,15 @@
         <v>133.8614</v>
       </c>
       <c r="G29" t="n">
-        <v>-14696.50310000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1468,22 +1283,15 @@
         <v>1333.9272</v>
       </c>
       <c r="G30" t="n">
-        <v>-14696.50310000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1505,22 +1313,15 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>-14696.50310000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1542,22 +1343,15 @@
         <v>226.1169</v>
       </c>
       <c r="G32" t="n">
-        <v>-14470.38620000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1579,22 +1373,15 @@
         <v>338.2166</v>
       </c>
       <c r="G33" t="n">
-        <v>-14470.38620000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1616,22 +1403,15 @@
         <v>270.3273</v>
       </c>
       <c r="G34" t="n">
-        <v>-14470.38620000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1653,22 +1433,15 @@
         <v>69.8673</v>
       </c>
       <c r="G35" t="n">
-        <v>-14470.38620000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1690,22 +1463,15 @@
         <v>238.3035</v>
       </c>
       <c r="G36" t="n">
-        <v>-14708.68970000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1727,22 +1493,15 @@
         <v>176.5647</v>
       </c>
       <c r="G37" t="n">
-        <v>-14708.68970000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1764,22 +1523,15 @@
         <v>35.4615</v>
       </c>
       <c r="G38" t="n">
-        <v>-14708.68970000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1801,22 +1553,15 @@
         <v>362.4326</v>
       </c>
       <c r="G39" t="n">
-        <v>-15071.12230000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1838,22 +1583,15 @@
         <v>12.7491</v>
       </c>
       <c r="G40" t="n">
-        <v>-15083.87140000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1875,22 +1613,15 @@
         <v>1805.202503713001</v>
       </c>
       <c r="G41" t="n">
-        <v>-13278.66889628701</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1912,22 +1643,15 @@
         <v>300</v>
       </c>
       <c r="G42" t="n">
-        <v>-13578.66889628701</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1949,22 +1673,15 @@
         <v>577.5</v>
       </c>
       <c r="G43" t="n">
-        <v>-14156.16889628701</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1986,22 +1703,15 @@
         <v>963.1</v>
       </c>
       <c r="G44" t="n">
-        <v>-13193.06889628701</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2023,22 +1733,15 @@
         <v>59.9</v>
       </c>
       <c r="G45" t="n">
-        <v>-13252.96889628701</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2060,22 +1763,15 @@
         <v>7</v>
       </c>
       <c r="G46" t="n">
-        <v>-13259.96889628701</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2097,22 +1793,15 @@
         <v>65.30589999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>-13259.96889628701</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2134,22 +1823,15 @@
         <v>4201.5543</v>
       </c>
       <c r="G48" t="n">
-        <v>-17461.52319628701</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2171,22 +1853,15 @@
         <v>59.6226</v>
       </c>
       <c r="G49" t="n">
-        <v>-17401.90059628701</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2208,22 +1883,15 @@
         <v>6812.5326</v>
       </c>
       <c r="G50" t="n">
-        <v>-10589.36799628701</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2245,22 +1913,15 @@
         <v>380</v>
       </c>
       <c r="G51" t="n">
-        <v>-10589.36799628701</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2282,22 +1943,15 @@
         <v>601.4873</v>
       </c>
       <c r="G52" t="n">
-        <v>-10589.36799628701</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2319,22 +1973,15 @@
         <v>130.4292</v>
       </c>
       <c r="G53" t="n">
-        <v>-10719.79719628701</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2356,22 +2003,19 @@
         <v>10.3773</v>
       </c>
       <c r="G54" t="n">
-        <v>-10709.41989628701</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>938.1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>938.1</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2393,22 +2037,23 @@
         <v>29.9858</v>
       </c>
       <c r="G55" t="n">
-        <v>-10709.41989628701</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>943</v>
+      </c>
+      <c r="I55" t="n">
+        <v>938.1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2430,22 +2075,23 @@
         <v>302.2587</v>
       </c>
       <c r="G56" t="n">
-        <v>-10709.41989628701</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>943</v>
+      </c>
+      <c r="I56" t="n">
+        <v>938.1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2467,22 +2113,19 @@
         <v>407.39</v>
       </c>
       <c r="G57" t="n">
-        <v>-10709.41989628701</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>943</v>
+      </c>
+      <c r="I57" t="n">
+        <v>943</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2504,22 +2147,23 @@
         <v>4166.1641</v>
       </c>
       <c r="G58" t="n">
-        <v>-14875.58399628701</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>943</v>
+      </c>
+      <c r="I58" t="n">
+        <v>943</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2541,22 +2185,23 @@
         <v>633.4289</v>
       </c>
       <c r="G59" t="n">
-        <v>-14242.15509628701</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
+        <v>939.2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>943</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2578,22 +2223,23 @@
         <v>618.45</v>
       </c>
       <c r="G60" t="n">
-        <v>-14860.60509628701</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
+        <v>943</v>
+      </c>
+      <c r="I60" t="n">
+        <v>943</v>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2615,22 +2261,23 @@
         <v>37.16322714740191</v>
       </c>
       <c r="G61" t="n">
-        <v>-14860.60509628701</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+        <v>942.9</v>
+      </c>
+      <c r="I61" t="n">
+        <v>943</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2652,22 +2299,23 @@
         <v>31.39596602972399</v>
       </c>
       <c r="G62" t="n">
-        <v>-14892.00106231674</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+        <v>942.9</v>
+      </c>
+      <c r="I62" t="n">
+        <v>943</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2689,22 +2337,23 @@
         <v>4.1655</v>
       </c>
       <c r="G63" t="n">
-        <v>-14896.16656231674</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+        <v>942</v>
+      </c>
+      <c r="I63" t="n">
+        <v>943</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2726,22 +2375,23 @@
         <v>1092.1</v>
       </c>
       <c r="G64" t="n">
-        <v>-15988.26656231674</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+        <v>940</v>
+      </c>
+      <c r="I64" t="n">
+        <v>943</v>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2763,22 +2413,23 @@
         <v>9.0167</v>
       </c>
       <c r="G65" t="n">
-        <v>-15979.24986231674</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
+        <v>938.4</v>
+      </c>
+      <c r="I65" t="n">
+        <v>943</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2800,22 +2451,23 @@
         <v>0.8345</v>
       </c>
       <c r="G66" t="n">
-        <v>-15980.08436231674</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
+        <v>941.9</v>
+      </c>
+      <c r="I66" t="n">
+        <v>943</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2837,22 +2489,23 @@
         <v>959.9453</v>
       </c>
       <c r="G67" t="n">
-        <v>-15020.13906231674</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
+        <v>940</v>
+      </c>
+      <c r="I67" t="n">
+        <v>943</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2874,22 +2527,23 @@
         <v>2401.4334</v>
       </c>
       <c r="G68" t="n">
-        <v>-12618.70566231674</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
+        <v>943</v>
+      </c>
+      <c r="I68" t="n">
+        <v>943</v>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2911,22 +2565,23 @@
         <v>1500</v>
       </c>
       <c r="G69" t="n">
-        <v>-14118.70566231674</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
+        <v>950.8</v>
+      </c>
+      <c r="I69" t="n">
+        <v>943</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2948,22 +2603,23 @@
         <v>1500</v>
       </c>
       <c r="G70" t="n">
-        <v>-14118.70566231674</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+        <v>950.7</v>
+      </c>
+      <c r="I70" t="n">
+        <v>943</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2985,22 +2641,21 @@
         <v>579.9065000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>-13538.79916231674</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>943</v>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3022,22 +2677,21 @@
         <v>43.3807</v>
       </c>
       <c r="G72" t="n">
-        <v>-13495.41846231674</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>943</v>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3059,22 +2713,21 @@
         <v>681.1763999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>-14176.59486231674</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>943</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3096,22 +2749,21 @@
         <v>61.7</v>
       </c>
       <c r="G74" t="n">
-        <v>-14238.29486231674</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>943</v>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3133,22 +2785,21 @@
         <v>61.7</v>
       </c>
       <c r="G75" t="n">
-        <v>-14176.59486231674</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>943</v>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3170,22 +2821,21 @@
         <v>30.9</v>
       </c>
       <c r="G76" t="n">
-        <v>-14176.59486231674</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>943</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3207,22 +2857,21 @@
         <v>300</v>
       </c>
       <c r="G77" t="n">
-        <v>-13876.59486231674</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>943</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3244,22 +2893,21 @@
         <v>46.3</v>
       </c>
       <c r="G78" t="n">
-        <v>-13922.89486231674</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>943</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3281,22 +2929,21 @@
         <v>611.1109</v>
       </c>
       <c r="G79" t="n">
-        <v>-13311.78396231674</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>943</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3318,22 +2965,21 @@
         <v>1545.364</v>
       </c>
       <c r="G80" t="n">
-        <v>-13311.78396231674</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>943</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3355,22 +3001,21 @@
         <v>224.7</v>
       </c>
       <c r="G81" t="n">
-        <v>-13536.48396231674</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>943</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3392,22 +3037,21 @@
         <v>1133.539</v>
       </c>
       <c r="G82" t="n">
-        <v>-14670.02296231674</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>943</v>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3429,22 +3073,21 @@
         <v>567.0802</v>
       </c>
       <c r="G83" t="n">
-        <v>-15237.10316231674</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>943</v>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3466,22 +3109,21 @@
         <v>418.3274</v>
       </c>
       <c r="G84" t="n">
-        <v>-14818.77576231674</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>943</v>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3503,22 +3145,21 @@
         <v>149.374</v>
       </c>
       <c r="G85" t="n">
-        <v>-14968.14976231674</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>943</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3540,22 +3181,21 @@
         <v>410.5293</v>
       </c>
       <c r="G86" t="n">
-        <v>-14557.62046231674</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>943</v>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3577,22 +3217,21 @@
         <v>132.7689695702186</v>
       </c>
       <c r="G87" t="n">
-        <v>-14557.62046231674</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>943</v>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3614,22 +3253,21 @@
         <v>11.7376</v>
       </c>
       <c r="G88" t="n">
-        <v>-14557.62046231674</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>943</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3651,22 +3289,21 @@
         <v>426.9238</v>
       </c>
       <c r="G89" t="n">
-        <v>-14130.69666231674</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>943</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3688,22 +3325,21 @@
         <v>38.6</v>
       </c>
       <c r="G90" t="n">
-        <v>-14169.29666231674</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>943</v>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3725,22 +3361,21 @@
         <v>1507.0958</v>
       </c>
       <c r="G91" t="n">
-        <v>-12662.20086231674</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>943</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3762,22 +3397,21 @@
         <v>83.5117</v>
       </c>
       <c r="G92" t="n">
-        <v>-12578.68916231674</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>943</v>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3799,20 +3433,21 @@
         <v>565.7662150356515</v>
       </c>
       <c r="G93" t="n">
-        <v>-12012.92294728109</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>943</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
       </c>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3834,18 +3469,21 @@
         <v>67.0467444020225</v>
       </c>
       <c r="G94" t="n">
-        <v>-11945.87620287906</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>943</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3867,18 +3505,21 @@
         <v>1500</v>
       </c>
       <c r="G95" t="n">
-        <v>-13445.87620287906</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>943</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3900,18 +3541,21 @@
         <v>4.1667</v>
       </c>
       <c r="G96" t="n">
-        <v>-13450.04290287906</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>943</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3933,18 +3577,21 @@
         <v>1560.862</v>
       </c>
       <c r="G97" t="n">
-        <v>-15010.90490287907</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>943</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3966,18 +3613,21 @@
         <v>2435.2386</v>
       </c>
       <c r="G98" t="n">
-        <v>-17446.14350287907</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>943</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3999,18 +3649,21 @@
         <v>61.7</v>
       </c>
       <c r="G99" t="n">
-        <v>-17384.44350287906</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>943</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4032,18 +3685,21 @@
         <v>4459.2331</v>
       </c>
       <c r="G100" t="n">
-        <v>-21843.67660287907</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>943</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4065,18 +3721,21 @@
         <v>45.2999</v>
       </c>
       <c r="G101" t="n">
-        <v>-21798.37670287906</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>943</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4098,18 +3757,21 @@
         <v>13.7</v>
       </c>
       <c r="G102" t="n">
-        <v>-21784.67670287906</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>943</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4131,18 +3793,21 @@
         <v>405.5048</v>
       </c>
       <c r="G103" t="n">
-        <v>-21379.17190287906</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>943</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4164,18 +3829,21 @@
         <v>544.6506000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>-21379.17190287906</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>943</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4197,18 +3865,21 @@
         <v>282.4218</v>
       </c>
       <c r="G105" t="n">
-        <v>-21096.75010287906</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>943</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1.024692470837752</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4230,18 +3901,15 @@
         <v>2.1469</v>
       </c>
       <c r="G106" t="n">
-        <v>-21096.75010287906</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4263,18 +3931,15 @@
         <v>0.4313</v>
       </c>
       <c r="G107" t="n">
-        <v>-21096.75010287906</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4296,18 +3961,15 @@
         <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>-21107.75010287906</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4329,18 +3991,15 @@
         <v>568</v>
       </c>
       <c r="G109" t="n">
-        <v>-21675.75010287906</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4362,18 +4021,15 @@
         <v>421.9576</v>
       </c>
       <c r="G110" t="n">
-        <v>-21675.75010287906</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4395,18 +4051,15 @@
         <v>325.2133</v>
       </c>
       <c r="G111" t="n">
-        <v>-22000.96340287906</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4428,18 +4081,15 @@
         <v>1826.8274</v>
       </c>
       <c r="G112" t="n">
-        <v>-23827.79080287906</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4461,18 +4111,15 @@
         <v>27.5849</v>
       </c>
       <c r="G113" t="n">
-        <v>-23800.20590287906</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4494,18 +4141,15 @@
         <v>10.94</v>
       </c>
       <c r="G114" t="n">
-        <v>-23811.14590287906</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4527,18 +4171,15 @@
         <v>54.41</v>
       </c>
       <c r="G115" t="n">
-        <v>-23811.14590287906</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4201,15 @@
         <v>39.6599</v>
       </c>
       <c r="G116" t="n">
-        <v>-23811.14590287906</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4593,18 +4231,15 @@
         <v>32.4828</v>
       </c>
       <c r="G117" t="n">
-        <v>-23811.14590287906</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4626,18 +4261,15 @@
         <v>19.8155</v>
       </c>
       <c r="G118" t="n">
-        <v>-23811.14590287906</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4659,18 +4291,15 @@
         <v>1224.0066</v>
       </c>
       <c r="G119" t="n">
-        <v>-25035.15250287906</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4692,18 +4321,15 @@
         <v>405.5048</v>
       </c>
       <c r="G120" t="n">
-        <v>-25035.15250287906</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4725,18 +4351,15 @@
         <v>342.8642</v>
       </c>
       <c r="G121" t="n">
-        <v>-24692.28830287906</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4758,18 +4381,15 @@
         <v>547.9501</v>
       </c>
       <c r="G122" t="n">
-        <v>-24144.33820287906</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4791,18 +4411,15 @@
         <v>241.9026</v>
       </c>
       <c r="G123" t="n">
-        <v>-23902.43560287906</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4824,18 +4441,15 @@
         <v>554.3043</v>
       </c>
       <c r="G124" t="n">
-        <v>-24456.73990287906</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4857,18 +4471,15 @@
         <v>162.5</v>
       </c>
       <c r="G125" t="n">
-        <v>-24294.23990287906</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4890,18 +4501,15 @@
         <v>309.3562</v>
       </c>
       <c r="G126" t="n">
-        <v>-23984.88370287906</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4923,18 +4531,15 @@
         <v>1317.9</v>
       </c>
       <c r="G127" t="n">
-        <v>-22666.98370287906</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4956,18 +4561,15 @@
         <v>89.33320000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>-22756.31690287906</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4989,18 +4591,15 @@
         <v>401.1707135453232</v>
       </c>
       <c r="G129" t="n">
-        <v>-22355.14618933374</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5022,18 +4621,15 @@
         <v>1063.6954</v>
       </c>
       <c r="G130" t="n">
-        <v>-23418.84158933374</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5055,18 +4651,15 @@
         <v>300</v>
       </c>
       <c r="G131" t="n">
-        <v>-23718.84158933374</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5088,18 +4681,15 @@
         <v>1319</v>
       </c>
       <c r="G132" t="n">
-        <v>-25037.84158933374</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5121,18 +4711,15 @@
         <v>1.3702</v>
       </c>
       <c r="G133" t="n">
-        <v>-25036.47138933374</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5154,18 +4741,15 @@
         <v>453</v>
       </c>
       <c r="G134" t="n">
-        <v>-25489.47138933374</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5187,18 +4771,15 @@
         <v>25.9609</v>
       </c>
       <c r="G135" t="n">
-        <v>-25515.43228933373</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5220,18 +4801,15 @@
         <v>17.9464</v>
       </c>
       <c r="G136" t="n">
-        <v>-25533.37868933373</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5253,18 +4831,15 @@
         <v>0.0001</v>
       </c>
       <c r="G137" t="n">
-        <v>-25533.37858933373</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5286,18 +4861,15 @@
         <v>786.104</v>
       </c>
       <c r="G138" t="n">
-        <v>-24747.27458933373</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5319,18 +4891,15 @@
         <v>463</v>
       </c>
       <c r="G139" t="n">
-        <v>-25210.27458933373</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5352,18 +4921,15 @@
         <v>735.7676</v>
       </c>
       <c r="G140" t="n">
-        <v>-25946.04218933373</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5385,18 +4951,15 @@
         <v>475.2026</v>
       </c>
       <c r="G141" t="n">
-        <v>-26421.24478933373</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5418,18 +4981,15 @@
         <v>888.7705</v>
       </c>
       <c r="G142" t="n">
-        <v>-26421.24478933373</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5451,18 +5011,15 @@
         <v>0.6</v>
       </c>
       <c r="G143" t="n">
-        <v>-26420.64478933374</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5484,18 +5041,15 @@
         <v>500</v>
       </c>
       <c r="G144" t="n">
-        <v>-26920.64478933374</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5517,18 +5071,15 @@
         <v>18.3586</v>
       </c>
       <c r="G145" t="n">
-        <v>-26939.00338933373</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5550,22 +5101,15 @@
         <v>429.5772</v>
       </c>
       <c r="G146" t="n">
-        <v>-27368.58058933373</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="J146" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5587,26 +5131,15 @@
         <v>1917.0682</v>
       </c>
       <c r="G147" t="n">
-        <v>-25451.51238933373</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>942.3</v>
-      </c>
-      <c r="J147" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5628,26 +5161,15 @@
         <v>3702.9626</v>
       </c>
       <c r="G148" t="n">
-        <v>-29154.47498933373</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="J148" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5669,26 +5191,15 @@
         <v>144.4243</v>
       </c>
       <c r="G149" t="n">
-        <v>-29010.05068933373</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>938</v>
-      </c>
-      <c r="J149" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5710,26 +5221,15 @@
         <v>1793.5849</v>
       </c>
       <c r="G150" t="n">
-        <v>-27216.46578933373</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>938.3</v>
-      </c>
-      <c r="J150" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5751,26 +5251,15 @@
         <v>1666.5701</v>
       </c>
       <c r="G151" t="n">
-        <v>-27216.46578933373</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="J151" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5792,26 +5281,15 @@
         <v>4.008</v>
       </c>
       <c r="G152" t="n">
-        <v>-27216.46578933373</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="J152" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5833,26 +5311,15 @@
         <v>0.8022</v>
       </c>
       <c r="G153" t="n">
-        <v>-27216.46578933373</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="J153" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5874,26 +5341,15 @@
         <v>30.0978</v>
       </c>
       <c r="G154" t="n">
-        <v>-27216.46578933373</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="J154" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5915,26 +5371,15 @@
         <v>0.9</v>
       </c>
       <c r="G155" t="n">
-        <v>-27215.56578933373</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="J155" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5956,26 +5401,15 @@
         <v>194.9854</v>
       </c>
       <c r="G156" t="n">
-        <v>-27410.55118933373</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="J156" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5997,26 +5431,15 @@
         <v>260</v>
       </c>
       <c r="G157" t="n">
-        <v>-27150.55118933373</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="J157" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6038,26 +5461,15 @@
         <v>1874.7549</v>
       </c>
       <c r="G158" t="n">
-        <v>-29025.30608933373</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>952.7</v>
-      </c>
-      <c r="J158" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6079,26 +5491,15 @@
         <v>365.109</v>
       </c>
       <c r="G159" t="n">
-        <v>-29025.30608933373</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="J159" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6120,26 +5521,15 @@
         <v>151.6056</v>
       </c>
       <c r="G160" t="n">
-        <v>-29025.30608933373</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="J160" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6161,26 +5551,15 @@
         <v>727.3658</v>
       </c>
       <c r="G161" t="n">
-        <v>-29752.67188933373</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="J161" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6202,26 +5581,15 @@
         <v>369.6276</v>
       </c>
       <c r="G162" t="n">
-        <v>-30122.29948933373</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>944.1</v>
-      </c>
-      <c r="J162" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6243,26 +5611,15 @@
         <v>28.7513</v>
       </c>
       <c r="G163" t="n">
-        <v>-30093.54818933373</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>942.2</v>
-      </c>
-      <c r="J163" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6284,26 +5641,15 @@
         <v>0.6651</v>
       </c>
       <c r="G164" t="n">
-        <v>-30093.54818933373</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>947</v>
-      </c>
-      <c r="J164" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6325,26 +5671,15 @@
         <v>353.9759</v>
       </c>
       <c r="G165" t="n">
-        <v>-30447.52408933373</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>947</v>
-      </c>
-      <c r="J165" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6366,26 +5701,15 @@
         <v>2575.5749</v>
       </c>
       <c r="G166" t="n">
-        <v>-30447.52408933373</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>945</v>
-      </c>
-      <c r="J166" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6407,26 +5731,15 @@
         <v>0.8169</v>
       </c>
       <c r="G167" t="n">
-        <v>-30448.34098933373</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>945</v>
-      </c>
-      <c r="J167" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6448,26 +5761,15 @@
         <v>14.663</v>
       </c>
       <c r="G168" t="n">
-        <v>-30433.67798933373</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>938.5</v>
-      </c>
-      <c r="J168" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6489,26 +5791,15 @@
         <v>0.8169</v>
       </c>
       <c r="G169" t="n">
-        <v>-30432.86108933373</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>938.6</v>
-      </c>
-      <c r="J169" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6530,26 +5821,15 @@
         <v>1805.2025</v>
       </c>
       <c r="G170" t="n">
-        <v>-32238.06358933373</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>949.1</v>
-      </c>
-      <c r="J170" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6571,26 +5851,15 @@
         <v>0.6</v>
       </c>
       <c r="G171" t="n">
-        <v>-32238.66358933373</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>941.9</v>
-      </c>
-      <c r="J171" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6612,26 +5881,15 @@
         <v>0.8169</v>
       </c>
       <c r="G172" t="n">
-        <v>-32237.84668933373</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>941.3</v>
-      </c>
-      <c r="J172" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6653,26 +5911,15 @@
         <v>1.6338</v>
       </c>
       <c r="G173" t="n">
-        <v>-32239.48048933373</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>948.8</v>
-      </c>
-      <c r="J173" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6694,26 +5941,15 @@
         <v>0.8169</v>
       </c>
       <c r="G174" t="n">
-        <v>-32240.29738933373</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>948.7</v>
-      </c>
-      <c r="J174" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
